--- a/backend/source/transformer/procurement_library/IDH Sustainable Procurement Practices_Updated 5th Mar'25.xlsx
+++ b/backend/source/transformer/procurement_library/IDH Sustainable Procurement Practices_Updated 5th Mar'25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28706"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AKVO Proposal 2024\Procurement library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandrafudorova/Documents/IDH work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{763797D6-2F15-40A1-B425-D360B4885E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B0ED8EE-6B1A-4276-AC10-660BC8C99D07}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{2254908C-404D-4D48-95B3-767A88B77AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15592BC8-C6A9-4ABB-9F34-AF1D64C98AB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{347ED5AD-7F69-4262-87F9-B116ECDEAD3B}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{347ED5AD-7F69-4262-87F9-B116ECDEAD3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="426">
   <si>
     <t>Question</t>
   </si>
@@ -79,7 +79,7 @@
     <t>In which area do you seek to have impact?</t>
   </si>
   <si>
-    <t>Environment</t>
+    <t>Both</t>
   </si>
   <si>
     <t>Farmer income: Positive impact created at farmer level through higher and/or more resilient income.; Environment: Positive impact created in the environment. ; Both: Positive impact created on both farmer income and environment.</t>
@@ -88,7 +88,7 @@
     <t>What is your position in the supply chain?</t>
   </si>
   <si>
-    <t>Aggregator</t>
+    <t>Trader</t>
   </si>
   <si>
     <t>Farmer: Engaged in the initial stages of raw material production. Focus on on agricultural yields, sustainability practices and supply chain collaboration.; Aggregator: Collects, organizes and manages the movement of products from multiple sources to make them more accessible to the next stage in the supply chain.; Processor: Involved in transforming raw materials into intermediate or final products. Efficiency in processing, product quality, and value capture through transformation.; Trader: Facilitates the movement of products between different stages of the supply chain. Distribution efficiency, market reach, and supply chain collaboration.; Manufacturer: Converts processed goods into finished products. Focus on production efficiency, product innovation, and adaptability to market demands.; Retailer: Connects products with end consumers, often involved in branding and marketing. Focusses on market penetration, branding success, and consumer satisfaction.</t>
@@ -97,7 +97,7 @@
     <t>How is the market formality of your supply chain best described?</t>
   </si>
   <si>
-    <t>Informal-Large</t>
+    <t>Informal-Small</t>
   </si>
   <si>
     <t>Informal–small Markets: Refer to local or national markets characterized by limited market regulations, immature and fragmented presence of market players, unclear market structure, relatively small scale of operation. Trade &amp; growth  are often constrained by these factors.; Informal-large Markets:
@@ -109,7 +109,7 @@
     <t>How is the total value addition to the product in your supply chain best described?</t>
   </si>
   <si>
-    <t>Intermediate Enhancement</t>
+    <t xml:space="preserve"> High Differentiation</t>
   </si>
   <si>
     <t>Basic Processing: Basic Processing - Product maintains closer resemblance to their original form. Involves minimal value add processing, preserving inherent qualities of raw commodity, low financial value addition.; Intermediate Enhancement: Moderate processing and enhancement, adressung specific consumer preferences or convienience. Products undergo some transformation, introducing added features and capture medium financial value addition.; High Differentiation: Encompasses high-level processing, incorporating unique attributes such as sustainability, specialized packaging, Products are positioned as high value offerings with distincive features and high financial value addition.</t>
@@ -118,7 +118,7 @@
     <t>What is the size of your business?</t>
   </si>
   <si>
-    <t>Medium-scale Enterprise</t>
+    <t>Small-scale Enterprise</t>
   </si>
   <si>
     <t>Small-scale Enterprise: Limited market share, local or regional presence, moderate production or processing volume, limited integration into supply chain and more local organisation structure.&lt; 50 FTE | &lt; $10 M.; Medium-scale Enterprise: Moderate to substantial market share, regional or national presence, significant production and processing volume, involvement in multiple stages of supply chain. &lt; 150 FTE | &lt; $50 M.; Large-scale Enterprise: Dominant market share, international or global presence, high production or processing volume, comprehenive integration across supply chain, internationally or globally organised.&gt; 2.000 FTE | &gt; $500 M.; Mega-scale Enterprise: Dominant market share, international or global presence, high production or processing volume, comprehenive integration across supply chain,  globally organized structure.&gt; 25.000 FTE | &gt; $5 B.</t>
@@ -460,19 +460,19 @@
     <t>Farmer</t>
   </si>
   <si>
+    <t>Aggregator</t>
+  </si>
+  <si>
     <t>Processor</t>
   </si>
   <si>
-    <t>Trader</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
     <t>Retailer</t>
   </si>
   <si>
-    <t>Informal-Small</t>
+    <t>Informal-Large</t>
   </si>
   <si>
     <t>Formal-Small</t>
@@ -484,10 +484,10 @@
     <t>Basic Processing</t>
   </si>
   <si>
-    <t xml:space="preserve"> High Differentiation</t>
-  </si>
-  <si>
-    <t>Small-scale Enterprise</t>
+    <t>Intermediate Enhancement</t>
+  </si>
+  <si>
+    <t>Medium-scale Enterprise</t>
   </si>
   <si>
     <t xml:space="preserve"> Large-scale Enterprise</t>
@@ -502,7 +502,7 @@
     <t>Income</t>
   </si>
   <si>
-    <t>Contract Lifecycle Management</t>
+    <t>Contract Life Cycle Management</t>
   </si>
   <si>
     <t>Simple Contract Terminology</t>
@@ -1169,7 +1169,7 @@
     <t>https://edepot.wur.nl/460672</t>
   </si>
   <si>
-    <t>Strategic, Responsible Sourcing &amp; Vertical Integration</t>
+    <t>Responsible Sourcing, Vertical Integration</t>
   </si>
   <si>
     <t xml:space="preserve">Make vs. Buy Decision </t>
@@ -1255,7 +1255,7 @@
 https://webassets.oxfamamerica.org/media/documents/Business-briefing-Issue-1-V3.pdf</t>
   </si>
   <si>
-    <t>Procurement Leadership &amp; Responsible Sourcing &amp; Contract Mangement</t>
+    <t>Procurement Leadership, Responsible Sourcing,  Contract Mangement</t>
   </si>
   <si>
     <t>Direct Farmer Contracting Programs</t>
@@ -1312,9 +1312,6 @@
 Nespresso Example, Norwegian &amp; Pakstanian Rice producer</t>
   </si>
   <si>
-    <t>Strategic / Responsible Sourcing</t>
-  </si>
-  <si>
     <t>Fair Pricing Negotiation Practices</t>
   </si>
   <si>
@@ -1429,7 +1426,7 @@
 https://www.sciencedirect.com/science/article/abs/pii/S0308521X20308702</t>
   </si>
   <si>
-    <t>Contract Lifecycle Management &amp; Payment Management</t>
+    <t>Contract Life Cycle Management, Payment Management</t>
   </si>
   <si>
     <t xml:space="preserve">Shorter Payment Periods
@@ -1980,9 +1977,6 @@
     <t>Sustainability | Free Full-Text | How Public Procurement Mechanisms Can Be Used as a Tool for Developing Pro-Poor Food Value Chains: From Entry Points to Interventions (mdpi.com)</t>
   </si>
   <si>
-    <t>Supplier Life-Cycle Management</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supplier Segmentation </t>
   </si>
   <si>
@@ -2042,10 +2036,10 @@
 Evidence of clear supplier segmentation process in Mondelez Interview with CPO LATAM, more </t>
   </si>
   <si>
-    <t>Demand &amp; Specification Management &amp; Integrated Business Planning</t>
-  </si>
-  <si>
-    <t>Business procurement requirements planning</t>
+    <t>Demand and Specification Management, Integrated Business Planning</t>
+  </si>
+  <si>
+    <t>Business Procurement Requirements Planning</t>
   </si>
   <si>
     <t>Definition: 
@@ -2345,10 +2339,13 @@
 </t>
   </si>
   <si>
-    <t>Sustainability strategy &amp; target setting</t>
-  </si>
-  <si>
-    <t>Integrating sustainability targets within the procurement strategy</t>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Sustainability Strategy, Target Setting</t>
+  </si>
+  <si>
+    <t>Integrating Sustainability Targets Within the Procurement Strategy</t>
   </si>
   <si>
     <t>Definition:
@@ -2442,10 +2439,10 @@
 25. https://ccsi.columbia.edu/sites/default/files/content/pics/CCSI%20Responsible%20Coffee%20Sourcing%20Report.pdf</t>
   </si>
   <si>
-    <t>Green procurement policies</t>
-  </si>
-  <si>
-    <t>Adoption of a green policy</t>
+    <t>Green Procurement Policies</t>
+  </si>
+  <si>
+    <t>Adoption of a Green Policy</t>
   </si>
   <si>
     <t>Definition:
@@ -2523,10 +2520,7 @@
 7. https://www.unilever.com/planet-and-society/protect-and-regenerate-nature/sustainable-and-regenerative-sourcing/</t>
   </si>
   <si>
-    <t>Supplier lifecycle management</t>
-  </si>
-  <si>
-    <t>Supplier sustainability assessment</t>
+    <t>Supplier Sustainability Assessment</t>
   </si>
   <si>
     <t xml:space="preserve">Definition: 
@@ -2610,7 +2604,7 @@
 6. https://ccsi.columbia.edu/sites/default/files/content/pics/CCSI%20Responsible%20Coffee%20Sourcing%20Report.pdf</t>
   </si>
   <si>
-    <t>Product footprint assessment</t>
+    <t>Product Footprint Assessment</t>
   </si>
   <si>
     <t>Conducting an Environmental Impact Assessment (EIA)</t>
@@ -2691,7 +2685,7 @@
 3. https://www.sciencedirect.com/science/article/pii/S0048969721007506</t>
   </si>
   <si>
-    <t>Conducting a Lifecycle Assessment (LCA)</t>
+    <t>Conducting a Life Cycle Assessment (LCA)</t>
   </si>
   <si>
     <t>Definition: 
@@ -2770,10 +2764,10 @@
 7. https://sustainabledevelopment.un.org/content/documents/846Why_take_a_life_cycle_approach_EN.pdf</t>
   </si>
   <si>
-    <t>Support sustainable farming practices</t>
-  </si>
-  <si>
-    <t>Supporting regenerative agriculture</t>
+    <t>Support Sustainable Farming Practices</t>
+  </si>
+  <si>
+    <t>Supporting Regenerative Agriculture</t>
   </si>
   <si>
     <t>Definiton: Regenerative agriculture is an package of sustainable farming practices, aiming to restore and enhance soil health, promoting biodiversity, and increasing resilience to climate change, emphasizing sustainability and resilience throughout the supply chain. This holistic approach can bring about several benefits for the environment and, in many cases, contribute to improved economic outcomes for farmers. Many of the other sustainable farming practices are included in this package of regenerative agriculture, such as:
@@ -2857,7 +2851,7 @@
 8. https://www.rainforest-alliance.org/insights/what-is-regenerative-agriculture/</t>
   </si>
   <si>
-    <t>Supporting limited use of chemical products</t>
+    <t>Supporting Limited Use of Chemical Products</t>
   </si>
   <si>
     <t>Definition:
@@ -2928,7 +2922,7 @@
     <t>https://link.springer.com/referencework/10.1007/978-3-030-57281-5</t>
   </si>
   <si>
-    <t xml:space="preserve">Supporting soil conservation </t>
+    <t xml:space="preserve">Supporting Soil Conservation </t>
   </si>
   <si>
     <t xml:space="preserve">The deliberate implementation of sustainable agricultural practices and sourcing strategies that aim to prevent soil erosion, enhance soil health, and promote long-term fertility, ensuring responsible and resilient procurement within the supply chain. </t>
@@ -2998,7 +2992,7 @@
     <t>Conservation agriculture- Case studies in Latin America and Africa (fao.org)</t>
   </si>
   <si>
-    <t>Supporting crop rotation and diversification</t>
+    <t>Supporting Crop Rotation and Diversification</t>
   </si>
   <si>
     <t>Definition: 
@@ -3075,7 +3069,7 @@
 6. https://www.frontiersin.org/articles/10.3389/fagro.2021.698968/full</t>
   </si>
   <si>
-    <t>Supporting agroforestry</t>
+    <t>Supporting Agroforestry</t>
   </si>
   <si>
     <t>Definition:
@@ -3228,7 +3222,7 @@
 3. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4553536/</t>
   </si>
   <si>
-    <t>Supporting hedgerows and field borders</t>
+    <t>Supporting Hedgerows and Field Borders</t>
   </si>
   <si>
     <t>Definition:
@@ -3304,7 +3298,7 @@
 4. https://hedgelink.org.uk/cms/cms_content/files/65_hedgerow_management_and_wildlife.pdf</t>
   </si>
   <si>
-    <t>Supporting organic farming</t>
+    <t>Supporting Organic Farming</t>
   </si>
   <si>
     <t>Definition: 
@@ -3383,7 +3377,7 @@
 7. https://www.ncbi.nlm.nih.gov/pmc/articles/PMC10069358/</t>
   </si>
   <si>
-    <t>Supporting sustainable water management</t>
+    <t>Supporting Sustainable Water Management</t>
   </si>
   <si>
     <t>Definition: 
@@ -3460,10 +3454,10 @@
 6. https://www.nestle.com/sustainability/water/sustainable-water-efficiency-agriculture</t>
   </si>
   <si>
-    <t>Carbon reductions</t>
-  </si>
-  <si>
-    <t>Incentivizing carbon sequestration</t>
+    <t>Carbon Reductions</t>
+  </si>
+  <si>
+    <t>Incentivizing Carbon Sequestration</t>
   </si>
   <si>
     <t>The adoption of sustainable agricultural practices and sourcing strategies that enhance the capture and storage of carbon in soils and vegetation, contributing to carbon neutrality and climate-friendly procurement within the supply chain.</t>
@@ -3533,7 +3527,7 @@
     <t>1. https://www.greenbiz.com/article/why-jpmorgan-hm-and-others-will-pay-571-million-spread-crushed-rock-farmland</t>
   </si>
   <si>
-    <t>Supporting energy efficiency/renewable energy use</t>
+    <t>Supporting Energy Efficiency and Renewable Energy Use</t>
   </si>
   <si>
     <t>The adoption of practices and sourcing strategies that prioritize reduced energy consumption, increased efficiency, and the integration of renewable energy sources to minimize environmental impact and enhance sustainability throughout the supply chain.</t>
@@ -3607,10 +3601,10 @@
 6. https://www.ucsusa.org/resources/renewable-energy-and-agriculture</t>
   </si>
   <si>
-    <t>Environmental certification</t>
-  </si>
-  <si>
-    <t>Fair trade certifications</t>
+    <t>Environmental Certification</t>
+  </si>
+  <si>
+    <t>Fair Trade Certifications</t>
   </si>
   <si>
     <t>Definition:
@@ -3691,7 +3685,7 @@
     <t xml:space="preserve">1. https://www.rainforest-alliance.org/for-business/2020-certification-program/ </t>
   </si>
   <si>
-    <t>Organic agriculture certification</t>
+    <t>Organic Agriculture Certification</t>
   </si>
   <si>
     <t>Definition:
@@ -3772,7 +3766,7 @@
     <t>https://www.sciencedirect.com/science/article/pii/S016953472100183X</t>
   </si>
   <si>
-    <t>Innovation and agritech</t>
+    <t>Innovation and Agritech</t>
   </si>
   <si>
     <t>Supporting Precision Agriculture</t>
@@ -3888,9 +3882,6 @@
   </si>
   <si>
     <t>Farmer Income</t>
-  </si>
-  <si>
-    <t>Both</t>
   </si>
 </sst>
 </file>
@@ -4652,10 +4643,10 @@
   <dimension ref="B1:P25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="45.7109375" customWidth="1"/>
@@ -4665,7 +4656,7 @@
     <col min="6" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
-    <col min="13" max="17" width="26.5703125" customWidth="1"/>
+    <col min="13" max="17" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="9" customHeight="1"/>
@@ -4809,11 +4800,11 @@
     <row r="11" spans="2:16">
       <c r="B11" s="55" t="str">
         <f>'Background calcs'!L4</f>
-        <v>Supporting regenerative agriculture</v>
+        <v>Supporting Regenerative Agriculture</v>
       </c>
       <c r="D11" s="31">
         <f>'Background calcs'!K4</f>
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="31" cm="1">
@@ -4920,7 +4911,7 @@
       </c>
       <c r="D12" s="31">
         <f>'Background calcs'!K5</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="31" cm="1">
@@ -5021,24 +5012,24 @@
     <row r="13" spans="2:16">
       <c r="B13" s="55" t="str">
         <f>'Background calcs'!L6</f>
-        <v>Supplier Capacity Building</v>
+        <v>Procurement-Driven Sustainability Investments</v>
       </c>
       <c r="D13" s="31">
         <f>'Background calcs'!K6</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="31" cm="1">
         <f t="array" ref="F13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(F$10,var_columns,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13" s="31" cm="1">
         <f t="array" ref="G13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(G$10,var_columns,0))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H13" s="31" cm="1">
         <f t="array" ref="H13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(H$10,var_columns,0))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="31" cm="1">
         <f t="array" ref="I13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(I$10,var_columns,0))</f>
@@ -5046,1162 +5037,17 @@
       </c>
       <c r="J13" s="31" cm="1">
         <f t="array" ref="J13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(J$10,var_columns,0))</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" ref="L13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-Supplier capacity building refers to strategic initiatives and support mechanisms implemented by a buyer to enhance the capabilities, skills, and resources of suppliers, fostering their growth, resilience, and ability to meet procurement requirements effectively.
-Additional Details:
-Supplier capacity building in agricultural procurement revolves around enhancing productivity, promoting sustainable practices, providing access to financial resources, reducing risks, improving product quality, facilitating market access, optimizing resource utilization, fostering technology adoption, empowering local communities, and establishing long-term partnerships. These interventions collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
-      </c>
-      <c r="M13" t="str" cm="1">
-        <f t="array" ref="M13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(M$10,var_columns,0))</f>
-        <v>Enabling effective implementation of supplier capacity-building initiatives in a procurement organization involves conducting a thorough needs assessment, defining clear objectives, integrating initiatives into the overall procurement strategy, allocating sufficient resources, establishing transparent communication channels, building collaborative partnerships, developing targeted training programs, leveraging technology, implementing robust monitoring and evaluation mechanisms, and incorporating recognition and incentives, ensuring a conducive environment for suppliers' skill development and overall capacity improvement.</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective
-Supplier capacity building can significantly reduce businesses' procurement costs. Enhanced productivity and efficient resource use lead to lower production costs. The adoption of new technologies can provide more cost-efficient methods of production.
-2. Revenue Perspective 
-Capacity building can enable suppliers to produce higher quality goods leading to increased revenue as higher-quality goods often command better prices. Furthermore, empowering local communities and establishing long-term partnerships can improve market access and customer loyalty, driving further revenue.
-3. Risk Perspective 
-Providing access to financial resources, promoting sustainable practices, and risk management training result in a more robust and resilient supply chain, significantly reducing operational and reputational risks. Building long-term relationships with suppliers also provides stability, reduces the risk of supply disruption, and helps to ensure that ethical standards are maintained, reducing compliance risks.
-4. Sustainable Procurement
-From a sustainable procurement perspective, supplier capacity building helps businesses ensure that the goods they procure are not only economically viable, but also ethically and sustainably produced. This contributes to resilience and sustainability throughout the supply chain, thereby aligning procurement with corporate sustainability goals and public expectations. Additionally, by empowering local communities and prioritising long-term relationships, businesses can support fair trade and local economic development, further enhancing the sustainability of their procurement practices. While requiring initial investment, the long term benefits of supplier capacity building make it an important focus for sustainably-minded businesses.</v>
-      </c>
-      <c r="O13" t="str" cm="1">
-        <f t="array" ref="O13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(O$10,var_columns,0))</f>
-        <v>1. Income Perspective 
-All aspects of supplier capacity building will help farmers to increase their income. Enhanced productivity, improved product quality and market access, and access to financial resources all contribute to the potential for increased sales and profits. Additionally, longer-term partnerships can provide more predictable income streams for farmers.
-2. Environment Perspective 
-Capacity building that promotes sustainable practices and efficient resource utilization fostincs environmentally-friendly farming. This doesn't just benefit the environment but also the farmers, as such practices can lead to healthier soil, increased resilience to climate change, and potential eligibility for certain grants or subsidies.</v>
-      </c>
-      <c r="P13" t="str" cm="1">
-        <f t="array" ref="P13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective
-Risks:
-Resource Intensity: Implementing capacity-building initiatives may require significant time and resources, impacting the buyer's budget and operational efficiency.
-Dependency on Suppliers: Developing strong supplier capabilities may create a dependency on key suppliers, posing a risk in case of supplier-related disruptions.
-Unrealized Returns: Despite investments, there is a risk that the expected returns in terms of improved supplier performance may not be fully realized.
-Trade-offs:
-Short-Term vs. Long-Term Impact: Buyers may face the trade-off between addressing immediate procurement needs and making long-term investments in supplier capacity building. Balancing short-term requirements with the long-term impact on supplier capabilities is essential.
-Cost vs. Quality in Capacity Building: Buyers may need to decide on the level of investment in supplier capacity building, considering the trade-off between cost considerations and the quality of the capacity-building initiatives. Striking the right balance ensures cost-effectiveness without compromising quality.
-Speed vs. Thoroughness: Buyers may prioritize swift capacity-building initiatives, but this may come at the expense of a more comprehensive and thorough approach. Deciding between speed and thoroughness involves assessing the urgency of capacity building against the need for a robust program.
-Focus on Strategic Suppliers vs. Inclusivity: Buyers may need to decide whether to concentrate capacity-building efforts on strategic suppliers or adopt a more inclusive approach. Balancing strategic focus with inclusivity requires assessing the impact on the entire supply chain.
-2. Supplier Perspective:
-Risks:
-Resource Strain: Suppliers may face resource strain in adapting to capacity-building requirements, especially if the initiatives demand substantial investments.
-Dependence on Buyer's Strategy: Suppliers investing in capacity building may become overly dependent on the buyer's strategy, risking vulnerability if the buyer's priorities shift.
-Competitive Imbalances: Capacity-building initiatives may inadvertently create imbalances among suppliers, impacting competition within the supplier base.
-Trade-offs:
-Operational Disruption vs. Long-Term Benefits: Suppliers may face operational disruption during capacity-building initiatives, but they must weigh this against the long-term benefits of enhanced capabilities. Striking a balance involves managing short-term challenges for long-term gains.
-Resource Allocation vs. Day-to-Day Operations: Suppliers may need to allocate resources to capacity building, impacting day-to-day operations. Deciding on the appropriate level of resource allocation involves considering the trade-off between immediate operational needs and building long-term capabilities.
-Specialized Training vs. General Skills Enhancement: Suppliers may choose between providing specialized training for specific requirements or offering more general skills enhancement. Balancing these options requires assessing the trade-off between meeting immediate needs and building a versatile skill set.
-Strategic Alignment vs. Independence: Suppliers may need to align strategically with the buyer's goals during capacity building, but this may affect their independence. Deciding the extent of strategic alignment involves evaluating the trade-off between collaboration and maintaining autonomy.</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="55" t="str">
-        <f>'Background calcs'!L7</f>
-        <v>Supplier sustainability assessment</v>
-      </c>
-      <c r="D14" s="31">
-        <f>'Background calcs'!K7</f>
-        <v>22</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31" cm="1">
-        <f t="array" ref="F14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(F$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G14" s="31" cm="1">
-        <f t="array" ref="G14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(G$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H14" s="31" cm="1">
-        <f t="array" ref="H14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(H$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="31" cm="1">
-        <f t="array" ref="I14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(I$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="J14" s="31" cm="1">
-        <f t="array" ref="J14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(J$10,var_columns,0))</f>
-        <v>2.5</v>
-      </c>
-      <c r="L14" t="str" cm="1">
-        <f t="array" ref="L14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(L$10,var_columns,0))</f>
-        <v xml:space="preserve">Definition: 
-The evaluation and measurement of a supplier's environmental, social, and economic practices to ensure alignment with sustainable and responsible business principles.
-Additional Details:
-Evaluating stakeholers within the agri-food supply chain based on their environmental performance is crucial in the context of procuring agri-food commodities. This includes assessing suppliers' environmental practices and adherence to environmental regulations. Examples of the environmental aspects to be considered include contribution to GHG emissions, deforestation, erosion, natural resources depletion, decreased biodiversity, etc.  </v>
-      </c>
-      <c r="M14" t="str" cm="1">
-        <f t="array" ref="M14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(M$10,var_columns,0))</f>
-        <v>Enabling conditions for supplier sustainability assessment in a procurement organization include:
-Clear Sustainability Criteria: Establish well-defined and comprehensive sustainability criteria that cover environmental, social, and economic aspects, providing a clear framework for supplier assessments.
-Clear Sustainability Criteria: Establish well-defined and comprehensive sustainability criteria that cover environmental, social, and economic aspects, providing a clear framework for supplier assessments.
-Collaborative Standards: Engage with industry organizations, NGOs, or sustainability initiatives to leverage established standards and frameworks for supplier sustainability, ensuring alignment with recognized best practices.
-Data Transparency: Encourage suppliers to provide transparent and accurate data on their sustainability practices, facilitating a more thorough and reliable assessment process.
-Capacity Building Support: Offer training programs and resources to suppliers, enabling them to enhance their sustainability practices and meet the criteria set by the procurement organization.
-Supply Chain Mapping: Implement supply chain mapping tools to gain visibility into the entire supply chain, allowing for a more comprehensive assessment of the environmental and social impacts associated with suppliers.
-Risk Mitigation Strategies: Develop strategies to address identified sustainability risks within the supply chain, incorporating contingency plans and collaborative initiatives with suppliers to mitigate potential issues.
-Continuous Monitoring: Implement ongoing monitoring mechanisms to track supplier sustainability performance over time, allowing for the identification of trends, areas for improvement, and recognition of exemplary practices.
-Internal Accountability: Establish internal mechanisms and responsibilities within the procurement organization to ensure accountability for sustainability assessments, fostering a culture of commitment to responsible sourcing.
-Supplier Feedback Loops: Create channels for open communication and feedback between procurement organizations and suppliers, encouraging a collaborative approach to sustainability improvement.
-Technology Integration: Utilize advanced technologies, such as blockchain or digital platforms, to enhance transparency, traceability, and the efficiency of supplier sustainability assessments.
-Diversity and Inclusion: Integrate diversity and inclusion criteria into supplier assessments, considering social aspects such as fair labor practices, gender equality, and community engagement.
-Benchmarking and Recognition: Implement benchmarking mechanisms to compare supplier sustainability performance within the industry and recognize and reward top-performing suppliers.
-Performance Incentives: Establish incentive structures that motivate suppliers to go beyond compliance and excel in sustainability, offering recognition, preferential treatment, or collaborative opportunities for high-performing suppliers.
-Third-Party Verification: Consider engaging third-party organizations or auditors to verify and validate supplier sustainability claims, enhancing the credibility and reliability of the assessment process.
-These additional conditions contribute to a more nuanced and comprehensive approach to supplier sustainability assessment within procurement organizations.
-Collaborative Standards: Engage with industry organizations, NGOs, or sustainability initiatives to lever</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective:
-Operational Efficiency: A supplier sustainability assessment enables agri-food companies to identify and work with suppliers that align with sustainability goals. This leads to operational efficiency by reducing the environmental and social impacts associated with the supply chain, resulting in cost savings over time.
-Risk Mitigation: Assessing supplier sustainability helps mitigate risks associated with disruptions in the supply chain. By identifying and addressing potential environmental and social issues, companies can avoid costly disruptions and associated financial losses.
-2. Revenue Perspective:
-Market Access and Premium Pricing: Agri-food companies with a strong focus on supplier sustainability can use this as a marketing tool. Access to markets that prioritize sustainable sourcing can lead to increased sales and premium pricing, contributing to higher revenue.
-Consumer Trust and Loyalty: Consumers are increasingly conscious of the environmental and social impact of the products they purchase. A commitment to supplier sustainability builds trust and loyalty among consumers, potentially expanding the customer base.
-3. Risk Perspective:
-Regulatory Compliance: Supplier sustainability assessments ensure compliance with evolving environmental and social regulations. This reduces the risk of legal consequences and associated financial penalties, safeguarding the company's reputation and financial stability.
-Reputation Management: By selecting suppliers with strong sustainability practices, agri-food companies can mitigate reputational risks associated with unethical or environmentally harmful practices in the supply chain.
-4. Link to Procurement Organizations:
-The adoption of a supplier sustainability assessment directly links to procurement organizations by placing responsibility on them to evaluate and select suppliers based on sustainability criteria. Procurement teams play a vital role in ensuring that the entire supply chain aligns with the company's sustainability goals.</v>
-      </c>
-      <c r="O14" t="str" cm="1">
-        <f t="array" ref="O14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(O$10,var_columns,0))</f>
-        <v xml:space="preserve">1. Environmental Perspective:
-Promotion of Sustainable Farming Practices: Supplier sustainability assessments encourage farmers to adopt sustainable practices to meet the criteria set by agri-food companies. This leads to environmental benefits such as reduced pesticide use, soil conservation, and biodiversity preservation.
-Climate Resilience: Aligning with sustainable farming practices contributes to climate resilience, reducing environmental risks associated with extreme weather events and fostering long-term sustainability.
-2. Income Perspective:
-Access to Premium Markets: Farmers adhering to sustainability criteria in supplier assessments gain access to markets that prioritize sustainable sourcing. This can result in premium pricing for their products, contributing to increased income and improved profitability.
-Cost Savings: Sustainable farming practices promoted by supplier sustainability assessments often lead to cost savings over time. This includes efficient resource use, reduced input costs, and increased overall efficiency.
-3. Risk Perspective:
-Market Viability: Supplier sustainability assessments ensure that farmers align with market expectations for environmentally and socially responsible practices. This enhances the market viability of their products, reducing the risk of market exclusion or loss of business opportunities.
-Long-Term Viability: By meeting sustainability criteria, farmers contribute to their own long-term viability. This includes securing market access, adapting to changing consumer preferences, and reducing vulnerability to environmental risks.
-4. Link to Procurement Organizations:
-For farmers, the link to procurement organizations lies in their ability to meet the sustainability criteria set by agri-food companies. Procurement organizations play a central role in establishing and communicating these criteria, shaping the practices and behaviors of the farmers within the supply chain. This ensures that the entire supply chain, from farmers to end consumers, adheres to sustainability principles.
-</v>
-      </c>
-      <c r="P14" t="str" cm="1">
-        <f t="array" ref="P14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective:
-Risks:
-Supply Chain Disruption: To mitigate disruption risks, buyers should strategically diversify their supplier base, balancing sustainability criteria with the need for a resilient and varied supply chain.
-Increased Costs: Buyers can negotiate with suppliers, emphasizing cost-effectiveness while encouraging sustainable practices to manage procurement expenses effectively.
-Limited Supplier Innovation: Buyers should actively engage with smaller suppliers, fostering innovation by providing support and guidance to help them meet sustainability criteria.
-Trade-offs:
-Cost vs. Sustainability: Buyers must strategically navigate the trade-off, making informed compromises to achieve both financial and environmental goals without compromising overall sustainability objectives.
-Supplier Diversity vs. Sustainability: Achieving a balance between sustainability and supplier diversity requires careful consideration, especially in regions or industries where meeting sustainability standards may be challenging.
-Time-to-Market vs. Sustainability: Buyers need to find a balance between selecting sustainable suppliers and meeting time-to-market goals, ensuring that sustainability efforts do not unduly extend procurement timelines.
-2. Supplier Perspective:
-Risks:
-Financial Strain: Suppliers can manage financial strain by seeking collaborative partnerships with buyers, exploring cost-sharing models for sustainable investments to alleviate potential economic burdens.
-Competitive Disadvantage: Suppliers with lower sustainability scores should focus on improving practices to avoid losing business opportunities, highlighting the value of sustainable offerings to remain competitive.
-Compliance Challenges: Suppliers facing compliance challenges should engage with buyers to streamline diverse sustainability standards, ensuring a more manageable and efficient adherence process.
-Trade-offs:
-Cost vs. Sustainability: Suppliers must strategically balance the trade-off, seeking innovative and cost-effective solutions to implement sustainable practices without compromising competitiveness.
-Innovation vs. Compliance: Suppliers can navigate the trade-off by integrating sustainability into their innovation agenda, demonstrating that both innovation and compliance can coexist harmoniously.
-Market Access vs. Sustainability: Suppliers targeting international markets must weigh the benefits of market access against the costs of adapting to sustainability requirements, aligning their strategies with evolving global standards.</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="55" t="str">
-        <f>'Background calcs'!L8</f>
-        <v>Buyer Sustainability Targets</v>
-      </c>
-      <c r="D15" s="31">
-        <f>'Background calcs'!K8</f>
-        <v>21</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31" cm="1">
-        <f t="array" ref="F15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(F$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G15" s="31" cm="1">
-        <f t="array" ref="G15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(G$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H15" s="31" cm="1">
-        <f t="array" ref="H15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(H$10,var_columns,0))</f>
-        <v>5</v>
-      </c>
-      <c r="I15" s="31" cm="1">
-        <f t="array" ref="I15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(I$10,var_columns,0))</f>
-        <v>5</v>
-      </c>
-      <c r="J15" s="31" cm="1">
-        <f t="array" ref="J15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(J$10,var_columns,0))</f>
-        <v>5</v>
-      </c>
-      <c r="L15" t="str" cm="1">
-        <f t="array" ref="L15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-Buyer Sustainability Targets in procurement refer to predetermined and measurable environmental, social, and economic goals set by a buyer organization to integrate sustainable practices into their procurement processes and supply chain
-Additional Information:
-Incorporating Buyer Sustainability Targets in procurement or even their working contracts is rooted in promoting fair trade prices and practices, encouraging long-term contracts, supporting sustainable farming techniques, enhancing market access, elevating the value of certification, mitigating environmental impact, fostering innovation and efficiency, building resilience in supply chains, and meeting consumer demand. These targets collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
-      </c>
-      <c r="M15" t="str" cm="1">
-        <f t="array" ref="M15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(M$10,var_columns,0))</f>
-        <v>To effectively implement Buyer Sustainability Targets in procurement:
-1. Secure leadership commitment to prioritize sustainability.
-2. Engage stakeholders, including suppliers, in target development.
-3. Conduct a baseline assessment to identify areas for improvement.
-4. Define clear, measurable, and time-bound sustainability targets aligned with organizational goals.
-5. Foster collaboration with suppliers, evaluating their sustainability practices.
-6. Provide employee training to enhance awareness of sustainable procurement practices.
-7. Integrate sustainability considerations into all stages of the procurement process.
-8. Establish systems for regular monitoring and reporting of sustainability performance.
-9. Ensure legal and regulatory compliance with relevant sustainability standards.
-10. Invest in technology and data systems to streamline tracking and reporting processes.</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective 
-Incorporating sustainability targets in procurement can lead to long-term cost savings through the promotion of efficiency and innovation. Sustainable farming techniques can also lead to improved product quality, reducing losses associated with defective or sub-par goods.
-2. Revenue Perspective 
-Meeting sustainability targets can enhance the company's brand image and reputation, opening up market access and attracting customers who prioritize sustainability, leading to higher revenues.
-3. Risk Perspective 
-Buyer sustainability targets reduce multiple business risks. They can reduce environmental risks by promoting sustainable farming practices and mitigating environmental impact. They also mitigate supply chain risks by building resilience and improving the reliability of supplies. Moreover, they can safeguard the company's reputation by demonstrating a commitment to fair trade and sustainable practices.
-4. Sustainable Procurement
-From a sustainable procurement standpoint, incorporating sustainability targets in procurement aligns the procurement process with the sustainability objectives of the business. It promotes fair trade, supports sustainable farming, fosters innovation, and builds resilient supply chains. It also provides a mechanism to demonstrate and measure the business's commitment to sustainability. These targets can make a significant contribution to the overall goal of creating a more sustainable and resilient agricultural supply chain. Finally, meeting these targets can improve the company's reputation among its stakeholders, including customers, investors, and local communities, further enhancing its sustainability credentials.</v>
-      </c>
-      <c r="O15" t="str" cm="1">
-        <f t="array" ref="O15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(O$10,var_columns,0))</f>
-        <v>1. Income Perspective 
-Incorporating sustainability targets in procurement can guarantee farmers fair trade prices for their products, improving their income. Long-term contracts can offer better income security. Better market access and elevated certification value can also increase sales opportunities for farmers, thereby increasing their income.
-2. Environment Perspective 
-Buyer sustainability targets often promote sustainable farming techniques, encouraging farmers to adopt practices that have less impact on the environment. By doing so, it not only contributes to environmental preservation but also improves the long-term sustainability of farms by preserving the health of the soil, preserving water resources, and reducing the impact on wildlife ecosystems.</v>
-      </c>
-      <c r="P15" t="str" cm="1">
-        <f t="array" ref="P15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective
-Risks:
-Increased Costs: Implementing sustainability targets may initially incur additional costs for eco-friendly products or suppliers with sustainable practices.
-Limited Supplier Pool: Stricter sustainability criteria may reduce the pool of eligible suppliers, potentially limiting competitive options.
-Complexity in Compliance: Ensuring compliance with sustainability targets can be challenging, particularly when dealing with global supply chains and diverse regulations.
-Trade-offs:
-Sustainability vs. Cost Efficiency: Buyers may face the trade-off between achieving sustainability targets and maintaining cost efficiency in procurement. Striking the right balance involves integrating sustainable practices without compromising overall cost-effectiveness.
-Supplier Diversity vs. Cost Competitiveness: Buyers aiming for supplier diversity may encounter the trade-off between fostering a diverse supplier base and ensuring cost competitiveness. The challenge is to balance diversity goals with the economic efficiency of the supply chain.
-Long-Term Sustainability vs. Immediate Gains: Buyers must decide between pursuing long-term sustainability objectives and seeking immediate gains through potentially less sustainable practices. Striking the right balance involves aligning short-term gains with broader sustainability goals.
-Innovation vs. Established Practices: Buyers may trade off between encouraging innovation in sustainable practices and sticking to established, potentially less sustainable, procurement methods. Balancing innovation with proven practices is essential for sustainable procurement.
-2. Supplier Perspective:
-Risks:
-Financial Strain: Adhering to sustainability targets may require suppliers to invest in new technologies or practices, potentially causing financial strain.
-Competitive Disadvantage: Suppliers not meeting sustainability targets may face a disadvantage in bidding for contracts, affecting competitiveness.
-Complex Certification Processes: Suppliers may encounter challenges in navigating complex certification processes to prove their sustainability credentials.
-Trade-offs:
-Compliance vs. Innovation: Suppliers may face the trade-off between complying with buyer sustainability targets and innovating in their offerings. Striking the right balance involves meeting sustainability requirements while fostering a culture of innovation.
-Cost of Sustainability Compliance vs. Profitability: Suppliers may incur additional costs to meet sustainability requirements, impacting overall profitability. The trade-off involves managing compliance costs while maintaining a viable and profitable business model.
-Market Access vs. Sustainability Investments: Suppliers must decide between investing in sustainability practices to access markets with stringent requirements and balancing these investments with other business needs. Striking the right balance involves meeting market demands while ensuring financial viability.
-Risk Mitigation vs. Market Competitiveness: Suppliers may prioritize risk mitigation through sustainable practices but must balance this with remaining competitive in the market. The trade-off involves managing risks while staying competitive in the procurement landscape.</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="55" t="str">
-        <f>'Background calcs'!L9</f>
-        <v>Supporting organic farming</v>
-      </c>
-      <c r="D16" s="31">
-        <f>'Background calcs'!K9</f>
-        <v>21</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31" cm="1">
-        <f t="array" ref="F16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(F$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G16" s="31" cm="1">
-        <f t="array" ref="G16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(G$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H16" s="31" cm="1">
-        <f t="array" ref="H16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(H$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I16" s="31" cm="1">
-        <f t="array" ref="I16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(I$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="31" cm="1">
-        <f t="array" ref="J16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(J$10,var_columns,0))</f>
-        <v>2.5</v>
-      </c>
-      <c r="L16" t="str" cm="1">
-        <f t="array" ref="L16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-The cultivation of agricultural products without synthetic pesticides, herbicides, or genetically modified organisms, adhering to certified organic standards that prioritize environmentally sustainable and ecologically responsible practices.
-Additional details: 
-Organic farming practices at the farm level emphasize the use of natural inputs and biological controls instead of synthetic fertilizers and pesticides. Organic farmers follow strict guidelines to minimize the environmental impact and prioritize soil health.</v>
-      </c>
-      <c r="M16" t="str" cm="1">
-        <f t="array" ref="M16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(M$10,var_columns,0))</f>
-        <v>1. Enabling Conditions for Organic Farming in a Procurement Organization:
-Certification Requirements: Establishing clear procurement policies that prioritize sourcing products from certified organic farms, ensuring compliance with recognized organic standards.
-Supplier Collaboration: Developing strong partnerships with organic farmers and suppliers, fostering transparent communication and information exchange on organic practices.
-Educational Programs: Providing education and training for procurement staff to enhance their understanding of organic farming practices and certification standards.
-Traceability Systems: Implementing traceability systems to track and verify the organic certification of products throughout the supply chain, ensuring authenticity and compliance.
-Quality Assurance: Integrating quality assurance measures to guarantee that organic products meet specified standards and expectations regarding purity and sustainability.
-2. Enabling Conditions for Organic Farming on a Farm Level:
-Organic Certification: Meeting the requirements and obtaining certification from recognized organic certifying bodies to ensure adherence to organic farming standards.
-Crop Rotation and Soil Health: Implementing sustainable agricultural practices such as crop rotation and soil management to enhance soil fertility and reduce the need for synthetic inputs.
-Non-GMO Practices: Adopting non-genetically modified organism (GMO) seeds and crops to align with organic farming principles.
-Biological Pest Control: Utilizing natural predators and organic pest control methods to manage pest populations without synthetic pesticides.
-Record Keeping: Maintaining detailed records of farming practices, inputs, and crop management to provide documentation required for organic certification and traceability.
-Community Engagement: Engaging with local communities, consumers, and agricultural extension services to promote awareness of organic farming practices and build support for sustainable agriculture.
-Both at the procurement organization and on the farm level, a commitment to organic farming requires adherence to established standards, transparent communication, continuous education, and the integration of sustainable practices into the overall farming and procurement processes.</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective:
-Reduced Input Costs: While organic farming may initially require investments in transitioning, it can lead to reduced input costs over time. Organic practices often rely on natural fertilizers and pest control methods, minimizing the need for synthetic inputs.
-Operational Efficiency: Organic farming practices contribute to operational efficiency by promoting soil health, reducing the need for chemical inputs, and fostering long-term sustainability.
-2. Revenue Perspective:
-Premium Pricing: Organic products often command premium prices in the market due to the perceived health and environmental benefits. Agri-food companies can capitalize on this and increase revenue by offering organic options.
-Market Access: The growing consumer demand for organic products provides agri-food companies with an opportunity to access markets that prioritize and promote organic and sustainably produced goods.
-3. Risk Perspective:
-Supply Chain Resilience: By embracing organic farming, agri-food companies can reduce the risk of supply chain disruptions associated with regulatory changes, consumer preferences, or concerns related to chemical residues in conventional agriculture.
-Reputation Management: Adopting organic farming practices contributes to positive reputation management by aligning with consumer preferences for environmentally friendly and health-conscious products.
-4. Link to Procurement Organizations:
-The use of organic farming practices links back to procurement organizations as they play a role in sourcing inputs for agri-food companies. Procurement teams may collaborate with organic suppliers, ensuring a consistent supply of organic raw materials. The criteria set by procurement organizations influence the choices made by suppliers and farmers, ensuring that the entire supply chain aligns with organic and sustainable goals.</v>
-      </c>
-      <c r="O16" t="str" cm="1">
-        <f t="array" ref="O16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(O$10,var_columns,0))</f>
-        <v>1. Environmental Perspective:
-Soil Health: Organic farming promotes soil health by avoiding synthetic chemicals and fostering natural soil fertility. This contributes to environmental sustainability and long-term soil conservation.
-Biodiversity Preservation: Organic farming practices typically support biodiversity by avoiding synthetic pesticides that may harm non-target species.
-2. Income Perspective:
-Premium Pricing: Organic products often fetch higher prices in the market, providing farmers with the opportunity for increased income and improved profitability.
-Cost Savings: While transitioning to organic farming may require initial investment, farmers can achieve cost savings over time by reducing expenses on synthetic inputs.
-3. Risk Perspective:
-Reduced Dependency on Chemicals: Organic farming reduces the risk of health and safety issues associated with the use of synthetic pesticides. It also minimizes the risk of developing pesticide-resistant pests, contributing to the long-term effectiveness of pest control strategies.
-Climate Resilience: Organic farming practices, such as diverse crop rotations and cover cropping, contribute to climate resilience by improving soil structure and water retention.
-4. Link to Procurement Organizations:
-For farmers, procurement organizations are essential in providing access to inputs and resources. By supporting and incentivizing the adoption of organic farming practices, procurement organizations contribute to the sustainability and organic certification of their suppliers. This integration ensures that the choices made at the procurement level align with environmental and sustainability goals, influencing the practices of farmers in the supply chain.</v>
-      </c>
-      <c r="P16" t="str" cm="1">
-        <f t="array" ref="P16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective:
-Risks:
-Higher Costs: Organic farming practices may lead to higher production costs, potentially resulting in increased prices for organic products in the procurement process.
-Limited Supply Availability: Organic farming often yields lower quantities than conventional farming, leading to potential limitations in the availability of organic products.
-Market Fluctuations: The demand for organic products may fluctuate, and buyers may face challenges in predicting and managing market dynamics.
-Trade-offs:
-Cost vs. Sustainability: Buyers may need to balance the higher costs associated with organic farming against the desire to support environmentally sustainable and ecologically responsible practices.
-Consistency vs. Variety: Striking a balance between consistent supply of organic products and the variety of goods offered may require trade-offs.
-2. Supplier Perspective:
-Risks:
-Financial Strain: Organic farming practices may initially result in higher costs for suppliers, potentially causing financial strain and affecting their competitiveness.
-Weather and Pest Vulnerability: Organic farms may be more susceptible to weather-related challenges and pest infestations, increasing the risk of crop losses.
-Market Access Challenges: Suppliers without the means to adopt organic farming practices may face challenges accessing markets that prioritize organic certification.
-Trade-offs:
-Cost vs. Market Access: Suppliers may need to weigh the costs and challenges of transitioning to organic farming against the potential market access and premium prices associated with organic products.
-Innovation vs. Tradition: Allocating resources to adopt organic farming practices may divert attention and resources from traditional farming methods.
-Crop Yield vs. Sustainability: Balancing the desire for higher crop yields with the commitment to organic and sustainable farming practices may necessitate trade-offs.</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="55" t="str">
-        <f>'Background calcs'!L10</f>
-        <v>Payment Management &amp; Procurement Risk Mangement</v>
-      </c>
-      <c r="D17" s="31">
-        <f>'Background calcs'!K10</f>
-        <v>20</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" cm="1">
-        <f t="array" ref="F17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(F$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G17" s="31" cm="1">
-        <f t="array" ref="G17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(G$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="31" cm="1">
-        <f t="array" ref="H17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(H$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="I17" s="31" cm="1">
-        <f t="array" ref="I17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(I$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="J17" s="31" cm="1">
-        <f t="array" ref="J17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(J$10,var_columns,0))</f>
-        <v>2.5</v>
-      </c>
-      <c r="L17" t="str" cm="1">
-        <f t="array" ref="L17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-Payment Management in procurement refers to the strategic handling and administration of financial transactions, including invoicing and disbursement, while Procurement Risk Management involves the identification, assessment, and mitigation of potential risks throughout the procurement process to ensure successful and secure acquisitions.
-Additional Details:
-Payment Management &amp; Procurement Risk Management, particularly through the implementation of an Emergency Farmer Relief Fund, centers around ensuring income stability, mitigating procurement risks, maintaining positive supply chain relationships, fostering long-term loyalty, creating community impact, preventing farmer indebtedness, promoting sustainable practices, supporting fair trade, enhancing supply chain resilience, and fulfilling corporate social responsibility. These interventions collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
-      </c>
-      <c r="M17" t="str" cm="1">
-        <f t="array" ref="M17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(M$10,var_columns,0))</f>
-        <v>To effectively implement Payment Management in procurement, organizations need robust financial systems, clear payment policies, compliance with regulations, strong vendor relationships, and the integration of automation and technology. For successful Procurement Risk Management, prerequisites include systematic risk identification mechanisms, a skilled procurement team, clear risk management policies, the use of data analytics, thorough supplier due diligence, contingency planning, regulatory compliance management, and continuous monitoring and evaluation. These elements collectively ensure financial efficiency, ethical practices, and resilience against potential risks in the procurement process.</v>
-      </c>
-      <c r="N17" t="str" cm="1">
-        <f t="array" ref="N17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective 
-Effective payment management reduces administrative costs by streamlining payment processes. Procurement risk management, through vehicles like the Emergency Farmer Relief Fund, protects businesses from supply disruptions that can lead to increased operational costs.
-2. Revenue Perspective 
-Consistent reliable payments and the provision of support during emergencies foster long-term loyalty, reducing supplier turnover and maintaining supply chains, thereby increasing revenue stability. Corporate social responsibility initiatives contribute to enhanced company reputation, which can bolster consumer support and ultimately drive revenue growth.
-3. Risk Perspective 
-Robust payment management reduces the risk of financial discrepancies while procurement risk management helps businesses anticipate, plan for, and mitigate sourcing disruptions. The combination leads to an overall risk reduction in terms of financial viability and operational stability.
-4. Sustainable Procurement
-From a sustainable procurement perspective, effective payment management, and procurement risk management ensures economic sustainability for farmers and businesses alike. It helps to build resilience within supply chains, with practices such as the Emergency Farmer Relief Fund providing economic support in times of hardship. Such interventions also promote environmentally sustainable practices by supporting the financial stability of farmers who may use sustainable farming methods. These initiatives contribute to the overall sustainability of agricultural supply chains by committing to fair trade, supporting community impact, and fulfilling corporate social responsibilities.</v>
-      </c>
-      <c r="O17" t="str" cm="1">
-        <f t="array" ref="O17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(O$10,var_columns,0))</f>
-        <v>1. Income Perspective 
-Consistent, well-managed payments ensure income stability for farmers, even in times of crisis. The Emergency Farmer Relief Fund serves as a financial safety net, preventing indebtedness and providing a buffer during unexpected hardships, ultimately protecting farmers' income.
-2. Environment Perspective 
-Payment management and risk mitigation strategies that include incentives for sustainability can lead to improved environmental outcomes. Such interventions encourage and provide for sustainable practices, thus fostering ecological resilience.</v>
-      </c>
-      <c r="P17" t="str" cm="1">
-        <f t="array" ref="P17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective Payment Management
-Risks:
-Late Payments: Delays in payments can strain buyer-supplier relationships and result in penalties or strained supplier relations.
-Financial Disputes: Incorrect invoicing or payment discrepancies may lead to financial disputes, impacting trust and collaboration.
-Vendor Reliability Concerns: Over-reliance on specific vendors for critical supplies may pose a risk if their financial stability is compromised.
-Trade-offs:
-Cash Flow Management vs. Early Payment Discounts: Buyers may face the trade-off between managing cash flow effectively and taking advantage of early payment discounts. Opting for early payments can strain cash flow, while delaying payments may forfeit discount opportunities.
-Supplier Relationship vs. Stringent Payment Terms: Buyers may need to balance building strong supplier relationships with enforcing stringent payment terms. While fostering good relationships is essential, adhering strictly to payment terms mitigates procurement risks.
-Risk Mitigation vs. Supplier Viability: Buyers may implement rigorous risk management strategies, but this could potentially impact the financial viability of certain suppliers. Balancing risk mitigation with ensuring the stability of suppliers is crucial.
-Contractual Compliance vs. Adaptability: Buyers may prioritize contractual compliance for payment management, but this might limit adaptability in dynamic markets. Striking a balance involves adhering to contracts while remaining adaptable to changing circumstances.
-2. Supplier Perspective Payment Management
-Risks:
-Cash Flow Challenges: Late payments can create cash flow challenges for suppliers, affecting their financial stability.
-Dependency on Key Buyers: Suppliers heavily dependent on specific buyers face financial vulnerability if the buyer's payment practices are inconsistent.
-Increased Administrative Burden: Dealing with complex payment processes and disputes increases the administrative burden on suppliers.
-Trade-offs:
-Market Presence vs. Financial Stability: Suppliers may trade the desire for a prominent market presence through large buyers against the financial stability achieved through timely payments.
-Competitive Partnerships vs. Reliability: Balancing the benefits of competitive partnerships with the need for reliability and stability in buyer relationships.
-3. Buyer Perspective Procurement Risk Management
-Risks:
-Supply Chain Disruptions: Unforeseen events affecting suppliers may disrupt the supply chain, leading to delays or shortages.
-Reputational Damage: Risks such as unethical supplier practices or environmental violations can damage the buyer's reputation.
-Increased Costs: Mitigating certain risks may involve additional costs, impacting the overall budget.
-Trade-offs:
-Innovation vs. Stability: Balancing the pursuit of innovative suppliers with the stability offered by established, lower-risk partners.
-Cost Efficiency vs. Risk Mitigation: Weighing the desire for cost efficiency against the need for robust risk mitigation strategies.
-4. Supplier Perspective Procurement Risk Management
-Risks:
-Overdependence on a Single Buyer: Suppliers overly reliant on a single buyer face significant risks if that buyer faces financial difficulties or changes its procurement strategy.
-Financial Impact of Compliance: Adhering to stringent compliance requirements may incur additional costs for suppliers.
-Market Access Challenges: Suppliers facing risks related to compliance or ethical concerns may experience challenges in accessing certain markets.
-Trade-offs:
-Market Presence vs. Financial Risk: Suppliers may weigh the benefits of a larger market presence through high-profile buyers against the financial risks associated with those buyers.
-Innovation Collaboration vs. Financial Stability: Considering the financial stability gained through collaborations with innovative buyers against potential risks.</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="55" t="str">
-        <f>'Background calcs'!L11</f>
-        <v>Partial Payments and Milestone Payments</v>
-      </c>
-      <c r="D18" s="31">
-        <f>'Background calcs'!K11</f>
-        <v>20</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31" cm="1">
-        <f t="array" ref="F18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(F$10,var_columns,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G18" s="31" cm="1">
-        <f t="array" ref="G18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(G$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="H18" s="31" cm="1">
-        <f t="array" ref="H18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(H$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="I18" s="31" cm="1">
-        <f t="array" ref="I18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(I$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="J18" s="31" cm="1">
-        <f t="array" ref="J18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(J$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="L18" t="str" cm="1">
-        <f t="array" ref="L18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-Partial Payments and Milestone Payments in procurement involve the disbursement of funds to suppliers in installments, corresponding to achieved project milestones or completed phases, providing financial flexibility and aligning payments with project progress.
-Additional Details:
-Implementing Partial Payments and Milestone Payments in procurement revolves around providing cash flow stability, enabling effective financial planning and investment, mitigating risks, ensuring operational continuity, fostering improved collaboration and trust, promoting efficient resource management, offering flexibility and adaptability, encouraging compliance and quality, facilitating financial inclusion, and enhancing market competitiveness. These practices collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
-      </c>
-      <c r="M18" t="str" cm="1">
-        <f t="array" ref="M18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(M$10,var_columns,0))</f>
-        <v>To effectively implement Partial Payments and Milestone Payments in procurement, a procurement organization should ensure clarity in project goals, establish transparent and comprehensive contractual agreements, conduct proactive risk assessments, implement robust project management practices, maintain financial stability, foster open communication channels, define performance metrics and monitoring mechanisms, ensure legal compliance, establish efficient dispute resolution mechanisms, and implement strong Supplier Relationship Management (SRM) practices, thereby fostering successful project delivery and financial transactions.</v>
-      </c>
-      <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective 
-Partial and milestone payments could provide significant cost advantages by aligning payments with the delivery of goods or the completion of services. This practice can assist in effective cash flow management and helps to align payment schedules with a business's financial plan.
-2. Revenue Perspective 
-By providing a predictable schedule of payments, businesses can build better relationships with suppliers, ensuring a steady and reliable supply that can lead to consistent revenues. Furthermore, it encourages suppliers to meet agreed-upon milestones, positively impacting product quality and customer satisfaction, and thereby potentially increasing revenues.
-3. Risk Perspective 
-Partial and milestone payments can reduce financial risk by allowing businesses to manage their cash flows more effectively, avoiding potential liquidity issues. Moreover, these payment methods help to ensure quality and timely delivery of goods, reducing operational risk.
-4. Sustainable Procurement
-From a sustainable procurement perspective, partial and milestone payments can ensure businesses support their suppliers financially, helping them to stay float and invest in their operational improvements. This can contribute to social sustainability by improving income stability for farmers. Furthermore, when such practices are linked to environmental milestones or standards, they can encourage environmentally-friendly practices. This illustrates an alignment of procurement practices with broader sustainability goals. Ultimately, these practices can contribute to a resilient and sustainable agricultural supply chain that benefits producers, businesses, consumers, and the environment.</v>
-      </c>
-      <c r="O18" t="str" cm="1">
-        <f t="array" ref="O18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(O$10,var_columns,0))</f>
-        <v>1. Income Perspective 
-Regular partial or milestone payments provide farmers with more predictable income and financial stability. This can aid in planning for investments and operational expenses, contributing to increased productivity and potentially higher income.
-2. Environment Perspective 
-A predictable payment schedule could enable farmers to invest in environmentally sustainable farming practices. Knowing they have a stable income can make it financially feasible for farmers to utilize practices that might have a short-term cost but provide long-lasting environmental benefits.</v>
-      </c>
-      <c r="P18" t="str" cm="1">
-        <f t="array" ref="P18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective
-Risks:
-Financial Commitment: Committing to partial or milestone payments may pose financial risks if the supplier fails to deliver as per the agreed-upon milestones.
-Dependency on Milestones: The buyer's progress may be dependent on the supplier's ability to meet milestone deadlines, risking project delays.
-Disputes over Milestone Achievement: Disputes may arise if there are disagreements on whether the supplier has successfully achieved a milestone.
-Trade-offs:
-Cash Flow Management vs. Supplier Commitment: Buyers may face the trade-off between managing their cash flow by making partial payments and ensuring strong commitment from suppliers. Striking the right balance involves maintaining cash flow while incentivizing suppliers to fulfill their commitments.
-Risk Mitigation vs. Supplier Relationship: Buyers may use milestone payments for risk mitigation, but this can impact the overall relationship with suppliers. The trade-off involves managing risks without compromising the collaborative aspect of the buyer-supplier relationship.
-Flexibility vs. Contractual Adherence: Buyers may prefer flexibility in payment schedules, but this may conflict with the need for strict contractual adherence. Balancing flexibility with contractual commitments is essential for effective procurement management.
-Cost Control vs. Project Progress: Buyers must decide between maintaining cost control through partial payments and ensuring continuous project progress. The trade-off involves monitoring costs while aligning payment milestones with project milestones.
-2. Supplier Perspective
-Risks:
-Cash Flow Disruptions: Irregular or delayed partial payments may disrupt the supplier's cash flow, affecting their ability to meet project requirements.
-Performance Pressure: Milestone payments may create pressure on the supplier to achieve milestones, potentially compromising the quality of deliverables.
-Payment Disputes: Disputes may arise if the buyer contests the achievement of milestones, leading to payment delays.
-Trade-offs:
-Cash Flow Predictability vs. Project Delivery: Suppliers may prioritize predictable cash flow through partial and milestone payments, but this may be balanced against the timely delivery of project milestones. Striking the right balance involves fulfilling project requirements while maintaining financial stability.
-Financial Stability vs. Buyer Satisfaction: Suppliers may rely on milestone payments for financial stability, but this may conflict with satisfying buyer expectations. The trade-off involves meeting financial needs while ensuring buyer satisfaction with project progress.
-Risk Mitigation vs. Competitive Bidding: Suppliers may prefer milestone payments for risk mitigation, but this might impact their competitiveness in bidding for projects. The trade-off involves managing risks without compromising competitiveness in the procurement process.
-Innovation vs. Payment Constraints: Suppliers may desire to innovate during project execution, but the constraints of milestone payments may limit these initiatives. Striking a balance involves finding innovative solutions within the framework of payment schedules.</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="55" t="str">
-        <f>'Background calcs'!L12</f>
-        <v>Supply Chain Traceability</v>
-      </c>
-      <c r="D19" s="31">
-        <f>'Background calcs'!K12</f>
-        <v>20</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31" cm="1">
-        <f t="array" ref="F19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(F$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G19" s="31" cm="1">
-        <f t="array" ref="G19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(G$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="H19" s="31" cm="1">
-        <f t="array" ref="H19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(H$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="31" cm="1">
-        <f t="array" ref="I19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(I$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="31" cm="1">
-        <f t="array" ref="J19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(J$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L19" t="str" cm="1">
-        <f t="array" ref="L19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(L$10,var_columns,0))</f>
-        <v>Definition:
-Supply Chain Traceability in a Procurement Data Analytics context refers to the ability to track and analyze the origin, movement, and transformation of goods and materials throughout the supply chain, leveraging technologies such as Blockchain for secure and transparent data verification, ensuring accountability and visibility</v>
-      </c>
-      <c r="M19" t="str" cm="1">
-        <f t="array" ref="M19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(M$10,var_columns,0))</f>
-        <v>To implement effective Supply Chain Traceability in a procurement data analytics context, a procurement organization should focus on prerequisites such as establishing a robust data analytics infrastructure, formulating a clear integration strategy (e.g., Blockchain as an example), ensuring data standardization and interoperability, fostering collaboration with suppliers, utilizing transparent and immutable data records, encouraging cross-functional collaboration, investing in relevant education, implementing security and privacy measures, planning for scalability, complying with legal and regulatory requirements, and establishing continuous monitoring and improvement practices.</v>
-      </c>
-      <c r="N19" t="str" cm="1">
-        <f t="array" ref="N19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective
-Operational Efficiency: Supply chain traceability enhances operational efficiency by providing real-time visibility into the movement of goods. This reduces the time and resources spent on manual tracking, leading to cost savings.
-Risk Mitigation: The ability to trace products throughout the supply chain helps in identifying and addressing issues promptly, minimizing the potential costs associated with disruptions, recalls, or quality issues.
-2. Revenue Perspective
-Brand Reputation and Customer Confidence: Transparent and traceable supply chains contribute to positive brand perception. This can lead to increased customer confidence, loyalty, and potentially higher revenues as consumers increasingly value products with a clear and ethical supply chain.
-Market Differentiation: Companies with transparent and traceable supply chains may differentiate themselves in the market, potentially attracting a segment of customers willing to pay a premium for responsibly sourced products.
-3. Risk Perspective
-Compliance and Legal Risks: Traceability aids in compliance with regulations and standards. It mitigates legal risks associated with non-compliance, fines, or reputational damage resulting from violations.
-Supply Chain Resilience: Understanding the entire supply chain helps in identifying and addressing potential risks, contributing to supply chain resilience and reducing vulnerability to disruptions.
-4. Sustainable Procurement Perspective:
-Ethical Sourcing and Sustainability: Traceability supports the identification of ethically sourced and sustainably produced goods. This aligns with sustainable procurement goals, meeting consumer demands for environmentally and socially responsible products.
-Supply Chain Transparency: Transparent supply chains contribute to the overall sustainability of procurement operations, fostering responsible practices, and promoting fair labor and environmental stewardship.</v>
-      </c>
-      <c r="O19" t="str" cm="1">
-        <f t="array" ref="O19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(O$10,var_columns,0))</f>
-        <v>1. Income Perspective:
-Market Access and Premium Pricing: Supply chain traceability allows farmers to demonstrate the origin and quality of their produce, providing a competitive edge. This may lead to increased market access and the potential for premium pricing, enhancing the income of farmers.
-Efficient Resource Allocation: Farmers can utilize traceability data to optimize their production processes, reducing inefficiencies and waste. This efficient resource allocation contributes to cost savings and improved profitability.
-2. Environment Perspective
-Sustainable Agricultural Practices: Traceability promotes transparency in the supply chain, encouraging farmers to adopt sustainable agricultural practices. This may involve minimizing the use of chemicals, optimizing water usage, and reducing the environmental impact of farming activities.
-Reduced Environmental Footprint: By utilizing traceability data to minimize waste and manage resources efficiently, farmers contribute to a reduced environmental footprint associated with agriculture, aligning with environmentally responsible practices.</v>
-      </c>
-      <c r="P19" t="str" cm="1">
-        <f t="array" ref="P19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective
-Risks:
-Increased Costs: Implementing traceability measures, especially with advanced technologies, may lead to increased procurement costs, impacting the overall budget.
-Data Security Concerns: Storing sensitive traceability data poses potential security risks, including data breaches or unauthorized access.
-Supplier Resistance: Suppliers may resist sharing detailed information, fearing increased scrutiny or potential competitive disadvantages.
-Trade-offs:
-Cost Efficiency vs. Enhanced Traceability: Buyers may face the trade-off between achieving cost efficiency in the supply chain and investing in enhanced traceability measures. Striking the right balance involves optimizing costs while ensuring transparency and traceability.
-Complexity vs. Simplicity in Supply Chains: Buyers aiming for traceability may need to balance the complexity associated with detailed supply chain tracking and the simplicity required for streamlined operations. The challenge is to implement traceability without overly complicating processes.
-Supplier Collaboration vs. Independence: Buyers may seek collaboration with suppliers for improved traceability, but this could conflict with the desire for supplier independence. The trade-off involves fostering collaboration while respecting supplier autonomy.
-Risk Mitigation vs. Agility: Buyers may implement traceability for risk mitigation, but this could impact the agility of the supply chain. Striking the right balance involves managing risks while maintaining a flexible and responsive supply chain.
-2. Supplier Perspective
-Risks:
-Increased Reporting Burden: Suppliers may face additional reporting requirements, leading to increased administrative burdens and potential operational disruptions.
-Technology Adoption Challenges: Suppliers may encounter challenges in adopting the required technologies for traceability, affecting their ability to comply.
-Competitive Disadvantage: Suppliers may perceive that sharing detailed traceability data could lead to a competitive disadvantage in the marketplace.
-Trade-offs:
-Investment in Technology vs. Cost Management: Suppliers may face the trade-off between investing in technology for traceability and managing overall costs. The challenge is to adopt traceability measures without significantly impacting the financial aspects of operations.
-Transparency vs. Confidentiality: Suppliers providing traceability data may need to balance transparency with the need to protect confidential business information. The trade-off involves sharing relevant information while safeguarding proprietary details.
-Regulatory Compliance vs. Market Competitiveness: Suppliers may need to comply with traceability regulations, but this could impact market competitiveness. Striking the right balance involves meeting regulatory requirements while remaining competitive in the marketplace.
-Resource Allocation vs. Traceability Standards: Suppliers may allocate resources for meeting traceability standards, and this must be balanced against other operational needs. The trade-off involves optimizing resource allocation for both traceability compliance and overall efficiency.</v>
-      </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="55" t="str">
-        <f>'Background calcs'!L13</f>
-        <v>Data Management</v>
-      </c>
-      <c r="D20" s="31">
-        <f>'Background calcs'!K13</f>
-        <v>20</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31" cm="1">
-        <f t="array" ref="F20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(F$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="G20" s="31" cm="1">
-        <f t="array" ref="G20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(G$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H20" s="31" cm="1">
-        <f t="array" ref="H20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(H$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I20" s="31" cm="1">
-        <f t="array" ref="I20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(I$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="31" cm="1">
-        <f t="array" ref="J20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(J$10,var_columns,0))</f>
-        <v>1.5</v>
-      </c>
-      <c r="L20" t="str" cm="1">
-        <f t="array" ref="L20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-Data Management in a Procurement Data Analytics context encompasses the systematic organization, storage, integration, and analysis of procurement-related data, involving collaborative data sharing with suppliers or farmers across the value chain to derive meaningful insights and support informed decision-making throughout the procurement lifecycle</v>
-      </c>
-      <c r="M20" t="str" cm="1">
-        <f t="array" ref="M20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(M$10,var_columns,0))</f>
-        <v>To effectively implement Data Management in a Procurement Data Analytics context, a procurement organization should establish a comprehensive data governance framework, implement robust data security measures and privacy compliance, form clear collaboration agreements with suppliers/farmers, promote cross-functional collaboration, ensure high data quality standards, prioritize interoperable systems and integration capabilities, develop a scalable infrastructure, conduct regular audits for compliance, and invest in training programs for procurement professionals, creating a foundation for secure, collaborative, and strategic data use throughout the procurement value chain.</v>
-      </c>
-      <c r="N20" t="str" cm="1">
-        <f t="array" ref="N20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective
-Operational Efficiency: Effective data management streamlines procurement processes, reducing the time and resources spent on manual data handling. This operational efficiency leads to cost savings in terms of labor and processing expenses.
-Resource Optimization: Proper data management enables businesses to allocate resources more efficiently, avoiding unnecessary costs associated with inaccuracies, redundancies, or inefficiencies in procurement operations.
-2. Revenue Perspective
-Strategic Decision-Making: Data management provides accurate and reliable insights, facilitating strategic decision-making. Informed decisions contribute to improved procurement strategies, potentially leading to increased revenue through optimized supplier relationships and product offerings.
-Supplier Performance Improvement: Access to comprehensive data allows businesses to identify areas for supplier performance improvement, fostering stronger collaborations and positively impacting product quality and customer satisfaction.
-3. Risk Perspective
-Compliance and Accuracy: Proper data management ensures compliance with regulations and standards, reducing the risk of legal consequences or fines associated with data inaccuracies. Accurate data also minimizes the risk of errors in procurement processes.
-Risk Mitigation: Utilizing data for risk analysis enables businesses to proactively identify and mitigate potential risks in the supply chain, enhancing overall risk management and resilience.
-4. Sustainable Procurement Perspective:
-Ethical Sourcing: Data management facilitates the tracking and verification of ethical sourcing practices, aligning with sustainable procurement goals. This ensures that products are sourced responsibly, meeting environmental and social criteria.
-Environmental Impact Reduction: Efficient data management supports the identification of environmentally friendly sourcing options, contributing to the overall reduction of the environmental impact associated with procurement activities.</v>
-      </c>
-      <c r="O20" t="str" cm="1">
-        <f t="array" ref="O20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(O$10,var_columns,0))</f>
-        <v>1. Income Perspective
-Market Access and Fair Pricing: Data management allows farmers to present accurate information about their products, enhancing market access and potentially leading to fair pricing. This transparency in data can contribute to increased income for farmers.
-Efficient Resource Utilization: Farmers can utilize data analytics to optimize resource allocation, ensuring efficient production processes. This efficiency contributes to cost savings, improving the profitability of farming operations.
-2. Environment Perspective
-Sustainable Agricultural Practices: Data management supports the adoption of sustainable agricultural practices by providing insights into environmentally friendly farming methods. Farmers can use this information to reduce the environmental impact of their operations, aligning with sustainability goals.
-Resource Conservation: Efficient data management helps farmers minimize resource wastage and conserve inputs like water and fertilizers. This resource conservation contributes to a more environmentally sustainable farming ecosystem.</v>
-      </c>
-      <c r="P20" t="str" cm="1">
-        <f t="array" ref="P20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective
-Risks:
-Data Security Concerns: Inadequate data security measures may lead to breaches, compromising sensitive procurement information and exposing the buyer to potential legal and financial consequences.
-Increased Costs of Implementation: Implementing robust data management practices may entail significant upfront costs, impacting the buyer's budget and potentially leading to budget overruns.
-Supplier Collaboration Challenges: Suppliers may face difficulties in adapting to collaborative data sharing, potentially affecting the buyer-supplier relationship and hindering information flow.
-Trade-offs:
-Data Security vs. Accessibility: Buyers may face the trade-off between ensuring robust data security measures and providing easy accessibility to relevant stakeholders. Striking the right balance involves safeguarding sensitive information while facilitating necessary access.
-Customization vs. Standardization: Buyers implementing data management systems may need to balance customization for specific needs and standardization for efficiency. The challenge is to tailor data solutions while maintaining standardized processes.
-Cost of Technology vs. ROI: Buyers investing in data management technologies may face the trade-off between the initial cost of technology adoption and the expected return on investment (ROI). The challenge is to manage costs while realizing long-term benefits.
-Data Analytics vs. Privacy Compliance: Buyers utilizing data analytics for insights must balance this with compliance with privacy regulations. Striking the right balance involves leveraging data analytics for informed decision-making while protecting individual privacy.
-2. Supplier Perspective
-Risks:
-Increased Reporting Burden: Suppliers may experience an increased reporting burden, potentially impacting operational efficiency and leading to resistance in adopting new data management practices.
-Technology Adoption Challenges: Suppliers may struggle to adopt and integrate new technologies for data sharing, resulting in potential disruptions to their operations and compliance challenges.
-Data Security Risks: Suppliers may face risks related to data security, especially if the buyer's data management practices do not meet industry standards, potentially exposing the supplier to cyber threats.
-Trade-offs:
-Data Transparency vs. Confidentiality: Suppliers providing data may face the trade-off between transparency and confidentiality. The challenge is to share necessary information while protecting proprietary and confidential business details.
-Resource Allocation vs. Data Requirements: Suppliers may need to allocate resources for meeting buyer data requirements, and this must be balanced against other operational needs. The trade-off involves optimizing resource allocation for both data compliance and overall efficiency.
-Technology Adoption vs. Operational Impact: Suppliers adopting new technologies for data management may need to balance this with the potential impact on day-to-day operations. The challenge is to adopt efficient data management tools without disrupting regular business processes.
-Data Quality vs. Timeliness: Suppliers must balance providing high-quality data with the need for timely delivery. Striking the right balance involves ensuring data accuracy while meeting the required timelines set by buyers.</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="55" t="str">
-        <f>'Background calcs'!L14</f>
-        <v>Adoption of a green policy</v>
-      </c>
-      <c r="D21" s="31">
-        <f>'Background calcs'!K14</f>
-        <v>20</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31" cm="1">
-        <f t="array" ref="F21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(F$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G21" s="31" cm="1">
-        <f t="array" ref="G21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(G$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="H21" s="31" cm="1">
-        <f t="array" ref="H21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(H$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="I21" s="31" cm="1">
-        <f t="array" ref="I21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(I$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="J21" s="31" cm="1">
-        <f t="array" ref="J21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(J$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="L21" t="str" cm="1">
-        <f t="array" ref="L21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(L$10,var_columns,0))</f>
-        <v>Definition:
-The adoption of green procurement policies in a procurement perspective involves incorporating environmentally sustainable criteria and practices into the procurement process to minimize environmental impact, promote eco-friendly products and services, and align with responsible and sustainable business practices.
-Additional Details:
-Agri-food companies can adopt green procurement policies that prioritize the purchase of environmentally friendly crops and products. This would ensure that procurement decisions align with sustainability ambition and goals.</v>
-      </c>
-      <c r="M21" t="str" cm="1">
-        <f t="array" ref="M21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(M$10,var_columns,0))</f>
-        <v>Enabling Conditions for Adopting Green Policies by Procurement Organizations:
-Leadership Commitment: Demonstrate strong commitment from top leadership to sustainability, promoting a culture that values environmental responsibility within the procurement organization.
-Stakeholder Engagement: Engage with key stakeholders, including suppliers, customers, and the community, to understand their expectations, gather insights, and build support for green procurement initiatives.
-Regulatory Awareness: Stay informed about and align with relevant environmental regulations and standards in the agri-food sector, ensuring compliance and proactive adaptation to evolving legal frameworks.
-Strategic Alignment: Ensure alignment between the green policy and the overall strategic goals of the organization, embedding sustainability as a core value in the procurement strategy.
-Educational Programs: Implement educational programs for procurement professionals to enhance their understanding of green practices, equipping them with the knowledge to make environmentally responsible decisions.
-Supplier Collaboration: Collaborate with suppliers committed to green practices, fostering partnerships, and influencing positive changes in the supply chain towards more sustainable and eco-friendly standards.
-Life Cycle Assessment: Integrate life cycle assessment methodologies into procurement processes to evaluate and minimize the environmental impact of products throughout their entire life cycle.
-Green Certification Standards: Utilize or establish recognized green certification standards, ensuring authenticity, compliance, and transparency in the procurement process, and supporting the credibility of sustainable sourcing efforts.
-Data Tracking and Reporting: Establish robust systems for tracking and reporting environmental performance, enabling the organization to monitor progress, measure success, and communicate transparently about its green initiatives.
-Incentive Mechanisms: Implement incentive mechanisms that reward suppliers for adopting green practices, encouraging a proactive approach to environmental sustainability.
-Long-Term Contracts: Consider long-term contracts with suppliers aligned with green policies, promoting stability and incentivizing continued commitment to sustainable and eco-friendly practices.
-Continuous Improvement: Foster a culture of continuous improvement, encouraging innovation and the adoption of new technologies and practices that contribute to greener procurement processes.
-Risk Assessment and Mitigation: Conduct comprehensive risk assessments to identify potential environmental risks within the supply chain and develop mitigation strategies to address issues related to sustainability impacts.
-Transparent Communication: Communicate openly and transparently with stakeholders, including consumers, about the organization's green initiatives, progress, and challenges in the agri-food supply chain.
-By addressing these points, procurement organizations in the agri-food sector can effectively adopt and implement green policies, contributing to more sustainable and environmentally responsible sourcing practices.</v>
-      </c>
-      <c r="N21" t="str" cm="1">
-        <f t="array" ref="N21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective:
-Efficient Resource Use: A green procurement policy encourages agri-food companies to optimize resource usage, leading to cost savings through reduced water and energy consumption, as well as minimized waste.
-Operational Efficiency: Sustainable practices, such as efficient supply chain management and waste reduction, can enhance operational efficiency, resulting in cost-effectiveness for agri-food companies.
-2. Revenue Perspective:
-Market Differentiation: Adopting a green procurement policy allows agri-food companies to differentiate themselves in the market. This differentiation can attract environmentally conscious consumers, potentially expanding the customer base and increasing revenue.
-Access to Sustainable Markets: Companies with a green procurement policy may gain access to markets that prioritize sustainable sourcing, opening up new revenue streams and partnerships.
-3. Risk Perspective:
-Supply Chain Resilience: Green procurement policies contribute to supply chain resilience by addressing environmental and social risks. This reduces the risk of supply chain disruptions due to issues such as resource scarcity, climate events, or regulatory changes.
-Reputation Management: Embracing sustainability mitigates the risk of reputational damage associated with environmental or ethical issues. This is crucial for maintaining consumer trust and brand value.</v>
-      </c>
-      <c r="O21" t="str" cm="1">
-        <f t="array" ref="O21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(O$10,var_columns,0))</f>
-        <v>1. Environmental Perspective:
-Biodiversity and Ecosystem Health: A green procurement policy promotes environmentally friendly farming practices, supporting biodiversity and overall ecosystem health. This includes reduced pesticide use, soil conservation, and sustainable land management.
-Climate Resilience: Sustainable farming practices encouraged by a green procurement policy help farmers adapt to climate change, reducing the environmental risks associated with extreme weather events and ensuring long-term sustainability.
-2. Income Perspective:
-Market Access and Premium Pricing: Farmers adopting a green procurement policy may gain access to markets that prioritize sustainable and ethically sourced products. This can lead to premium pricing for environmentally conscious produce, contributing to increased income for farmers.
-Cost Savings: Sustainable farming practices can result in cost savings over time. Methods such as organic farming, water conservation, and natural pest control reduce input costs and increase overall profitability for farmers.
-3. Risk Perspective:
-Long-Term Viability: A green procurement policy ensures the long-term viability of farming operations by aligning with sustainability goals. This includes securing access to markets that value environmentally friendly practices, reducing the risk of market exclusion or regulatory non-compliance.
-Resilience Against Environmental Risks: Sustainable farming practices, driven by a green procurement policy, enhance resilience against environmental risks, reducing the vulnerability of farmers to climate-related challenges and ensuring consistent income.</v>
-      </c>
-      <c r="P21" t="str" cm="1">
-        <f t="array" ref="P21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective:
-Risks:
-Higher Costs: Buyers can offset initial higher costs by strategically communicating the potential for long-term savings through green practices, emphasizing efficiency gains and reduced environmental liabilities.
-Limited Supplier Options: While stringent criteria may limit choices, buyers can transform this into an opportunity by emphasizing how partnering with fewer, committed green suppliers strengthens relationships and promotes shared sustainability goals.
-Supply Chain Disruption: To mitigate disruptions, buyers can build resilient supply chains, diversifying sources and collaborating closely with green suppliers to overcome challenges together.
-Trade-offs:
-Long-Term Cost Savings: Despite initial expenses, buyers can leverage green practices for sustained cost savings, ensuring that the investment in environmental responsibility pays off over time.
-Reputation Enhancement: Embracing sustainability not only attracts environmentally conscious stakeholders but also solidifies the buyer's market position, translating into increased customer trust and loyalty.
-Innovation and Collaboration: Collaborating with green suppliers offers a dual advantage, fostering innovation to stay ahead in the market and ensuring compliance with evolving standards.
-2. Supplier Perspective:
-Risks:
-Increased Costs: Suppliers facing increased costs can articulate the trade-off by emphasizing market access, showcasing their commitment to green policies as a strategic advantage in attracting socially responsible buyers.
-Resource Constraints: Suppliers can navigate resource constraints by presenting long-term partnerships as a trade-off, highlighting the value of sustained relationships with buyers committed to environmental consciousness.
-Market Exclusion: Suppliers not meeting green standards can proactively address market exclusion risks by showcasing their commitment to innovation, collaborating with buyers to meet and exceed green criteria over time.
-Trade-offs:
-Market Access: Adhering to green policies opens doors to new markets for suppliers, providing a strong incentive to overcome increased production costs and invest in sustainable practices.
-Long-Term Partnerships: Commitment to sustainability enhances a supplier's appeal to buyers seeking enduring and environmentally conscious relationships, compensating for potential strains on resources.
-Innovation Opportunities: Suppliers embracing green practices benefit from collaborative innovation with buyers, creating opportunities to enhance efficiency and meet evolving environmental standards, thereby building strong, long-term business relationships.</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="55" t="str">
-        <f>'Background calcs'!L15</f>
-        <v>Conducting an Environmental Impact Assessment (EIA)</v>
-      </c>
-      <c r="D22" s="31">
-        <f>'Background calcs'!K15</f>
-        <v>20</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31" cm="1">
-        <f t="array" ref="F22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(F$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="G22" s="31" cm="1">
-        <f t="array" ref="G22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(G$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="H22" s="31" cm="1">
-        <f t="array" ref="H22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(H$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="I22" s="31" cm="1">
-        <f t="array" ref="I22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(I$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="J22" s="31" cm="1">
-        <f t="array" ref="J22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(J$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="L22" t="str" cm="1">
-        <f t="array" ref="L22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-Environmental risk assessment in a procurement context involves the systematic evaluation and analysis of potential adverse environmental impacts associated with the sourcing and acquisition of goods and services, aiming to mitigate and manage environmental risks throughout the supply chain.
-Additional details:
-Before selecting suppliers of agri-food crops or products that may present a potential risk on natural resources (such as palm oil), companies can conduct thorough assessments of the potential environmental impacts related to the procurement of these crops or products. This includes evaluating the sustainability of resource use, waste management practices, and overall ecological implications throughout the supply chain.</v>
-      </c>
-      <c r="M22" t="str" cm="1">
-        <f t="array" ref="M22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(M$10,var_columns,0))</f>
-        <v>Enabling conditions for environmental risk assessment in a procurement organization include:
-Supply Chain Visibility: Establish comprehensive supply chain visibility to identify key environmental hotspots and potential impacts associated with agri-food procurement activities.
-Environmental Expertise: Ensure that the procurement team has access to or collaborates with environmental experts who can effectively assess and interpret environmental data and impacts.
-Data Collection and Monitoring Systems: Implement robust data collection and monitoring systems to track environmental indicators, enabling the continuous assessment of procurement activities.
-Stakeholder Engagement: Engage with key stakeholders, including suppliers and local communities, to gather insights on potential environmental impacts and foster collaborative efforts in mitigating adverse effects.
-Sustainability Criteria Integration: Embed environmental sustainability criteria directly into procurement policies and evaluation processes, making EIAs an integral part of supplier selection and product sourcing.
-Regulatory Adherence: Stay informed about and comply with environmental regulations and standards specific to the agri-food sector, ensuring that EIAs align with legal requirements.
-Technology Adoption: Leverage innovative technologies, such as satellite imagery or remote sensing tools, to enhance the accuracy and efficiency of EIAs, especially in assessing land use, water consumption, and biodiversity impacts.
-Risk Mitigation Strategies: Develop strategies to address identified environmental risks within the supply chain, incorporating measures to mitigate issues related to water usage, pollution, deforestation, and other relevant concerns.
-Benchmarking and Performance Metrics: Establish benchmarking mechanisms and performance metrics to compare the environmental impact of different suppliers and products, promoting competition in adopting sustainable practices.
-Collaboration with Certification Bodies: Collaborate with recognized environmental certification bodies to align EIAs with established standards, providing credibility and assurance of environmentally responsible sourcing practices.
-Education and Training: Provide ongoing education and training for procurement professionals on the latest methodologies and tools for conducting EIAs, ensuring a well-informed and skilled team.
-Continuous Improvement Framework: Implement a continuous improvement framework based on EIA findings, fostering a culture of learning and adaptation to evolving environmental challenges.
-Transparent Reporting: Communicate EIA results transparently to internal and external stakeholders, demonstrating the organization's commitment to environmental responsibility and accountability.
-Incentivizing Sustainable Practices: Develop incentive mechanisms for suppliers that actively engage in reducing their environmental impact, encouraging a proactive approach to sustainability.
-By focusing on these targeted pproaches, procurement organizations can enhance the effectiveness of their EIAs, leading to more sustainable and environmentally conscious sourcing practices.</v>
-      </c>
-      <c r="N22" t="str" cm="1">
-        <f t="array" ref="N22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Perspective:
-Resource Efficiency: An Environmental Impact Assessment (EIA) for agri-food companies helps identify opportunities for resource efficiency, leading to cost savings through optimized use of water, energy, and other inputs.
-Operational Cost Reduction: By addressing environmental impacts and implementing sustainable practices identified in the EIA, agri-food companies can improve operational efficiency and reduce costs associated with waste management and emissions.
-2. Revenue Perspective:
-Market Differentiation: Companies conducting EIAs can use their environmentally responsible practices as a unique selling point, differentiating themselves in the market and attracting environmentally conscious consumers. This can lead to increased market share and revenue.
-Access to Sustainable Markets: EIAs enable agri-food companies to comply with sustainability standards, granting them access to markets that prioritize environmentally friendly sourcing. This can result in premium pricing and increased revenue.
-3. Risk Perspective:
-Supply Chain Resilience: Identifying and addressing environmental risks through an EIA contributes to supply chain resilience. This reduces the risk of supply chain disruptions due to environmental factors, ensuring a stable and consistent supply of raw materials.
-Regulatory Compliance: EIAs assist in ensuring compliance with environmental regulations, reducing the risk of legal consequences and associated financial penalties.
-4. Link to Procurement Organizations:
-The use of EIAs links back to procurement organizations by influencing the criteria used to select suppliers. Procurement teams may prioritize suppliers and partners who have undergone EIAs, ensuring that the entire supply chain aligns with the company's environmental goals and regulatory requirements.</v>
-      </c>
-      <c r="O22" t="str" cm="1">
-        <f t="array" ref="O22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(O$10,var_columns,0))</f>
-        <v>1. Environmental Perspective:
-Sustainable Farming Practices: EIAs guide farmers in adopting sustainable practices by assessing the environmental impact of their operations. This may include promoting soil conservation, reducing pesticide use, and enhancing biodiversity.
-Climate Resilience: Identifying and addressing environmental impacts through EIAs helps farmers build resilience to climate change, reducing vulnerability to extreme weather events and ensuring long-term environmental sustainability.
-2. Income Perspective:
-Access to Premium Markets: Farmers conducting EIAs may gain access to markets that prioritize environmentally sustainable sourcing. This can result in premium pricing for their products, contributing to increased income and improved profitability.
-Cost Savings: Sustainable farming practices identified through EIAs can lead to cost savings over time. This includes efficient resource use, reduced input costs, and increased overall efficiency.
-3. Risk Perspective:
-Market Viability: EIAs enhance the market viability of farmers by ensuring that their practices align with environmental standards and consumer expectations. This reduces the risk of market exclusion or loss of business opportunities.
-Long-Term Viability: Farmers conducting EIAs contribute to their long-term viability by adapting to changing environmental conditions, meeting regulatory requirements, and ensuring the sustainability of their farming operations.
-4. Link to Procurement Organizations:
-For farmers, the link to procurement organizations is established through the adoption of sustainable practices identified in the EIAs. Procurement organizations play a role in communicating sustainability criteria to farmers, shaping the practices within the supply chain, and ensuring that the products sourced meet environmental standards set by the company. This integration ensures that the entire supply chain, from farmers to end consumers, is aligned with sustainability goals.</v>
-      </c>
-      <c r="P22" t="str" cm="1">
-        <f t="array" ref="P22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective:
-Risks:
-Supply Chain Disruption: To minimize disruption risks, buyers should strategically diversify their supplier base, balancing sustainability criteria with the need for a resilient and varied supply chain.
-Increased Costs: Buyers can strategically negotiate with suppliers, emphasizing the importance of cost-effectiveness while encouraging sustainable practices to manage procurement expenses.
-Limited Supplier Innovation: Buyers can actively engage with smaller suppliers, fostering innovation by providing support and guidance to meet sustainability criteria.
-Trade-offs:
-Cost vs. Sustainability: Buyers must strategically navigate the trade-off between cost-effectiveness and sustainability, making informed compromises to achieve both financial and environmental goals.
-Supplier Diversity vs. Sustainability: Balancing sustainability with supplier diversity requires careful consideration, especially in regions or industries where meeting sustainability standards may be challenging.
-Time-to-Market vs. Sustainability: Buyers need to find a balance between selecting sustainable suppliers and meeting time-to-market goals, ensuring that sustainability efforts do not unduly extend procurement timelines.
-2. Supplier Perspective:
-Risks:
-Financial Strain: Suppliers can proactively manage financial strain by seeking collaborative partnerships with buyers, exploring cost-sharing models for sustainable investments.
-Competitive Disadvantage: Suppliers with lower sustainability scores should focus on improving practices to avoid losing business opportunities, emphasizing the value of sustainable offerings.
-Compliance Challenges: Suppliers facing compliance challenges should engage with buyers to streamline diverse sustainability standards, ensuring a more manageable and efficient adherence process.
-Trade-offs:
-Cost vs. Sustainability: Suppliers must strategically balance the trade-off between implementing sustainable practices and managing production costs, seeking innovative and cost-effective solutions.
-Innovation vs. Compliance: Suppliers can navigate the trade-off by integrating sustainability into their innovation agenda, demonstrating that both innovation and compliance can coexist.
-Market Access vs. Sustainability: Suppliers targeting international markets must weigh the benefits of market access against the costs of adapting to sustainability requirements, aligning their strategies with evolving global standards.</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="55" t="str">
-        <f>'Background calcs'!L16</f>
-        <v>Simple Contract Terminology</v>
-      </c>
-      <c r="D23" s="31">
-        <f>'Background calcs'!K16</f>
-        <v>19</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31" cm="1">
-        <f t="array" ref="F23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(F$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G23" s="31" cm="1">
-        <f t="array" ref="G23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(G$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="H23" s="31" cm="1">
-        <f t="array" ref="H23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(H$10,var_columns,0))</f>
-        <v>4</v>
-      </c>
-      <c r="I23" s="31" cm="1">
-        <f t="array" ref="I23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(I$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="31" cm="1">
-        <f t="array" ref="J23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(J$10,var_columns,0))</f>
-        <v>2.5</v>
-      </c>
-      <c r="L23" t="str" cm="1">
-        <f t="array" ref="L23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(L$10,var_columns,0))</f>
-        <v xml:space="preserve">Definition: 
-Simple Contract Terminology in a procurement context refers to the use of clear and easily understandable language in contractual agreements to facilitate effective communication and comprehension among all parties involved in the procurement process.
-Additional Details:
-In some regions farmers struggle with the complexity of terminologies in contracts and therefore do not fully understand to which term they are committing to
-Hence a contract intervention is to simplfy the complexity of contracts in its terminology and make them more accessible to farmers. </v>
-      </c>
-      <c r="M23" t="str" cm="1">
-        <f t="array" ref="M23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(M$10,var_columns,0))</f>
-        <v>Enabling Simple Contract Terminology in a procurement organization involves fostering a culture of transparency, providing training for staff and suppliers, implementing standardized templates, promoting collaboration between legal and procurement teams, and establishing continuous feedback mechanisms to ensure clear and consistent language in contracts, thereby enhancing communication and efficiency in the procurement process. Leadership support, technology integration, and regular compliance monitoring further contribute to the successful adoption of simple contract language.</v>
-      </c>
-      <c r="N23" t="str" cm="1">
-        <f t="array" ref="N23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Efficiency:
-Simplifying contract terminology reduces the need for extensive legal support and translation services, contributing to cost savings in contract management.
-2. Risk Mitigation:
-By addressing language barriers and improving understanding, the intervention minimizes the risk of unintentional breaches, potential legal disputes, and associated costs.
-3. Operational Efficiency:
-Promoting informed decision-making and empowering negotiation skills among farmers contributes to smoother contract execution and more efficient business operations.
-4. Market Reputation:
-Building trust and transparency through simplified contract terms enhances the reputation of the business, attracting more farmers and fostering long-term, collaborative relationships.
-5. Reduced Administrative Overheads:
-Facilitating compliance through simple contract terminology helps streamline administrative processes, reducing the time and resources required for monitoring and enforcement.
-6. Negotiation Flexibility:
-Empowering farmers in negotiations creates a more flexible and dynamic business environment, allowing for negotiations that are mutually beneficial and adaptable to changing market conditions.</v>
-      </c>
-      <c r="O23" t="str" cm="1">
-        <f t="array" ref="O23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(O$10,var_columns,0))</f>
-        <v>1. Environmental Stewardship:
-Clear understanding of contractual terms enables farmers to make environmentally conscious decisions, aligning their practices with sustainable agricultural principles.
-2. Income Security:
-Improved comprehension of pricing structures, payment terms, and incentives enhances farmers' ability to secure income opportunities, providing financial stability.
-3. Empowerment:
-Simplified contract terminology empowers farmers by giving them the knowledge and confidence to actively participate in negotiations, fostering a more equitable power dynamic.
-4. Reduced Stress and Anxiety:
-Clarity in language reduces the stress and anxiety associated with complex contracts, allowing farmers to focus on their agricultural activities without the burden of intricate legal terms.
-5. Business Diversification:
-Enhanced understanding of contract terms enables farmers to explore and engage in a variety of contracts, facilitating diversification of income sources and agricultural activities.
-6. Long-Term Sustainability:
-The intervention contributes to the long-term sustainability of farming practices by promoting informed decision-making, compliance, and trust in farmer-buyer relationships.
-7. Community Engagement:
-Inclusivity in contract language fosters a sense of community engagement among farmers, creating a more supportive and collaborative agricultural ecosystem.
-8. Capacity Building:
-Simplified contract terminology serves as a tool for capacity building among farmers, improving their overall business acumen and ability to navigate complex market dynamics.</v>
-      </c>
-      <c r="P23" t="str" cm="1">
-        <f t="array" ref="P23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer and Supplier Perspectives
-Risks:
-Ambiguity: Simple contract terminology may lead to misunderstandings and disputes due to lack of clarity.
-Legal Compliance: Oversimplification may result in contracts lacking necessary legal details, posing compliance risks.
-Inadequate Protection: Simple language may not adequately protect parties in complex transactions.
-Trade-offs:
-Clarity and Understanding: Simple terms enhance communication and comprehension among all parties. Decision-makers must weigh the trade-off between the clear language, enhancing overall clarity, against the technical granularity of a complex contract, ensuring a more detailed comprehension but potentially increasing the risk of misunderstanding.
-Efficiency: Streamlines negotiation processes and reduces the likelihood of disputes. Stakeholders face the trade-off between the efficiency of contracts and its language, which expedites negotiations but may sacrifice some depth, and the commitment to quality negotiation outcomes, which may extend timelines for a more thorough agreement.
-Accessibility: Facilitates easier interpretation for all stakeholders involved in the procurement process. Stakeholders need to decide between the accessibility, ensuring a broader understanding but potentially lacking technical depth, and the specificationability, catering to technical experts but potentially limiting accessibility to a specialized audience.</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="55" t="str">
-        <f>'Background calcs'!L17</f>
-        <v>Pricing Methods</v>
-      </c>
-      <c r="D24" s="31">
-        <f>'Background calcs'!K17</f>
-        <v>19</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31" cm="1">
-        <f t="array" ref="F24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(F$10,var_columns,0))</f>
-        <v>5</v>
-      </c>
-      <c r="G24" s="31" cm="1">
-        <f t="array" ref="G24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(G$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="H24" s="31" cm="1">
-        <f t="array" ref="H24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(H$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="I24" s="31" cm="1">
-        <f t="array" ref="I24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(I$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="J24" s="31" cm="1">
-        <f t="array" ref="J24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(J$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="L24" t="str" cm="1">
-        <f t="array" ref="L24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(L$10,var_columns,0))</f>
-        <v>Definition: 
-In sustainable procurement and responsible sourcing, pricing methods within the contract life cycle management involve intentionally selecting and applying pricing structures and strategies during negotiation, analysis, and continuous monitoring to optimize cost-effectiveness, ensure value, and align with financial goals while prioritizing environmentally and socially responsible practices throughout the contract duration.
-Additional Details:
-The implementation of premiums and pricing methods that preserve long-term relationships with suppliers is rooted in fair compensation, quality incentivization, long-term relationships, risk mitigation, encouragement of sustainable practices, market competitiveness, flexibility, financial incentives for innovation, producer loyalty, and transparent, equitable pricing. This multifaceted approach aims to create a pricing structure that not only benefits farmers' income but also promotes sustainable and mutually beneficial relationships in agricultural procurement.</v>
-      </c>
-      <c r="M24" t="str" cm="1">
-        <f t="array" ref="M24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(M$10,var_columns,0))</f>
-        <v>Enabling effective pricing methods in a procurement organization requires strategic leadership, a skilled procurement team, robust data management, market intelligence, clear contractual frameworks, strong supplier relationships, technology integration, legal compliance, risk management strategies, and a culture of continuous improvement to optimize value and achieve financial goals.</v>
-      </c>
-      <c r="N24" t="str" cm="1">
-        <f t="array" ref="N24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(N$10,var_columns,0))</f>
-        <v>1. Cost Management:
-Fair compensation through premiums contributes to the business's cost management by ensuring a motivated and satisfied farmer base, potentially reducing turnover and associated recruitment costs.
-2. Revenue Enhancement:
-Incentivizing quality through premiums can enhance the business's revenue by attracting consumers who are willing to pay a premium for high-quality products, thus expanding market share and potential sales.
-3. Risk Mitigation:
-Premiums as a form of risk mitigation help stabilize the business's income streams by providing farmers with a degree of price stability, reducing the impact of market fluctuations on the overall supply chain.
-4. Market Competitiveness:
-Tying premiums to competitive pricing strategies ensures the business remains competitive in the market. This competitiveness can lead to increased market share, potentially resulting in higher overall revenue.
-5. Flexibility and Customization:
-Implementing premiums allows the business to tailor pricing structures to individual farmers' circumstances, fostering a fairer distribution of benefits. This flexibility contributes to better relationships and overall satisfaction among the farmer community.
-6. Innovation and Efficiency:
-Linking premiums to innovation and productivity provides a financial incentive for farmers to adopt efficient farming methods. This can lead to increased yields and productivity, positively impacting the business's revenue.
-7. Producer Loyalty:
-Offering premiums fosters loyalty among farmers, reducing the risk of turnover and the associated costs of recruiting and onboarding new suppliers. Stable and long-term relationships contribute to overall business continuity.
-8. Transparent Pricing:
-Implementing transparent and equitable pricing methods, including premiums, builds trust between the business and farmers. Trust is a valuable asset that can positively impact the business's reputation and customer relationships, potentially leading to increased sales.</v>
-      </c>
-      <c r="O24" t="str" cm="1">
-        <f t="array" ref="O24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(O$10,var_columns,0))</f>
-        <v>1. Income Security:
-Fair compensation through premiums provides farmers with a stable and just income, ensuring financial security for their households.
-2. Quality Incentives:
-Premiums linked to quality parameters incentivize farmers to produce high-quality crops, leading to increased income through higher prices for superior products.
-3. Long-Term Stability:
-Pricing methods that consider long-term relationships offer farmers stability and commitment, reducing the risk of financial uncertainties and providing a consistent income source.
-4. Sustainable Practices:
-Premiums linked to sustainable practices encourage farmers to adopt environmentally friendly methods. This not only benefits the environment but also aligns with market demands, potentially leading to higher premiums and increased income.
-5. Market Competitiveness:
-Premiums tied to competitive pricing help farmers remain competitive in the market, potentially leading to increased market share and improved income opportunities.
-6. Customized Benefits:
-The flexibility and customization offered by premiums consider the unique circumstances and contributions of individual farmers, contributing to a fairer distribution of benefits.
-7. Innovation Rewards:
-Premiums linked to innovation and productivity provide a direct financial incentive for farmers to adopt new and efficient farming methods, potentially resulting in increased yields and income.
-8. Loyalty Rewards:
-Offering premiums creates a sense of loyalty among farmers, reducing the likelihood of switching buyers for better pricing and fostering stable, long-term partnerships.
-9. Transparent and Equitable Relationships:
-Transparent and equitable pricing, including premiums, builds trust between farmers and buyers, fostering positive relationships that endure over time. This trust is essential for long-term partnerships and mutual benefit.</v>
-      </c>
-      <c r="P24" t="str" cm="1">
-        <f t="array" ref="P24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(P$10,var_columns,0))</f>
-        <v>1. Buyer Perspective
-Risks:
-Higher Costs: Aggressive negotiation tactics may lead to strained supplier relationships or compromise product/service quality, resulting in higher costs.
-Supplier Dissatisfaction: Implementing cost-focused pricing methods may result in supplier dissatisfaction, potentially affecting future collaboration.
-Market Volatility: Relying solely on fixed pricing methods may expose buyers to market fluctuations, impacting overall budgeting.
-Trade-offs:
-Cost Savings vs. Fairness:
-Context: Buyers face the challenge of balancing the pursuit of cost savings with the commitment to fair and ethical pricing for suppliers. The trade-off involves deciding on the extent to which buyers prioritize cost reductions, potentially impacting supplier relationships and the overall fairness of procurement practices.
-Explanation: Striking the right balance is crucial, as prioritizing cost savings excessively may strain relationships and compromise ethical standards in pricing.
-Competitive Bidding vs. Relationship Building:
-Context: Buyers must decide between competitive bidding processes that focus primarily on securing the lowest price and relationship-building approaches that consider fairness and ethical practices. Intense market competition and limited supplier options can influence this trade-off.
-Explanation: This trade-off requires buyers to carefully weigh the benefits of immediate cost savings through competitive bidding against the advantages of fostering long-term, collaborative relationships with suppliers.
-2. Supplier Perspective
-Risks:
-Profit Margins: Aggressive cost reduction demands may affect suppliers' profit margins and financial stability.
-Quality Compromise: Pressure for lower prices may lead to compromises in product or service quality.
-Relationship Strain: Unfair pricing negotiations may strain the buyer-supplier relationship, potentially impacting long-term collaboration.
-Trade-offs:
-Market Presence: Competitive pricing can enhance a supplier's market presence and attract more business.
-Stable Revenue: Balanced and fair pricing methods contribute to stable and predictable revenue.
-Innovation Collaboration: A fair pricing approach may encourage suppliers to invest in innovation and improve overall collaboration.</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="55" t="str">
-        <f>'Background calcs'!L18</f>
-        <v>Procurement-Driven Sustainability Investments</v>
-      </c>
-      <c r="D25" s="31">
-        <f>'Background calcs'!K18</f>
-        <v>19</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31" cm="1">
-        <f t="array" ref="F25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(F$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="G25" s="31" cm="1">
-        <f t="array" ref="G25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(G$10,var_columns,0))</f>
-        <v>3</v>
-      </c>
-      <c r="H25" s="31" cm="1">
-        <f t="array" ref="H25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(H$10,var_columns,0))</f>
-        <v>2</v>
-      </c>
-      <c r="I25" s="31" cm="1">
-        <f t="array" ref="I25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(I$10,var_columns,0))</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="31" cm="1">
-        <f t="array" ref="J25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(J$10,var_columns,0))</f>
-        <v>1.5</v>
-      </c>
-      <c r="L25" t="str" cm="1">
-        <f t="array" ref="L25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(L$10,var_columns,0))</f>
         <v>Definition: 
 Procurement-driven sustainability investments involve targeted financial initiatives, both directly and indirectly funded, strategically implemented by a procurement organization to advance environmental and social responsibility within the supply chain, promoting sustainable and ethical business practices.
 Additional Details:
 Procurement-driven sustainability investments in agriculture aim to enhance supply chain resilience, assure product quality, mitigate risks, ensure compliance, secure long-term supply, achieve cost efficiency, access premium markets, engage with communities, and align with corporate sustainability goals. These interventions contribute not only to the overall sustainability of the supply chain but also to the improvement of farmers' income and well-being.</v>
       </c>
-      <c r="M25" t="str" cm="1">
-        <f t="array" ref="M25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(M$10,var_columns,0))</f>
+      <c r="M13" t="str" cm="1">
+        <f t="array" ref="M13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(M$10,var_columns,0))</f>
         <v>To enable financially robust and strategically impactful procurement-driven sustainability investments, a procurement organization should prioritize:
 1. Strategic Investment Planning: Rigorous financial planning for effective resource allocation.
 2. Strategic Procurement Investment Strategy: Developing a comprehensive strategy aligning procurement investments with overall organizational goals, considering different investments methods (direct / indirect)
@@ -6214,8 +5060,8 @@
 9. Continuous Improvement Culture: Fostering a culture of continuous improvement within the financial and strategic aspects of sustainability investments.
 10. Regulatory Compliance Management: Incorporating financial planning to ensure compliance with environmental regulations.</v>
       </c>
-      <c r="N25" t="str" cm="1">
-        <f t="array" ref="N25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(N$10,var_columns,0))</f>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(N$10,var_columns,0))</f>
         <v>1. Supply Chain Resilience:
 Cost Perspective: Reducing the impact of supply chain disruptions through sustainability investments minimizes potential financial losses and operational inefficiencies.
 Revenue Perspective: A resilient supply chain ensures a consistent flow of products, meeting market demand and maintaining revenue streams.
@@ -6257,8 +5103,8 @@
 Revenue Perspective: Alignment with corporate sustainability goals positively impacts the brand image, potentially attracting conscious consumers and positively affecting revenue.
 Risk Perspective: Aligning with corporate goals reduces the risk of misalignment, ensuring that the business remains consistent with broader organizational values and goals.</v>
       </c>
-      <c r="O25" t="str" cm="1">
-        <f t="array" ref="O25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(O$10,var_columns,0))</f>
+      <c r="O13" t="str" cm="1">
+        <f t="array" ref="O13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(O$10,var_columns,0))</f>
         <v>1. Supply Chain Resilience:
 Environmental Perspective: Resilient supply chains, supported by sustainability investments, protect farmers from environmental risks, preserving their livelihoods.
 Income Perspective: Stable supply chains ensure consistent income for farmers, reducing financial vulnerabilities associated with disruptions.
@@ -6287,8 +5133,8 @@
 Environmental Perspective: Training in sustainable practices supports environmental conservation and adaptation to changing conditions.
 Income Perspective: Risk mitigation through training ensures farmers can adapt to market demands, preserving their income and livelihoods.</v>
       </c>
-      <c r="P25" t="str" cm="1">
-        <f t="array" ref="P25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(P$10,var_columns,0))</f>
+      <c r="P13" t="str" cm="1">
+        <f t="array" ref="P13">INDEX(proc_practices,'Background calcs'!$M6,MATCH(P$10,var_columns,0))</f>
         <v>1. Buyer Perspective
 Risks:
 Higher Initial Investment: Implementing sustainability initiatives may require a higher upfront investment in eco-friendly products or services.
@@ -6309,6 +5155,1107 @@
 Market Presence vs. Sustainability Credentials: Suppliers may need to weigh the importance of building a strong market presence against the need to invest in and showcase sustainability credentials. Striking the right balance ensures visibility and commitment to sustainability.
 Flexibility vs. Compliance with Sustainable Standards: Suppliers may value flexibility in their operations, but strict compliance with sustainability standards may limit their operational freedom. Achieving compliance without compromising operational efficiency is a key trade-off.
 Short-Term Profits vs. Long-Term Sustainability Investments: Suppliers may need to decide between prioritizing short-term profits and making long-term investments in sustainable practices. Balancing immediate financial gains with sustainable investments is critical for long-term success.</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" s="55" t="str">
+        <f>'Background calcs'!L7</f>
+        <v>Partial Payments and Milestone Payments</v>
+      </c>
+      <c r="D14" s="31">
+        <f>'Background calcs'!K7</f>
+        <v>23</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31" cm="1">
+        <f t="array" ref="F14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(F$10,var_columns,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="31" cm="1">
+        <f t="array" ref="G14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(G$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H14" s="31" cm="1">
+        <f t="array" ref="H14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(H$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I14" s="31" cm="1">
+        <f t="array" ref="I14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(I$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="31" cm="1">
+        <f t="array" ref="J14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(J$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="L14" t="str" cm="1">
+        <f t="array" ref="L14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(L$10,var_columns,0))</f>
+        <v>Definition: 
+Partial Payments and Milestone Payments in procurement involve the disbursement of funds to suppliers in installments, corresponding to achieved project milestones or completed phases, providing financial flexibility and aligning payments with project progress.
+Additional Details:
+Implementing Partial Payments and Milestone Payments in procurement revolves around providing cash flow stability, enabling effective financial planning and investment, mitigating risks, ensuring operational continuity, fostering improved collaboration and trust, promoting efficient resource management, offering flexibility and adaptability, encouraging compliance and quality, facilitating financial inclusion, and enhancing market competitiveness. These practices collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
+      </c>
+      <c r="M14" t="str" cm="1">
+        <f t="array" ref="M14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(M$10,var_columns,0))</f>
+        <v>To effectively implement Partial Payments and Milestone Payments in procurement, a procurement organization should ensure clarity in project goals, establish transparent and comprehensive contractual agreements, conduct proactive risk assessments, implement robust project management practices, maintain financial stability, foster open communication channels, define performance metrics and monitoring mechanisms, ensure legal compliance, establish efficient dispute resolution mechanisms, and implement strong Supplier Relationship Management (SRM) practices, thereby fostering successful project delivery and financial transactions.</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective 
+Partial and milestone payments could provide significant cost advantages by aligning payments with the delivery of goods or the completion of services. This practice can assist in effective cash flow management and helps to align payment schedules with a business's financial plan.
+2. Revenue Perspective 
+By providing a predictable schedule of payments, businesses can build better relationships with suppliers, ensuring a steady and reliable supply that can lead to consistent revenues. Furthermore, it encourages suppliers to meet agreed-upon milestones, positively impacting product quality and customer satisfaction, and thereby potentially increasing revenues.
+3. Risk Perspective 
+Partial and milestone payments can reduce financial risk by allowing businesses to manage their cash flows more effectively, avoiding potential liquidity issues. Moreover, these payment methods help to ensure quality and timely delivery of goods, reducing operational risk.
+4. Sustainable Procurement
+From a sustainable procurement perspective, partial and milestone payments can ensure businesses support their suppliers financially, helping them to stay float and invest in their operational improvements. This can contribute to social sustainability by improving income stability for farmers. Furthermore, when such practices are linked to environmental milestones or standards, they can encourage environmentally-friendly practices. This illustrates an alignment of procurement practices with broader sustainability goals. Ultimately, these practices can contribute to a resilient and sustainable agricultural supply chain that benefits producers, businesses, consumers, and the environment.</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" ref="O14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Perspective 
+Regular partial or milestone payments provide farmers with more predictable income and financial stability. This can aid in planning for investments and operational expenses, contributing to increased productivity and potentially higher income.
+2. Environment Perspective 
+A predictable payment schedule could enable farmers to invest in environmentally sustainable farming practices. Knowing they have a stable income can make it financially feasible for farmers to utilize practices that might have a short-term cost but provide long-lasting environmental benefits.</v>
+      </c>
+      <c r="P14" t="str" cm="1">
+        <f t="array" ref="P14">INDEX(proc_practices,'Background calcs'!$M7,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective
+Risks:
+Financial Commitment: Committing to partial or milestone payments may pose financial risks if the supplier fails to deliver as per the agreed-upon milestones.
+Dependency on Milestones: The buyer's progress may be dependent on the supplier's ability to meet milestone deadlines, risking project delays.
+Disputes over Milestone Achievement: Disputes may arise if there are disagreements on whether the supplier has successfully achieved a milestone.
+Trade-offs:
+Cash Flow Management vs. Supplier Commitment: Buyers may face the trade-off between managing their cash flow by making partial payments and ensuring strong commitment from suppliers. Striking the right balance involves maintaining cash flow while incentivizing suppliers to fulfill their commitments.
+Risk Mitigation vs. Supplier Relationship: Buyers may use milestone payments for risk mitigation, but this can impact the overall relationship with suppliers. The trade-off involves managing risks without compromising the collaborative aspect of the buyer-supplier relationship.
+Flexibility vs. Contractual Adherence: Buyers may prefer flexibility in payment schedules, but this may conflict with the need for strict contractual adherence. Balancing flexibility with contractual commitments is essential for effective procurement management.
+Cost Control vs. Project Progress: Buyers must decide between maintaining cost control through partial payments and ensuring continuous project progress. The trade-off involves monitoring costs while aligning payment milestones with project milestones.
+2. Supplier Perspective
+Risks:
+Cash Flow Disruptions: Irregular or delayed partial payments may disrupt the supplier's cash flow, affecting their ability to meet project requirements.
+Performance Pressure: Milestone payments may create pressure on the supplier to achieve milestones, potentially compromising the quality of deliverables.
+Payment Disputes: Disputes may arise if the buyer contests the achievement of milestones, leading to payment delays.
+Trade-offs:
+Cash Flow Predictability vs. Project Delivery: Suppliers may prioritize predictable cash flow through partial and milestone payments, but this may be balanced against the timely delivery of project milestones. Striking the right balance involves fulfilling project requirements while maintaining financial stability.
+Financial Stability vs. Buyer Satisfaction: Suppliers may rely on milestone payments for financial stability, but this may conflict with satisfying buyer expectations. The trade-off involves meeting financial needs while ensuring buyer satisfaction with project progress.
+Risk Mitigation vs. Competitive Bidding: Suppliers may prefer milestone payments for risk mitigation, but this might impact their competitiveness in bidding for projects. The trade-off involves managing risks without compromising competitiveness in the procurement process.
+Innovation vs. Payment Constraints: Suppliers may desire to innovate during project execution, but the constraints of milestone payments may limit these initiatives. Striking a balance involves finding innovative solutions within the framework of payment schedules.</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="55" t="str">
+        <f>'Background calcs'!L8</f>
+        <v>Buyer Sustainability Targets</v>
+      </c>
+      <c r="D15" s="31">
+        <f>'Background calcs'!K8</f>
+        <v>23</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31" cm="1">
+        <f t="array" ref="F15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(F$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G15" s="31" cm="1">
+        <f t="array" ref="G15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(G$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H15" s="31" cm="1">
+        <f t="array" ref="H15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(H$10,var_columns,0))</f>
+        <v>5</v>
+      </c>
+      <c r="I15" s="31" cm="1">
+        <f t="array" ref="I15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(I$10,var_columns,0))</f>
+        <v>5</v>
+      </c>
+      <c r="J15" s="31" cm="1">
+        <f t="array" ref="J15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(J$10,var_columns,0))</f>
+        <v>5</v>
+      </c>
+      <c r="L15" t="str" cm="1">
+        <f t="array" ref="L15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(L$10,var_columns,0))</f>
+        <v>Definition: 
+Buyer Sustainability Targets in procurement refer to predetermined and measurable environmental, social, and economic goals set by a buyer organization to integrate sustainable practices into their procurement processes and supply chain
+Additional Information:
+Incorporating Buyer Sustainability Targets in procurement or even their working contracts is rooted in promoting fair trade prices and practices, encouraging long-term contracts, supporting sustainable farming techniques, enhancing market access, elevating the value of certification, mitigating environmental impact, fostering innovation and efficiency, building resilience in supply chains, and meeting consumer demand. These targets collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
+      </c>
+      <c r="M15" t="str" cm="1">
+        <f t="array" ref="M15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(M$10,var_columns,0))</f>
+        <v>To effectively implement Buyer Sustainability Targets in procurement:
+1. Secure leadership commitment to prioritize sustainability.
+2. Engage stakeholders, including suppliers, in target development.
+3. Conduct a baseline assessment to identify areas for improvement.
+4. Define clear, measurable, and time-bound sustainability targets aligned with organizational goals.
+5. Foster collaboration with suppliers, evaluating their sustainability practices.
+6. Provide employee training to enhance awareness of sustainable procurement practices.
+7. Integrate sustainability considerations into all stages of the procurement process.
+8. Establish systems for regular monitoring and reporting of sustainability performance.
+9. Ensure legal and regulatory compliance with relevant sustainability standards.
+10. Invest in technology and data systems to streamline tracking and reporting processes.</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective 
+Incorporating sustainability targets in procurement can lead to long-term cost savings through the promotion of efficiency and innovation. Sustainable farming techniques can also lead to improved product quality, reducing losses associated with defective or sub-par goods.
+2. Revenue Perspective 
+Meeting sustainability targets can enhance the company's brand image and reputation, opening up market access and attracting customers who prioritize sustainability, leading to higher revenues.
+3. Risk Perspective 
+Buyer sustainability targets reduce multiple business risks. They can reduce environmental risks by promoting sustainable farming practices and mitigating environmental impact. They also mitigate supply chain risks by building resilience and improving the reliability of supplies. Moreover, they can safeguard the company's reputation by demonstrating a commitment to fair trade and sustainable practices.
+4. Sustainable Procurement
+From a sustainable procurement standpoint, incorporating sustainability targets in procurement aligns the procurement process with the sustainability objectives of the business. It promotes fair trade, supports sustainable farming, fosters innovation, and builds resilient supply chains. It also provides a mechanism to demonstrate and measure the business's commitment to sustainability. These targets can make a significant contribution to the overall goal of creating a more sustainable and resilient agricultural supply chain. Finally, meeting these targets can improve the company's reputation among its stakeholders, including customers, investors, and local communities, further enhancing its sustainability credentials.</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" ref="O15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Perspective 
+Incorporating sustainability targets in procurement can guarantee farmers fair trade prices for their products, improving their income. Long-term contracts can offer better income security. Better market access and elevated certification value can also increase sales opportunities for farmers, thereby increasing their income.
+2. Environment Perspective 
+Buyer sustainability targets often promote sustainable farming techniques, encouraging farmers to adopt practices that have less impact on the environment. By doing so, it not only contributes to environmental preservation but also improves the long-term sustainability of farms by preserving the health of the soil, preserving water resources, and reducing the impact on wildlife ecosystems.</v>
+      </c>
+      <c r="P15" t="str" cm="1">
+        <f t="array" ref="P15">INDEX(proc_practices,'Background calcs'!$M8,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective
+Risks:
+Increased Costs: Implementing sustainability targets may initially incur additional costs for eco-friendly products or suppliers with sustainable practices.
+Limited Supplier Pool: Stricter sustainability criteria may reduce the pool of eligible suppliers, potentially limiting competitive options.
+Complexity in Compliance: Ensuring compliance with sustainability targets can be challenging, particularly when dealing with global supply chains and diverse regulations.
+Trade-offs:
+Sustainability vs. Cost Efficiency: Buyers may face the trade-off between achieving sustainability targets and maintaining cost efficiency in procurement. Striking the right balance involves integrating sustainable practices without compromising overall cost-effectiveness.
+Supplier Diversity vs. Cost Competitiveness: Buyers aiming for supplier diversity may encounter the trade-off between fostering a diverse supplier base and ensuring cost competitiveness. The challenge is to balance diversity goals with the economic efficiency of the supply chain.
+Long-Term Sustainability vs. Immediate Gains: Buyers must decide between pursuing long-term sustainability objectives and seeking immediate gains through potentially less sustainable practices. Striking the right balance involves aligning short-term gains with broader sustainability goals.
+Innovation vs. Established Practices: Buyers may trade off between encouraging innovation in sustainable practices and sticking to established, potentially less sustainable, procurement methods. Balancing innovation with proven practices is essential for sustainable procurement.
+2. Supplier Perspective:
+Risks:
+Financial Strain: Adhering to sustainability targets may require suppliers to invest in new technologies or practices, potentially causing financial strain.
+Competitive Disadvantage: Suppliers not meeting sustainability targets may face a disadvantage in bidding for contracts, affecting competitiveness.
+Complex Certification Processes: Suppliers may encounter challenges in navigating complex certification processes to prove their sustainability credentials.
+Trade-offs:
+Compliance vs. Innovation: Suppliers may face the trade-off between complying with buyer sustainability targets and innovating in their offerings. Striking the right balance involves meeting sustainability requirements while fostering a culture of innovation.
+Cost of Sustainability Compliance vs. Profitability: Suppliers may incur additional costs to meet sustainability requirements, impacting overall profitability. The trade-off involves managing compliance costs while maintaining a viable and profitable business model.
+Market Access vs. Sustainability Investments: Suppliers must decide between investing in sustainability practices to access markets with stringent requirements and balancing these investments with other business needs. Striking the right balance involves meeting market demands while ensuring financial viability.
+Risk Mitigation vs. Market Competitiveness: Suppliers may prioritize risk mitigation through sustainable practices but must balance this with remaining competitive in the market. The trade-off involves managing risks while staying competitive in the procurement landscape.</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="55" t="str">
+        <f>'Background calcs'!L9</f>
+        <v>Simple Contract Terminology</v>
+      </c>
+      <c r="D16" s="31">
+        <f>'Background calcs'!K9</f>
+        <v>22</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31" cm="1">
+        <f t="array" ref="F16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(F$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="31" cm="1">
+        <f t="array" ref="G16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(G$10,var_columns,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="31" cm="1">
+        <f t="array" ref="H16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(H$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I16" s="31" cm="1">
+        <f t="array" ref="I16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(I$10,var_columns,0))</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="31" cm="1">
+        <f t="array" ref="J16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(J$10,var_columns,0))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="str" cm="1">
+        <f t="array" ref="L16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(L$10,var_columns,0))</f>
+        <v xml:space="preserve">Definition: 
+Simple Contract Terminology in a procurement context refers to the use of clear and easily understandable language in contractual agreements to facilitate effective communication and comprehension among all parties involved in the procurement process.
+Additional Details:
+In some regions farmers struggle with the complexity of terminologies in contracts and therefore do not fully understand to which term they are committing to
+Hence a contract intervention is to simplfy the complexity of contracts in its terminology and make them more accessible to farmers. </v>
+      </c>
+      <c r="M16" t="str" cm="1">
+        <f t="array" ref="M16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(M$10,var_columns,0))</f>
+        <v>Enabling Simple Contract Terminology in a procurement organization involves fostering a culture of transparency, providing training for staff and suppliers, implementing standardized templates, promoting collaboration between legal and procurement teams, and establishing continuous feedback mechanisms to ensure clear and consistent language in contracts, thereby enhancing communication and efficiency in the procurement process. Leadership support, technology integration, and regular compliance monitoring further contribute to the successful adoption of simple contract language.</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Efficiency:
+Simplifying contract terminology reduces the need for extensive legal support and translation services, contributing to cost savings in contract management.
+2. Risk Mitigation:
+By addressing language barriers and improving understanding, the intervention minimizes the risk of unintentional breaches, potential legal disputes, and associated costs.
+3. Operational Efficiency:
+Promoting informed decision-making and empowering negotiation skills among farmers contributes to smoother contract execution and more efficient business operations.
+4. Market Reputation:
+Building trust and transparency through simplified contract terms enhances the reputation of the business, attracting more farmers and fostering long-term, collaborative relationships.
+5. Reduced Administrative Overheads:
+Facilitating compliance through simple contract terminology helps streamline administrative processes, reducing the time and resources required for monitoring and enforcement.
+6. Negotiation Flexibility:
+Empowering farmers in negotiations creates a more flexible and dynamic business environment, allowing for negotiations that are mutually beneficial and adaptable to changing market conditions.</v>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" ref="O16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(O$10,var_columns,0))</f>
+        <v>1. Environmental Stewardship:
+Clear understanding of contractual terms enables farmers to make environmentally conscious decisions, aligning their practices with sustainable agricultural principles.
+2. Income Security:
+Improved comprehension of pricing structures, payment terms, and incentives enhances farmers' ability to secure income opportunities, providing financial stability.
+3. Empowerment:
+Simplified contract terminology empowers farmers by giving them the knowledge and confidence to actively participate in negotiations, fostering a more equitable power dynamic.
+4. Reduced Stress and Anxiety:
+Clarity in language reduces the stress and anxiety associated with complex contracts, allowing farmers to focus on their agricultural activities without the burden of intricate legal terms.
+5. Business Diversification:
+Enhanced understanding of contract terms enables farmers to explore and engage in a variety of contracts, facilitating diversification of income sources and agricultural activities.
+6. Long-Term Sustainability:
+The intervention contributes to the long-term sustainability of farming practices by promoting informed decision-making, compliance, and trust in farmer-buyer relationships.
+7. Community Engagement:
+Inclusivity in contract language fosters a sense of community engagement among farmers, creating a more supportive and collaborative agricultural ecosystem.
+8. Capacity Building:
+Simplified contract terminology serves as a tool for capacity building among farmers, improving their overall business acumen and ability to navigate complex market dynamics.</v>
+      </c>
+      <c r="P16" t="str" cm="1">
+        <f t="array" ref="P16">INDEX(proc_practices,'Background calcs'!$M9,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer and Supplier Perspectives
+Risks:
+Ambiguity: Simple contract terminology may lead to misunderstandings and disputes due to lack of clarity.
+Legal Compliance: Oversimplification may result in contracts lacking necessary legal details, posing compliance risks.
+Inadequate Protection: Simple language may not adequately protect parties in complex transactions.
+Trade-offs:
+Clarity and Understanding: Simple terms enhance communication and comprehension among all parties. Decision-makers must weigh the trade-off between the clear language, enhancing overall clarity, against the technical granularity of a complex contract, ensuring a more detailed comprehension but potentially increasing the risk of misunderstanding.
+Efficiency: Streamlines negotiation processes and reduces the likelihood of disputes. Stakeholders face the trade-off between the efficiency of contracts and its language, which expedites negotiations but may sacrifice some depth, and the commitment to quality negotiation outcomes, which may extend timelines for a more thorough agreement.
+Accessibility: Facilitates easier interpretation for all stakeholders involved in the procurement process. Stakeholders need to decide between the accessibility, ensuring a broader understanding but potentially lacking technical depth, and the specificationability, catering to technical experts but potentially limiting accessibility to a specialized audience.</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="55" t="str">
+        <f>'Background calcs'!L10</f>
+        <v>Pricing Methods</v>
+      </c>
+      <c r="D17" s="31">
+        <f>'Background calcs'!K10</f>
+        <v>22</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" cm="1">
+        <f t="array" ref="F17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(F$10,var_columns,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G17" s="31" cm="1">
+        <f t="array" ref="G17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(G$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H17" s="31" cm="1">
+        <f t="array" ref="H17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(H$10,var_columns,0))</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="31" cm="1">
+        <f t="array" ref="I17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(I$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="31" cm="1">
+        <f t="array" ref="J17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(J$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="L17" t="str" cm="1">
+        <f t="array" ref="L17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(L$10,var_columns,0))</f>
+        <v>Definition: 
+In sustainable procurement and responsible sourcing, pricing methods within the contract life cycle management involve intentionally selecting and applying pricing structures and strategies during negotiation, analysis, and continuous monitoring to optimize cost-effectiveness, ensure value, and align with financial goals while prioritizing environmentally and socially responsible practices throughout the contract duration.
+Additional Details:
+The implementation of premiums and pricing methods that preserve long-term relationships with suppliers is rooted in fair compensation, quality incentivization, long-term relationships, risk mitigation, encouragement of sustainable practices, market competitiveness, flexibility, financial incentives for innovation, producer loyalty, and transparent, equitable pricing. This multifaceted approach aims to create a pricing structure that not only benefits farmers' income but also promotes sustainable and mutually beneficial relationships in agricultural procurement.</v>
+      </c>
+      <c r="M17" t="str" cm="1">
+        <f t="array" ref="M17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(M$10,var_columns,0))</f>
+        <v>Enabling effective pricing methods in a procurement organization requires strategic leadership, a skilled procurement team, robust data management, market intelligence, clear contractual frameworks, strong supplier relationships, technology integration, legal compliance, risk management strategies, and a culture of continuous improvement to optimize value and achieve financial goals.</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Management:
+Fair compensation through premiums contributes to the business's cost management by ensuring a motivated and satisfied farmer base, potentially reducing turnover and associated recruitment costs.
+2. Revenue Enhancement:
+Incentivizing quality through premiums can enhance the business's revenue by attracting consumers who are willing to pay a premium for high-quality products, thus expanding market share and potential sales.
+3. Risk Mitigation:
+Premiums as a form of risk mitigation help stabilize the business's income streams by providing farmers with a degree of price stability, reducing the impact of market fluctuations on the overall supply chain.
+4. Market Competitiveness:
+Tying premiums to competitive pricing strategies ensures the business remains competitive in the market. This competitiveness can lead to increased market share, potentially resulting in higher overall revenue.
+5. Flexibility and Customization:
+Implementing premiums allows the business to tailor pricing structures to individual farmers' circumstances, fostering a fairer distribution of benefits. This flexibility contributes to better relationships and overall satisfaction among the farmer community.
+6. Innovation and Efficiency:
+Linking premiums to innovation and productivity provides a financial incentive for farmers to adopt efficient farming methods. This can lead to increased yields and productivity, positively impacting the business's revenue.
+7. Producer Loyalty:
+Offering premiums fosters loyalty among farmers, reducing the risk of turnover and the associated costs of recruiting and onboarding new suppliers. Stable and long-term relationships contribute to overall business continuity.
+8. Transparent Pricing:
+Implementing transparent and equitable pricing methods, including premiums, builds trust between the business and farmers. Trust is a valuable asset that can positively impact the business's reputation and customer relationships, potentially leading to increased sales.</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" ref="O17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Security:
+Fair compensation through premiums provides farmers with a stable and just income, ensuring financial security for their households.
+2. Quality Incentives:
+Premiums linked to quality parameters incentivize farmers to produce high-quality crops, leading to increased income through higher prices for superior products.
+3. Long-Term Stability:
+Pricing methods that consider long-term relationships offer farmers stability and commitment, reducing the risk of financial uncertainties and providing a consistent income source.
+4. Sustainable Practices:
+Premiums linked to sustainable practices encourage farmers to adopt environmentally friendly methods. This not only benefits the environment but also aligns with market demands, potentially leading to higher premiums and increased income.
+5. Market Competitiveness:
+Premiums tied to competitive pricing help farmers remain competitive in the market, potentially leading to increased market share and improved income opportunities.
+6. Customized Benefits:
+The flexibility and customization offered by premiums consider the unique circumstances and contributions of individual farmers, contributing to a fairer distribution of benefits.
+7. Innovation Rewards:
+Premiums linked to innovation and productivity provide a direct financial incentive for farmers to adopt new and efficient farming methods, potentially resulting in increased yields and income.
+8. Loyalty Rewards:
+Offering premiums creates a sense of loyalty among farmers, reducing the likelihood of switching buyers for better pricing and fostering stable, long-term partnerships.
+9. Transparent and Equitable Relationships:
+Transparent and equitable pricing, including premiums, builds trust between farmers and buyers, fostering positive relationships that endure over time. This trust is essential for long-term partnerships and mutual benefit.</v>
+      </c>
+      <c r="P17" t="str" cm="1">
+        <f t="array" ref="P17">INDEX(proc_practices,'Background calcs'!$M10,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective
+Risks:
+Higher Costs: Aggressive negotiation tactics may lead to strained supplier relationships or compromise product/service quality, resulting in higher costs.
+Supplier Dissatisfaction: Implementing cost-focused pricing methods may result in supplier dissatisfaction, potentially affecting future collaboration.
+Market Volatility: Relying solely on fixed pricing methods may expose buyers to market fluctuations, impacting overall budgeting.
+Trade-offs:
+Cost Savings vs. Fairness:
+Context: Buyers face the challenge of balancing the pursuit of cost savings with the commitment to fair and ethical pricing for suppliers. The trade-off involves deciding on the extent to which buyers prioritize cost reductions, potentially impacting supplier relationships and the overall fairness of procurement practices.
+Explanation: Striking the right balance is crucial, as prioritizing cost savings excessively may strain relationships and compromise ethical standards in pricing.
+Competitive Bidding vs. Relationship Building:
+Context: Buyers must decide between competitive bidding processes that focus primarily on securing the lowest price and relationship-building approaches that consider fairness and ethical practices. Intense market competition and limited supplier options can influence this trade-off.
+Explanation: This trade-off requires buyers to carefully weigh the benefits of immediate cost savings through competitive bidding against the advantages of fostering long-term, collaborative relationships with suppliers.
+2. Supplier Perspective
+Risks:
+Profit Margins: Aggressive cost reduction demands may affect suppliers' profit margins and financial stability.
+Quality Compromise: Pressure for lower prices may lead to compromises in product or service quality.
+Relationship Strain: Unfair pricing negotiations may strain the buyer-supplier relationship, potentially impacting long-term collaboration.
+Trade-offs:
+Market Presence: Competitive pricing can enhance a supplier's market presence and attract more business.
+Stable Revenue: Balanced and fair pricing methods contribute to stable and predictable revenue.
+Innovation Collaboration: A fair pricing approach may encourage suppliers to invest in innovation and improve overall collaboration.</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="55" t="str">
+        <f>'Background calcs'!L11</f>
+        <v>Buyer Incentives</v>
+      </c>
+      <c r="D18" s="31">
+        <f>'Background calcs'!K11</f>
+        <v>22</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31" cm="1">
+        <f t="array" ref="F18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(F$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G18" s="31" cm="1">
+        <f t="array" ref="G18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(G$10,var_columns,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="31" cm="1">
+        <f t="array" ref="H18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(H$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I18" s="31" cm="1">
+        <f t="array" ref="I18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(I$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="J18" s="31" cm="1">
+        <f t="array" ref="J18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(J$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L18" t="str" cm="1">
+        <f t="array" ref="L18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(L$10,var_columns,0))</f>
+        <v>Defintion: 
+Buyer incentives in a procurement context refer to strategic measures, often financial or contractual, designed to encourage specific behaviors or outcomes from suppliers, fostering collaboration, efficiency, and alignment with organizational objectives.
+Additional Details:
+Buyer incentives in agricultural procurement, especially within global food and consumer goods companies, are driven by the need to encourage responsible sourcing, enhance supply chain transparency, facilitate market access for sustainable products, build long-term relationships, mitigate risks, support capacity building, ensure fair compensation, provide recognition, align with consumer demands, and strategically align with corporate values. These incentives collectively contribute to the improvement of farmers' income and the overall sustainability of the agricultural supply chain.</v>
+      </c>
+      <c r="M18" t="str" cm="1">
+        <f t="array" ref="M18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(M$10,var_columns,0))</f>
+        <v>Effective implementation of buyer incentives in procurement requires strategic alignment with organizational goals, clear definition and communication of performance metrics, utilization of advanced data management systems for real-time insights, transparent and motivating incentive structures, effective communication channels, technology integration for efficiency, compliance with legal standards, strong supplier relationship management, continuous monitoring and evaluation, and a culture of adaptability, ensuring that incentives drive supplier performance in line with evolving organizational needs and industry dynamics.</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost
+By incentivizing buyers to source from responsible and sustainable farms, businesses can potentially realize cost savings through improved supply chain efficiency and a reduction in losses from poor quality or contaminated products. It also reduces costs associated with disruptions or shutdowns due to regulatory non-compliance.
+2. Revenue 
+With the growing consumer demand for responsibly sourced and sustainable products, providing such products can boost market access and sales, thereby increasing revenue. Establishing long-term relationships with farmers can also guarantee steady supply, thus safeguarding revenue streams.
+3. Risk
+The use of buyer incentives can reduce the risk of supply chain disruptions due to environmental or social issues. By ensuring suppliers adhere to ethical and sustainable practices, businesses can mitigate reputational risks from association with exploitative labor practices or environmentally harmful activities. Additionally, aligning procurement with corporate values and strategies helps mitigate strategic risk.
+4. Sustainable Procurement:
+From a sustainable procurement standpoint, buyer incentives present opportunities to drive positive changes throughout agriculture supply chains. By aligning economic interests and environmental responsibility, these incentives enable a shift towards more sustainable and fair agricultural practices. Through this approach, businesses are not only protecting their own interests, but also contributing to broader sustainability goals, making them a key component of sustainable procurement in the sector.</v>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" ref="O18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income
+Incentives offered by buyers to source sustainably provide farmers an opportunity to increase their income. These incentives may include premium prices for sustainable products, payment for ecosystem services, grants for capacity building, and support for certification processes.
+2. Environment
+Sustainable sourcing requirements push farmers to adopt environmentally friendly practices which can lead to improved soil health, reduced water and energy use, and a decrease in GHG emissions and other pollutants. Engaging in such practices not only helps protect the environment for future generations but can also improve the long-term yield and resilience of the farms.</v>
+      </c>
+      <c r="P18" t="str" cm="1">
+        <f t="array" ref="P18">INDEX(proc_practices,'Background calcs'!$M11,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective
+Risks:
+Increased Costs: Overly generous buyer incentives may result in increased procurement costs, impacting the overall budget.
+Dependency on Incentives: Suppliers may become overly dependent on incentives, potentially affecting their motivation to consistently deliver high-quality products or services.
+Complexity in Administration: Managing and administering a variety of incentive programs can introduce administrative complexities and increase workload.
+Trade-offs:
+Cost Savings vs. Supplier Quality: Buyers may face the trade-off between achieving cost savings through incentives and ensuring the quality of goods or services provided by suppliers. Striking the right balance is crucial to avoid compromising quality in pursuit of lower costs.
+Short-Term vs. Long-Term Supplier Commitment: Offering immediate incentives may encourage short-term supplier commitments, but buyers may need to weigh the trade-off between short-term gains and fostering long-term, sustainable relationships with suppliers.
+Flexibility vs. Standardization: Buyers might offer flexible incentives to encourage supplier adaptability, but this may conflict with the standardization of procurement processes. Balancing flexibility and standardization is essential for optimizing buyer incentives.
+Risk Mitigation vs. Cost Reduction: Buyers may incentivize suppliers to mitigate risks, but this can come at a cost. Deciding between risk mitigation incentives and cost reduction requires a careful assessment of the balance between risk management and financial considerations.
+2. Supplier Perspective
+Risks:
+Unrealistic Expectations: Suppliers might face challenges in meeting stringent incentive criteria, leading to potential strain on the supplier-buyer relationship.
+Financial Dependency: Overreliance on incentives as a significant revenue source may make suppliers financially dependent on the buyer.
+Potential Profit Margins Impact: Buyers pressing for larger incentives may impact supplier profit margins, affecting their overall financial stability.
+Trade-offs:
+Profit Margins vs. Performance Metrics: Suppliers may face the trade-off between maximizing profit margins and meeting performance metrics set by buyers for incentive eligibility. Striking the right balance is crucial for suppliers to maintain profitability while fulfilling buyer expectations.
+Market Presence vs. Exclusive Partnerships: Suppliers may weigh the benefits of broader market presence against the exclusivity associated with incentives tied to exclusive partnerships. Deciding between these options involves considering the trade-off between market reach and focused collaboration.
+Innovation vs. Cost Control: Buyers may incentivize suppliers for innovation, but this may involve higher costs. Suppliers need to balance the potential for innovation with the need to control costs and maintain competitive pricing.
+Short-Term Gains vs. Long-Term Investments: Suppliers may decide between maximizing short-term gains through incentives and making long-term investments in capabilities or technologies. Balancing immediate financial benefits with strategic, long-term investments is a crucial trade-off.</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="55" t="str">
+        <f>'Background calcs'!L12</f>
+        <v xml:space="preserve">Shorter Payment Periods
+</v>
+      </c>
+      <c r="D19" s="31">
+        <f>'Background calcs'!K12</f>
+        <v>22</v>
+      </c>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31" cm="1">
+        <f t="array" ref="F19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(F$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="31" cm="1">
+        <f t="array" ref="G19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(G$10,var_columns,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="31" cm="1">
+        <f t="array" ref="H19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(H$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="I19" s="31" cm="1">
+        <f t="array" ref="I19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(I$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="31" cm="1">
+        <f t="array" ref="J19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(J$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L19" t="str" cm="1">
+        <f t="array" ref="L19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(L$10,var_columns,0))</f>
+        <v>Definition: 
+Shorter Payment Periods in procurement refer to a financial arrangement where buyers expedite the disbursement of funds to suppliers within a reduced timeframe, promoting prompt and timely payment for goods or services rendered.
+Additional Detail:
+Implementing Shorter Payment Periods in procurement centers around enhancing liquidity and working capital for farmers, ensuring operational continuity, reducing financial stress, facilitating prompt investment opportunities, building trust in relationships, empowering farmers in negotiations, encouraging sustainable practices, promoting adaptability to market trends, contributing to financial inclusion, and providing a competitive advantage for buyers. Reducing payment terms from 120 days to 60 days provides farmers with improved liquidity and working capital, enabling them to efficiently cover operational expenses, make timely investments, and enhance their financial stability. These practices collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
+      </c>
+      <c r="M19" t="str" cm="1">
+        <f t="array" ref="M19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(M$10,var_columns,0))</f>
+        <v>To successfully enable and implement Shorter Payment Periods, a procurement organization should ensure financial readiness, implement efficient invoice processing systems, establish transparent communication channels, define clear contractual agreements, cultivate strong supplier relationships, develop risk management strategies, comply with legal and regulatory standards, invest in advanced technological infrastructure, assess supplier readiness, and encourage internal collaboration, creating a conducive environment for prompt and mutually beneficial financial transactions.</v>
+      </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" ref="N19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective 
+Shorter payment periods can increase administrative costs due to more frequent payment processing. However, timely payments can strengthen supplier relationships, potentially leading to better pricing and cost savings in the long run.
+2. Revenue Perspective 
+With prompt payments, suppliers are likely to give preference to such buyers, ensuring a consistent and reliable product supply. This can enhance customer satisfaction and lead to increased sales and revenue.
+3. Risk Perspective 
+Paying suppliers promptly helps mitigate risks associated with supply disruptions or poor quality products. It also reduces the risk of reputational damage associated with delayed payments or mistreatment of suppliers.
+4. Sustainable Procurement
+From a sustainable procurement standpoint, shorter payment periods can help protect suppliers/farmers, thus favoring social sustainability. These practices improve farmers' financial stability, contributing to economic sustainability, and can encourage environmentally friendly farming practices, contributing to environmental sustainability. Furthermore, they increase trust throughout the supply chain and can enhance the reputation of the business with stakeholders, including customers who increasingly demand ethical and sustainable practices. Therefore, implementing shorter payment periods can be a key part of a comprehensive sustainable procurement strategy.</v>
+      </c>
+      <c r="O19" t="str" cm="1">
+        <f t="array" ref="O19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Perspective 
+Receiving payments in a shorter period improves farmers' liquidity and working capital, enabling them to cover operational expenses timely and invest in their farms more promptly, leading to potential income increases.
+2. Environment Perspective 
+With improved liquidity, farmers can invest more in sustainable farming practices. Such practices, while often requiring an initial investment, can in the long run lead to costs savings, better environmental outcomes and potential income increases.</v>
+      </c>
+      <c r="P19" t="str" cm="1">
+        <f t="array" ref="P19">INDEX(proc_practices,'Background calcs'!$M12,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective
+Risks:
+Cash Flow Strain: Shorter payment periods may strain the buyer's cash flow, particularly if they have multiple suppliers with concurrent payment cycles.
+Supplier Relations Impact: Accelerated payments might strain relationships with certain suppliers, especially those unprepared for rapid payment turnaround.
+Potential Higher Costs: In some cases, suppliers might increase prices to compensate for the quicker payment demand.
+Trade-offs:
+Supplier Relationship vs. Cash Flow Management: Buyers may face the trade-off between maintaining strong supplier relationships through prompt payments and managing their own cash flow effectively. Striking the right balance involves timely payments while ensuring financial stability.
+Negotiating Power vs. Prompt Payments: Buyers may leverage longer payment periods for enhanced negotiating power, but this may strain relationships with suppliers. The trade-off involves using payment terms strategically while preserving positive supplier relations.
+Cost Savings vs. Supplier Satisfaction: Buyers seeking cost savings through longer payment periods may risk supplier dissatisfaction. Balancing cost-saving objectives with the need for a satisfied supplier base is essential in procurement decision-making.
+Market Competition vs. Payment Periods: Buyers navigating a competitive market may use payment terms as a differentiator, but this can impact overall costs. Striking the right balance involves aligning payment periods with market competitiveness without sacrificing profitability.
+2. Supplier Perspective
+Risks:
+Operational Strain: Suppliers may face operational strain in meeting accelerated payment deadlines, potentially impacting the quality of goods or services.
+Cash Flow Disruptions: Quicker payments might not align with suppliers' cash flow expectations, leading to financial challenges.
+Increased Costs for Compliance: Suppliers might incur additional costs to comply with accelerated payment processes.
+Trade-offs:
+Cash Flow Predictability vs. Profitability: Suppliers may prefer shorter payment periods for cash flow predictability, but this may affect overall profitability. The trade-off involves managing cash flow while ensuring a profitable business model.
+Risk Mitigation vs. Contractual Terms: Suppliers may desire shorter payment periods for risk mitigation, but this could conflict with buyer-imposed contractual terms. Balancing risk mitigation with contractual obligations involves negotiating favorable terms that align with payment expectations.
+Market Presence vs. Payment Flexibility: Suppliers may face the trade-off between expanding their market presence through longer payment terms and the flexibility offered by shorter payment periods. The decision involves assessing market dynamics and the importance of payment flexibility.
+Relationship Building vs. Payment Speed: Suppliers may prioritize relationship building with buyers through prompt payments, but this may require flexibility in payment periods. The trade-off involves managing relationships while meeting financial needs.</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="55" t="str">
+        <f>'Background calcs'!L13</f>
+        <v>Business Procurement Requirements Planning</v>
+      </c>
+      <c r="D20" s="31">
+        <f>'Background calcs'!K13</f>
+        <v>22</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31" cm="1">
+        <f t="array" ref="F20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(F$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="31" cm="1">
+        <f t="array" ref="G20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(G$10,var_columns,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="31" cm="1">
+        <f t="array" ref="H20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(H$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I20" s="31" cm="1">
+        <f t="array" ref="I20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(I$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="J20" s="31" cm="1">
+        <f t="array" ref="J20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(J$10,var_columns,0))</f>
+        <v>3.5</v>
+      </c>
+      <c r="L20" t="str" cm="1">
+        <f t="array" ref="L20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(L$10,var_columns,0))</f>
+        <v>Definition: 
+Business procurement requirements planning in a demand and specification management context refers to the strategic process of identifying, analyzing, and defining the specific needs and specifications of goods or services required by an organization to effectively inform the procurement process</v>
+      </c>
+      <c r="M20" t="str" cm="1">
+        <f t="array" ref="M20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(M$10,var_columns,0))</f>
+        <v>To implement effective Business Procurement Requirements Planning, a procurement organization should align its strategies with overall business objectives, foster collaborative stakeholder engagement, establish comprehensive data management systems, invest in technological infrastructure, ensure skilled procurement personnel, provide continuous training, maintain clear documentation and standardization, integrate supplier relations, implement effective risk management, foster flexibility and adaptability, and establish performance metrics for continuous improvement.</v>
+      </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" ref="N20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective
+Optimized Resource Allocation: Business procurement requirements planning allows for the optimization of resources by aligning procurement needs with organizational demands, reducing unnecessary costs associated with overstock or stockouts.
+Efficiency in Procurement Processes: Streamlining procurement through effective planning reduces operational costs by minimizing the time and effort spent on emergency or unplanned purchases.
+2. Revenue Perspective
+Demand Alignment: Aligning procurement with demand ensures timely availability of goods and materials, supporting uninterrupted production and potentially increasing revenue through improved product delivery timelines.
+Market Responsiveness: The ability to swiftly respond to changing market demands, facilitated by effective procurement planning, can contribute to increased market share and revenue.
+3. Risk Perspective
+Supply Chain Resilience: Procurement requirements planning enhances supply chain resilience by anticipating and mitigating potential disruptions, reducing the risk of stockouts, delays, or other supply chain issues.
+Risk Mitigation Strategies: Planning allows businesses to implement risk mitigation strategies, such as identifying alternative suppliers or establishing safety stock, reducing vulnerability to supply chain risks.
+4. Sustainable Procurement Perspective
+Ethical Sourcing: Integrating ethical considerations into procurement planning, such as fair labor practices and environmentally friendly sourcing, aligns with sustainable procurement goals, contributing to the organization's reputation and long-term viability.
+Reduced Environmental Impact: Planning for sustainable sourcing and production methods minimizes the environmental impact of procurement activities, supporting the organization's commitment to environmental stewardship.</v>
+      </c>
+      <c r="O20" t="str" cm="1">
+        <f t="array" ref="O20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Perspective
+Market Access and Fair Pricing: Business procurement requirements planning ensures that farmers are informed about the demand for their produce. This can lead to increased market access, allowing farmers to sell their products at fair prices, contributing to improved income.
+Efficient Resource Utilization: Farmers can plan their production based on the anticipated demand, optimizing resource allocation and reducing wastage, ultimately enhancing their profitability.
+2. Environment Perspective
+Sustainable Agricultural Practices: Integrated planning encourages farmers to adopt sustainable agricultural practices, aligning production with environmental considerations. This may involve optimizing water usage, reducing chemical inputs, and promoting biodiversity, contributing to a more sustainable farming ecosystem.
+Reduced Environmental Impact: By aligning production with demand, farmers can minimize overproduction and reduce food waste, leading to a lower environmental impact associated with unnecessary resource consumption and disposal.</v>
+      </c>
+      <c r="P20" t="str" cm="1">
+        <f t="array" ref="P20">INDEX(proc_practices,'Background calcs'!$M13,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective:
+Risks:
+Misalignment with Business Objectives: Inadequate alignment of procurement requirements planning with overall business objectives may lead to inefficiencies and missed opportunities.
+Increased Lead Times: Overly complex planning processes might result in increased lead times, affecting the organization's ability to respond quickly to market changes.
+Supplier Relationship Strain: Excessive demands in procurement requirements planning may strain relationships with suppliers, potentially impacting collaboration and service levels.
+Trade-offs:
+Cost Efficiency vs. Quality Requirements: Buyers may face the trade-off between achieving cost efficiency in procurement requirements planning and ensuring stringent quality standards. Striking the right balance involves optimizing costs without compromising the quality of goods or services.
+Flexibility vs. Standardization: Buyers may desire flexibility in procurement requirements to adapt to changing market conditions, but this must be balanced against the benefits of standardization for efficiency. The challenge involves maintaining adaptability while establishing standardized processes.
+Lead Time vs. Urgency: Buyers setting procurement requirements may need to balance lead times for planning with the urgency of meeting immediate needs. The trade-off involves planning ahead while addressing time-sensitive procurement requirements.
+Innovation vs. Compliance: Buyers may seek innovative solutions in procurement but must balance this with compliance to regulatory and organizational requirements. The challenge is to foster innovation while ensuring adherence to necessary standards.
+2. Supplier Perspective
+Risks:
+Unclear Requirements: Ambiguous or changing requirements may lead to misunderstandings, causing suppliers to deliver products or services that do not meet buyer expectations.
+Increased Costs: If procurement requirements planning is too stringent, suppliers may face higher production or service delivery costs, potentially impacting pricing agreements.
+Limited Innovation Opportunities: Rigorous planning may limit opportunities for suppliers to showcase innovative solutions, hindering mutual growth.
+Trade-offs:
+Consistency vs. Varied Offerings: Suppliers may face the trade-off between consistency in meeting buyer requirements and offering varied products or services. Striking the right balance involves fulfilling standard requirements while showcasing diverse offerings.
+Long-Term Contracts vs. Market Volatility: Suppliers may desire long-term contracts for stability, but this could conflict with the volatility of market conditions. The challenge is to secure stable contracts while adapting to market dynamics.
+Compliance vs. Innovation Investments: Suppliers may need to allocate resources for compliance with buyer requirements, and this must be balanced against investments in innovation. The trade-off involves managing compliance costs while fostering a culture of innovation.
+Customization vs. Standardization: Suppliers may desire customization in meeting buyer requirements, but this must be balanced against the benefits of standardization for efficient production. The challenge involves tailoring solutions while maintaining operational efficiency.</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="55" t="str">
+        <f>'Background calcs'!L14</f>
+        <v>Supplier Sustainability Assessment</v>
+      </c>
+      <c r="D21" s="31">
+        <f>'Background calcs'!K14</f>
+        <v>22</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31" cm="1">
+        <f t="array" ref="F21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(F$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G21" s="31" cm="1">
+        <f t="array" ref="G21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(G$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="31" cm="1">
+        <f t="array" ref="H21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(H$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I21" s="31" cm="1">
+        <f t="array" ref="I21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(I$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="31" cm="1">
+        <f t="array" ref="J21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(J$10,var_columns,0))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L21" t="str" cm="1">
+        <f t="array" ref="L21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(L$10,var_columns,0))</f>
+        <v xml:space="preserve">Definition: 
+The evaluation and measurement of a supplier's environmental, social, and economic practices to ensure alignment with sustainable and responsible business principles.
+Additional Details:
+Evaluating stakeholers within the agri-food supply chain based on their environmental performance is crucial in the context of procuring agri-food commodities. This includes assessing suppliers' environmental practices and adherence to environmental regulations. Examples of the environmental aspects to be considered include contribution to GHG emissions, deforestation, erosion, natural resources depletion, decreased biodiversity, etc.  </v>
+      </c>
+      <c r="M21" t="str" cm="1">
+        <f t="array" ref="M21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(M$10,var_columns,0))</f>
+        <v>Enabling conditions for supplier sustainability assessment in a procurement organization include:
+Clear Sustainability Criteria: Establish well-defined and comprehensive sustainability criteria that cover environmental, social, and economic aspects, providing a clear framework for supplier assessments.
+Clear Sustainability Criteria: Establish well-defined and comprehensive sustainability criteria that cover environmental, social, and economic aspects, providing a clear framework for supplier assessments.
+Collaborative Standards: Engage with industry organizations, NGOs, or sustainability initiatives to leverage established standards and frameworks for supplier sustainability, ensuring alignment with recognized best practices.
+Data Transparency: Encourage suppliers to provide transparent and accurate data on their sustainability practices, facilitating a more thorough and reliable assessment process.
+Capacity Building Support: Offer training programs and resources to suppliers, enabling them to enhance their sustainability practices and meet the criteria set by the procurement organization.
+Supply Chain Mapping: Implement supply chain mapping tools to gain visibility into the entire supply chain, allowing for a more comprehensive assessment of the environmental and social impacts associated with suppliers.
+Risk Mitigation Strategies: Develop strategies to address identified sustainability risks within the supply chain, incorporating contingency plans and collaborative initiatives with suppliers to mitigate potential issues.
+Continuous Monitoring: Implement ongoing monitoring mechanisms to track supplier sustainability performance over time, allowing for the identification of trends, areas for improvement, and recognition of exemplary practices.
+Internal Accountability: Establish internal mechanisms and responsibilities within the procurement organization to ensure accountability for sustainability assessments, fostering a culture of commitment to responsible sourcing.
+Supplier Feedback Loops: Create channels for open communication and feedback between procurement organizations and suppliers, encouraging a collaborative approach to sustainability improvement.
+Technology Integration: Utilize advanced technologies, such as blockchain or digital platforms, to enhance transparency, traceability, and the efficiency of supplier sustainability assessments.
+Diversity and Inclusion: Integrate diversity and inclusion criteria into supplier assessments, considering social aspects such as fair labor practices, gender equality, and community engagement.
+Benchmarking and Recognition: Implement benchmarking mechanisms to compare supplier sustainability performance within the industry and recognize and reward top-performing suppliers.
+Performance Incentives: Establish incentive structures that motivate suppliers to go beyond compliance and excel in sustainability, offering recognition, preferential treatment, or collaborative opportunities for high-performing suppliers.
+Third-Party Verification: Consider engaging third-party organizations or auditors to verify and validate supplier sustainability claims, enhancing the credibility and reliability of the assessment process.
+These additional conditions contribute to a more nuanced and comprehensive approach to supplier sustainability assessment within procurement organizations.
+Collaborative Standards: Engage with industry organizations, NGOs, or sustainability initiatives to lever</v>
+      </c>
+      <c r="N21" t="str" cm="1">
+        <f t="array" ref="N21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective:
+Operational Efficiency: A supplier sustainability assessment enables agri-food companies to identify and work with suppliers that align with sustainability goals. This leads to operational efficiency by reducing the environmental and social impacts associated with the supply chain, resulting in cost savings over time.
+Risk Mitigation: Assessing supplier sustainability helps mitigate risks associated with disruptions in the supply chain. By identifying and addressing potential environmental and social issues, companies can avoid costly disruptions and associated financial losses.
+2. Revenue Perspective:
+Market Access and Premium Pricing: Agri-food companies with a strong focus on supplier sustainability can use this as a marketing tool. Access to markets that prioritize sustainable sourcing can lead to increased sales and premium pricing, contributing to higher revenue.
+Consumer Trust and Loyalty: Consumers are increasingly conscious of the environmental and social impact of the products they purchase. A commitment to supplier sustainability builds trust and loyalty among consumers, potentially expanding the customer base.
+3. Risk Perspective:
+Regulatory Compliance: Supplier sustainability assessments ensure compliance with evolving environmental and social regulations. This reduces the risk of legal consequences and associated financial penalties, safeguarding the company's reputation and financial stability.
+Reputation Management: By selecting suppliers with strong sustainability practices, agri-food companies can mitigate reputational risks associated with unethical or environmentally harmful practices in the supply chain.
+4. Link to Procurement Organizations:
+The adoption of a supplier sustainability assessment directly links to procurement organizations by placing responsibility on them to evaluate and select suppliers based on sustainability criteria. Procurement teams play a vital role in ensuring that the entire supply chain aligns with the company's sustainability goals.</v>
+      </c>
+      <c r="O21" t="str" cm="1">
+        <f t="array" ref="O21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(O$10,var_columns,0))</f>
+        <v xml:space="preserve">1. Environmental Perspective:
+Promotion of Sustainable Farming Practices: Supplier sustainability assessments encourage farmers to adopt sustainable practices to meet the criteria set by agri-food companies. This leads to environmental benefits such as reduced pesticide use, soil conservation, and biodiversity preservation.
+Climate Resilience: Aligning with sustainable farming practices contributes to climate resilience, reducing environmental risks associated with extreme weather events and fostering long-term sustainability.
+2. Income Perspective:
+Access to Premium Markets: Farmers adhering to sustainability criteria in supplier assessments gain access to markets that prioritize sustainable sourcing. This can result in premium pricing for their products, contributing to increased income and improved profitability.
+Cost Savings: Sustainable farming practices promoted by supplier sustainability assessments often lead to cost savings over time. This includes efficient resource use, reduced input costs, and increased overall efficiency.
+3. Risk Perspective:
+Market Viability: Supplier sustainability assessments ensure that farmers align with market expectations for environmentally and socially responsible practices. This enhances the market viability of their products, reducing the risk of market exclusion or loss of business opportunities.
+Long-Term Viability: By meeting sustainability criteria, farmers contribute to their own long-term viability. This includes securing market access, adapting to changing consumer preferences, and reducing vulnerability to environmental risks.
+4. Link to Procurement Organizations:
+For farmers, the link to procurement organizations lies in their ability to meet the sustainability criteria set by agri-food companies. Procurement organizations play a central role in establishing and communicating these criteria, shaping the practices and behaviors of the farmers within the supply chain. This ensures that the entire supply chain, from farmers to end consumers, adheres to sustainability principles.
+</v>
+      </c>
+      <c r="P21" t="str" cm="1">
+        <f t="array" ref="P21">INDEX(proc_practices,'Background calcs'!$M14,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective:
+Risks:
+Supply Chain Disruption: To mitigate disruption risks, buyers should strategically diversify their supplier base, balancing sustainability criteria with the need for a resilient and varied supply chain.
+Increased Costs: Buyers can negotiate with suppliers, emphasizing cost-effectiveness while encouraging sustainable practices to manage procurement expenses effectively.
+Limited Supplier Innovation: Buyers should actively engage with smaller suppliers, fostering innovation by providing support and guidance to help them meet sustainability criteria.
+Trade-offs:
+Cost vs. Sustainability: Buyers must strategically navigate the trade-off, making informed compromises to achieve both financial and environmental goals without compromising overall sustainability objectives.
+Supplier Diversity vs. Sustainability: Achieving a balance between sustainability and supplier diversity requires careful consideration, especially in regions or industries where meeting sustainability standards may be challenging.
+Time-to-Market vs. Sustainability: Buyers need to find a balance between selecting sustainable suppliers and meeting time-to-market goals, ensuring that sustainability efforts do not unduly extend procurement timelines.
+2. Supplier Perspective:
+Risks:
+Financial Strain: Suppliers can manage financial strain by seeking collaborative partnerships with buyers, exploring cost-sharing models for sustainable investments to alleviate potential economic burdens.
+Competitive Disadvantage: Suppliers with lower sustainability scores should focus on improving practices to avoid losing business opportunities, highlighting the value of sustainable offerings to remain competitive.
+Compliance Challenges: Suppliers facing compliance challenges should engage with buyers to streamline diverse sustainability standards, ensuring a more manageable and efficient adherence process.
+Trade-offs:
+Cost vs. Sustainability: Suppliers must strategically balance the trade-off, seeking innovative and cost-effective solutions to implement sustainable practices without compromising competitiveness.
+Innovation vs. Compliance: Suppliers can navigate the trade-off by integrating sustainability into their innovation agenda, demonstrating that both innovation and compliance can coexist harmoniously.
+Market Access vs. Sustainability: Suppliers targeting international markets must weigh the benefits of market access against the costs of adapting to sustainability requirements, aligning their strategies with evolving global standards.</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="55" t="str">
+        <f>'Background calcs'!L15</f>
+        <v>Direct Cash Incentives</v>
+      </c>
+      <c r="D22" s="31">
+        <f>'Background calcs'!K15</f>
+        <v>21</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31" cm="1">
+        <f t="array" ref="F22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(F$10,var_columns,0))</f>
+        <v>5</v>
+      </c>
+      <c r="G22" s="31" cm="1">
+        <f t="array" ref="G22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(G$10,var_columns,0))</f>
+        <v>1</v>
+      </c>
+      <c r="H22" s="31" cm="1">
+        <f t="array" ref="H22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(H$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I22" s="31" cm="1">
+        <f t="array" ref="I22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(I$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J22" s="31" cm="1">
+        <f t="array" ref="J22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(J$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="L22" t="str" cm="1">
+        <f t="array" ref="L22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(L$10,var_columns,0))</f>
+        <v>Definition:
+Direct Cash Incentives in procurement refer to monetary rewards provided by a buyer to suppliers as a form of incentive for achieving specific performance objectives or for contributing to cost savings and efficiency improvements in the procurement process
+Additional Detail:
+Implementing Direct Cash Incentives in procurement is grounded in addressing immediate financial needs, enhancing financial flexibility, promoting gender equality, building resilient households, encouraging responsible financial management, supporting education and skill development, improving health and well-being, empowering smallholder farmers, stimulating local economies, and catalyzing sustainable agricultural practices. These interventions collectively contribute to the improvement of farmers' income and the overall well-being of cocoa-farming families.</v>
+      </c>
+      <c r="M22" t="str" cm="1">
+        <f t="array" ref="M22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(M$10,var_columns,0))</f>
+        <v>To effectively implement Direct Cash Incentives in procurement, prerequisites include establishing clear performance metrics, designing a transparent incentive structure, developing effective communication channels, fostering supplier collaboration, investing in data analytics capabilities, ensuring financial stability and legal compliance, establishing robust performance monitoring systems, incorporating flexibility in incentive criteria, and securing alignment from internal stakeholders. This systematic approach creates a conducive environment for successful cash incentive programs, driving supplier motivation and performance improvement in procurement processes.</v>
+      </c>
+      <c r="N22" t="str" cm="1">
+        <f t="array" ref="N22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective 
+Direct cash incentives can foster more effective and sustainable farming practices in the long term, which could lead to a more predictable and quality supply, reducing costs. Furthermore, building resilient households and local economies can create a more stable and dependable supply chain.
+2. Revenue Perspective 
+Direct cash incentives can enhance the brand's reputation through Corporate Social Responsibility (CSR) activities, attracting more customers and potentially increasing revenue. These incentives can also secure supply lines, ensuring continuity in production, and thereby safeguarding revenue.
+3. Risk Perspective 
+By providing direct cash incentives, businesses can alleviate farmer hardships, thus mitigating the risk of supply disruptions. It also reduces reputational risks, as such incentives demonstrate strong corporate citizenship.
+4. Sustainable Procurement
+From a sustainable procurement standpoint, direct cash incentives provide immediate economic benefit and can support longer-term social and environmental sustainability. These incentives can help to empower smallholder farmers, promote gender equality, and catalyze sustainable agricultural practices. Also, by offering incentives that support education, health, and responsible financial management, businesses contribute to the overall well-being and resilience of farming communities. Hence, direct cash incentives can be seen as an investment in the sustainability of the supply chain. By ensuring the suppliers at the base of the supply chain are economically stable and practicing sustainable farming, the entire supply chain becomes more resilient and sustainable.</v>
+      </c>
+      <c r="O22" t="str" cm="1">
+        <f t="array" ref="O22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Perspective
+The direct cash incentives provide immediate financial relief to farmers, enhancing their financial flexibility. Households can use this money to support education and skill development, potentially leading to long-term income increases.
+2. Environment Perspective 
+These incentives can be used to stimulate adoption of sustainable agricultural practices. When farmers use the extra income to invest in sustainable farming equipment or techniques, it can lead to significant environmental benefits.</v>
+      </c>
+      <c r="P22" t="str" cm="1">
+        <f t="array" ref="P22">INDEX(proc_practices,'Background calcs'!$M15,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective
+Risks:
+Financial Strain: Implementing cash incentives may strain the buyer's budget, especially if multiple suppliers are eligible simultaneously.
+Dependency on Incentives: Suppliers might become dependent on cash incentives, potentially affecting their motivation without continuous rewards.
+Unintended Behaviors: There's a risk that suppliers may focus solely on incentive-driven metrics, neglecting other critical aspects of the procurement process.
+Trade-offs:
+Cost Efficiency vs. Incentive Spending: Buyers may face the trade-off between achieving cost efficiency and allocating budget for direct cash incentives. Striking the right balance involves optimizing incentive spending without compromising overall cost-effectiveness.
+Short-Term Performance vs. Long-Term Relationships: Buyers offering direct cash incentives for short-term performance goals may need to balance this with the desire to build long-term relationships with suppliers. The trade-off involves aligning short-term goals with broader relationship-building objectives.
+Customization vs. Standardization: Buyers must decide between customizing cash incentives for individual suppliers and standardizing incentive structures for simplicity. Striking the right balance involves tailoring incentives while maintaining a level of standardization for clarity.
+Risk Mitigation vs. Supplier Satisfaction: Buyers may use direct cash incentives for risk mitigation, but this could impact overall supplier satisfaction. Balancing risk management with fostering a positive working relationship is essential.
+2. Supplier Perspective
+Risks:
+Financial Dependency: Suppliers may face financial dependency on cash incentives, impacting their overall stability.
+Competitive Disadvantage: Suppliers not eligible for incentives may perceive a competitive disadvantage, affecting relationships with the buyer.
+Risk of Unfair Evaluation: Suppliers may feel unfairly evaluated if incentive criteria are not communicated clearly or if changes are made without notice.
+Trade-offs:
+Profitability vs. Performance: Suppliers may face the trade-off between maximizing profitability and meeting performance metrics to earn direct cash incentives. The challenge is to balance the desire for profit with the commitment to achieving performance targets.
+Resource Allocation vs. Incentive Earning: Suppliers may need to allocate resources effectively to meet performance targets, but this must be balanced against the potential for earning direct cash incentives. The trade-off involves optimizing resource allocation for both performance and financial gains.
+Market Dependency vs. Incentive Structure: Suppliers relying heavily on buyer-provided cash incentives may face market dependency. The challenge involves managing this dependency while aligning with the incentive structure provided by buyers.
+Sustainability Investments vs. Cash Flow: Suppliers may desire to invest in sustainability practices, but the immediate cash flow needs might conflict with these investments. Striking a balance involves managing sustainability commitments alongside financial considerations.</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="55" t="str">
+        <f>'Background calcs'!L16</f>
+        <v>Supporting Agroforestry</v>
+      </c>
+      <c r="D23" s="31">
+        <f>'Background calcs'!K16</f>
+        <v>21</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" cm="1">
+        <f t="array" ref="F23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(F$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="G23" s="31" cm="1">
+        <f t="array" ref="G23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(G$10,var_columns,0))</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="31" cm="1">
+        <f t="array" ref="H23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(H$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="31" cm="1">
+        <f t="array" ref="I23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(I$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="31" cm="1">
+        <f t="array" ref="J23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(J$10,var_columns,0))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L23" t="str" cm="1">
+        <f t="array" ref="L23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(L$10,var_columns,0))</f>
+        <v>Definition:
+The integration of trees and shrubs into agricultural landscapes, combining the simultaneous cultivation of crops, livestock, or other agricultural products, to enhance ecological sustainability, resource efficiency, and diversified procurement offerings.
+Additional details: 
+Integration of trees and crops: agroforestry involves the intentional Integration of trees and shrubs into agricultural systems. This not only provides additional income sources for farmers but also creates diverse habitats for birds, insects, and other wildlife.
+Windbreaks and riparian buffers: planting trees along field edges as Windbreaks or along water bodies as riparian buffers can prevent soil erosion, improve water quality, and provide habitat for a variety of species.</v>
+      </c>
+      <c r="M23" t="str" cm="1">
+        <f t="array" ref="M23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(M$10,var_columns,0))</f>
+        <v xml:space="preserve">1. Enabling Conditions for Agroforestry in a Procurement Organization:
+Sustainable Sourcing Policies: Development of procurement policies that promote the inclusion of agroforestry products and support suppliers engaging in agroforestry practices.
+Educational Initiatives: Implementation of educational programs for procurement professionals to enhance their understanding of agroforestry benefits and promote the inclusion of agroforestry in sourcing strategies.
+Supplier Collaboration: Collaboration with suppliers committed to agroforestry, fostering partnerships and encouraging the adoption of agroforestry practices within the supply chain.
+Certification Standards: Utilization or establishment of certification standards that recognize and verify agroforestry practices, ensuring authenticity and compliance in the procurement process.
+Long-Term Contracts: Consideration of long-term contracts with suppliers practicing agroforestry to promote stability and incentivize continued commitment to sustainable practices.
+2. Enabling Conditions for Agroforestry on a Farm Level:
+Land-Use Planning: Development of comprehensive land-use plans that integrate agroforestry components, considering the placement of trees and shrubs within the overall farming system.
+Technical Support: Access to technical support and extension services to assist farmers in implementing agroforestry practices, optimizing tree-crop interactions, and addressing challenges.
+Financial Incentives: Provision of financial incentives or favorable payment terms for farmers adopting agroforestry, supporting their financial viability during the transition.
+Access to Tree Species: Availability of diverse and appropriate tree species for agroforestry, enabling farmers to select trees that complement their specific crops and enhance overall farm productivity.
+Community Engagement: Engagement with local communities and agricultural extension services to raise awareness of agroforestry benefits, build support, and encourage the adoption of these practices.
+For both procurement organizations and farms, successful implementation of agroforestry requires a commitment to sustainable practices, collaborative relationships, ongoing education, and the integration of agroforestry principles into the core of farming and procurement strategies.
+</v>
+      </c>
+      <c r="N23" t="str" cm="1">
+        <f t="array" ref="N23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective:
+Diversification of Products: Agroforestry allows agri-food companies to diversify their product offerings by incorporating tree crops alongside traditional crops. This diversification can lead to cost savings and increased operational efficiency.
+Erosion Prevention: The use of agroforestry practices helps prevent soil erosion, reducing the risk of land degradation and associated costs for soil conservation.
+2. Revenue Perspective:
+Market Differentiation: Agroforestry practices contribute to market differentiation by promoting sustainable and environmentally friendly agricultural methods. This can attract environmentally conscious consumers and potentially lead to increased revenue.
+Value-Added Products: Tree crops from agroforestry systems can be processed into value-added products, providing additional revenue streams for agri-food companies.
+3. Risk Perspective:
+Climate Resilience: Agroforestry systems enhance climate resilience by providing a buffer against extreme weather events, such as wind and water erosion. This contributes to the overall resilience of the supply chain to climate-related risks.
+Supply Chain Resilience: Diversification through agroforestry reduces the risk of supply chain disruptions by offering a variety of crops that may be more resilient to pests, diseases, or climate variations.
+4. Link to Procurement Organizations:
+The use of agroforestry practices links back to procurement organizations as they play a role in sourcing products from various suppliers. Procurement teams can set criteria encouraging suppliers to adopt agroforestry practices, ensuring that the entire supply chain aligns with sustainability and agroforestry goals.</v>
+      </c>
+      <c r="O23" t="str" cm="1">
+        <f t="array" ref="O23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(O$10,var_columns,0))</f>
+        <v>1. Environmental Perspective:
+Biodiversity Preservation: Agroforestry promotes biodiversity by integrating trees, shrubs, and crops. This creates a more diverse and resilient ecosystem compared to conventional monoculture.
+Soil Health: Agroforestry helps improve soil health by reducing erosion, enhancing nutrient cycling, and promoting microbial diversity.
+2. Income Perspective:
+Diversified Income Streams: Agroforestry provides farmers with multiple income streams from tree crops, traditional crops, and potentially non-timber forest products. This diversification helps stabilize income and reduce dependence on a single crop.
+Long-Term Income Stability: Trees in agroforestry systems, once established, can provide a long-term and sustainable source of income for farmers, contributing to economic stability.
+3. Risk Perspective:
+Climate Resilience: Agroforestry systems enhance the resilience of farming operations to climate-related risks by providing shade, windbreaks, and reducing the impact of extreme weather events.
+Reduced Pest Pressure: Diverse agroforestry systems can disrupt pest life cycles and reduce the risk of pest outbreaks, contributing to more stable and predictable farming conditions.
+4. Link to Procurement Organizations:
+For farmers, procurement organizations are essential in providing access to markets and resources. By supporting and incentivizing the adoption of agroforestry practices, procurement organizations contribute to the sustainability and resilience of their suppliers. This integration ensures that the choices made at the procurement level align with environmental and sustainability goals, influencing the practices of farmers in the supply chain.</v>
+      </c>
+      <c r="P23" t="str" cm="1">
+        <f t="array" ref="P23">INDEX(proc_practices,'Background calcs'!$M16,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective:
+Risks:
+Supply Chain Complexity: Buyers must address potential challenges in logistics, quality control, and traceability introduced by agroforestry integration, implementing strategies to streamline the supply chain.
+Variable Crop Yields: Buyers need to manage uncertainties in meeting consistent procurement demands resulting from variable crop yields in agroforestry systems, implementing strategies for demand forecasting and inventory management.
+Certification Challenges: Buyers should establish robust monitoring and verification processes to address challenges in ensuring adherence to agroforestry certification standards, maintaining credibility in sustainable sourcing.
+Trade-offs:
+Cost vs. Sustainability: Buyers should strategically balance potential cost implications of agroforestry with the desire to support sustainable and environmentally friendly sourcing practices, making procurement decisions that align with sustainability goals.
+Consistency vs. Diversity: Striking a balance between ensuring a consistent supply from traditional sources and offering the diversity of products from agroforestry systems requires trade-offs, necessitating buyers to find an optimal mix that meets both stability and variety.
+2. Supplier Perspective:
+Risks:
+Initial Investment: Suppliers adopting agroforestry practices must address the financial challenges associated with initial investments in tree planting and farm restructuring, implementing financial planning strategies.
+Longer Time to Production: Suppliers need to manage the delay in income associated with the longer time to production in agroforestry systems, making strategic decisions to balance short-term financial needs with long-term benefits.
+Market Access Challenges: Suppliers engaging in agroforestry may face challenges in accessing markets that prioritize traditional, monoculture products, necessitating strategic decisions to overcome barriers and establish market presence.
+Trade-offs:
+Income Delay vs. Long-Term Benefits: Suppliers must balance the delay in income associated with agroforestry against the long-term benefits, including diversified revenue streams and enhanced sustainability, making decisions that align with their financial goals and long-term vision.
+Traditional vs. Agroforestry Practices: Suppliers may face trade-offs between traditional farming practices and the adoption of agroforestry, weighing the potential benefits against the challenges, requiring a thoughtful and strategic approach to implementation.
+Market Access vs. Agroforestry Adoption: Deciding on the extent to which suppliers want to engage with markets that value agroforestry products and balancing it with traditional market access involves trade-offs, requiring a careful evaluation of market dynamics and supplier priorities.</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="55" t="str">
+        <f>'Background calcs'!L17</f>
+        <v>Payment Management &amp; Procurement Risk Mangement</v>
+      </c>
+      <c r="D24" s="31">
+        <f>'Background calcs'!K17</f>
+        <v>20</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31" cm="1">
+        <f t="array" ref="F24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(F$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G24" s="31" cm="1">
+        <f t="array" ref="G24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(G$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="31" cm="1">
+        <f t="array" ref="H24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(H$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="I24" s="31" cm="1">
+        <f t="array" ref="I24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(I$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="31" cm="1">
+        <f t="array" ref="J24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(J$10,var_columns,0))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L24" t="str" cm="1">
+        <f t="array" ref="L24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(L$10,var_columns,0))</f>
+        <v>Definition: 
+Payment Management in procurement refers to the strategic handling and administration of financial transactions, including invoicing and disbursement, while Procurement Risk Management involves the identification, assessment, and mitigation of potential risks throughout the procurement process to ensure successful and secure acquisitions.
+Additional Details:
+Payment Management &amp; Procurement Risk Management, particularly through the implementation of an Emergency Farmer Relief Fund, centers around ensuring income stability, mitigating procurement risks, maintaining positive supply chain relationships, fostering long-term loyalty, creating community impact, preventing farmer indebtedness, promoting sustainable practices, supporting fair trade, enhancing supply chain resilience, and fulfilling corporate social responsibility. These interventions collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
+      </c>
+      <c r="M24" t="str" cm="1">
+        <f t="array" ref="M24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(M$10,var_columns,0))</f>
+        <v>To effectively implement Payment Management in procurement, organizations need robust financial systems, clear payment policies, compliance with regulations, strong vendor relationships, and the integration of automation and technology. For successful Procurement Risk Management, prerequisites include systematic risk identification mechanisms, a skilled procurement team, clear risk management policies, the use of data analytics, thorough supplier due diligence, contingency planning, regulatory compliance management, and continuous monitoring and evaluation. These elements collectively ensure financial efficiency, ethical practices, and resilience against potential risks in the procurement process.</v>
+      </c>
+      <c r="N24" t="str" cm="1">
+        <f t="array" ref="N24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective 
+Effective payment management reduces administrative costs by streamlining payment processes. Procurement risk management, through vehicles like the Emergency Farmer Relief Fund, protects businesses from supply disruptions that can lead to increased operational costs.
+2. Revenue Perspective 
+Consistent reliable payments and the provision of support during emergencies foster long-term loyalty, reducing supplier turnover and maintaining supply chains, thereby increasing revenue stability. Corporate social responsibility initiatives contribute to enhanced company reputation, which can bolster consumer support and ultimately drive revenue growth.
+3. Risk Perspective 
+Robust payment management reduces the risk of financial discrepancies while procurement risk management helps businesses anticipate, plan for, and mitigate sourcing disruptions. The combination leads to an overall risk reduction in terms of financial viability and operational stability.
+4. Sustainable Procurement
+From a sustainable procurement perspective, effective payment management, and procurement risk management ensures economic sustainability for farmers and businesses alike. It helps to build resilience within supply chains, with practices such as the Emergency Farmer Relief Fund providing economic support in times of hardship. Such interventions also promote environmentally sustainable practices by supporting the financial stability of farmers who may use sustainable farming methods. These initiatives contribute to the overall sustainability of agricultural supply chains by committing to fair trade, supporting community impact, and fulfilling corporate social responsibilities.</v>
+      </c>
+      <c r="O24" t="str" cm="1">
+        <f t="array" ref="O24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Perspective 
+Consistent, well-managed payments ensure income stability for farmers, even in times of crisis. The Emergency Farmer Relief Fund serves as a financial safety net, preventing indebtedness and providing a buffer during unexpected hardships, ultimately protecting farmers' income.
+2. Environment Perspective 
+Payment management and risk mitigation strategies that include incentives for sustainability can lead to improved environmental outcomes. Such interventions encourage and provide for sustainable practices, thus fostering ecological resilience.</v>
+      </c>
+      <c r="P24" t="str" cm="1">
+        <f t="array" ref="P24">INDEX(proc_practices,'Background calcs'!$M17,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective Payment Management
+Risks:
+Late Payments: Delays in payments can strain buyer-supplier relationships and result in penalties or strained supplier relations.
+Financial Disputes: Incorrect invoicing or payment discrepancies may lead to financial disputes, impacting trust and collaboration.
+Vendor Reliability Concerns: Over-reliance on specific vendors for critical supplies may pose a risk if their financial stability is compromised.
+Trade-offs:
+Cash Flow Management vs. Early Payment Discounts: Buyers may face the trade-off between managing cash flow effectively and taking advantage of early payment discounts. Opting for early payments can strain cash flow, while delaying payments may forfeit discount opportunities.
+Supplier Relationship vs. Stringent Payment Terms: Buyers may need to balance building strong supplier relationships with enforcing stringent payment terms. While fostering good relationships is essential, adhering strictly to payment terms mitigates procurement risks.
+Risk Mitigation vs. Supplier Viability: Buyers may implement rigorous risk management strategies, but this could potentially impact the financial viability of certain suppliers. Balancing risk mitigation with ensuring the stability of suppliers is crucial.
+Contractual Compliance vs. Adaptability: Buyers may prioritize contractual compliance for payment management, but this might limit adaptability in dynamic markets. Striking a balance involves adhering to contracts while remaining adaptable to changing circumstances.
+2. Supplier Perspective Payment Management
+Risks:
+Cash Flow Challenges: Late payments can create cash flow challenges for suppliers, affecting their financial stability.
+Dependency on Key Buyers: Suppliers heavily dependent on specific buyers face financial vulnerability if the buyer's payment practices are inconsistent.
+Increased Administrative Burden: Dealing with complex payment processes and disputes increases the administrative burden on suppliers.
+Trade-offs:
+Market Presence vs. Financial Stability: Suppliers may trade the desire for a prominent market presence through large buyers against the financial stability achieved through timely payments.
+Competitive Partnerships vs. Reliability: Balancing the benefits of competitive partnerships with the need for reliability and stability in buyer relationships.
+3. Buyer Perspective Procurement Risk Management
+Risks:
+Supply Chain Disruptions: Unforeseen events affecting suppliers may disrupt the supply chain, leading to delays or shortages.
+Reputational Damage: Risks such as unethical supplier practices or environmental violations can damage the buyer's reputation.
+Increased Costs: Mitigating certain risks may involve additional costs, impacting the overall budget.
+Trade-offs:
+Innovation vs. Stability: Balancing the pursuit of innovative suppliers with the stability offered by established, lower-risk partners.
+Cost Efficiency vs. Risk Mitigation: Weighing the desire for cost efficiency against the need for robust risk mitigation strategies.
+4. Supplier Perspective Procurement Risk Management
+Risks:
+Overdependence on a Single Buyer: Suppliers overly reliant on a single buyer face significant risks if that buyer faces financial difficulties or changes its procurement strategy.
+Financial Impact of Compliance: Adhering to stringent compliance requirements may incur additional costs for suppliers.
+Market Access Challenges: Suppliers facing risks related to compliance or ethical concerns may experience challenges in accessing certain markets.
+Trade-offs:
+Market Presence vs. Financial Risk: Suppliers may weigh the benefits of a larger market presence through high-profile buyers against the financial risks associated with those buyers.
+Innovation Collaboration vs. Financial Stability: Considering the financial stability gained through collaborations with innovative buyers against potential risks.</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="55" t="str">
+        <f>'Background calcs'!L18</f>
+        <v>Direct Farmer Contracting Programs</v>
+      </c>
+      <c r="D25" s="31">
+        <f>'Background calcs'!K18</f>
+        <v>20</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31" cm="1">
+        <f t="array" ref="F25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(F$10,var_columns,0))</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="31" cm="1">
+        <f t="array" ref="G25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(G$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="H25" s="31" cm="1">
+        <f t="array" ref="H25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(H$10,var_columns,0))</f>
+        <v>2</v>
+      </c>
+      <c r="I25" s="31" cm="1">
+        <f t="array" ref="I25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(I$10,var_columns,0))</f>
+        <v>3</v>
+      </c>
+      <c r="J25" s="31" cm="1">
+        <f t="array" ref="J25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(J$10,var_columns,0))</f>
+        <v>2.5</v>
+      </c>
+      <c r="L25" t="str" cm="1">
+        <f t="array" ref="L25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(L$10,var_columns,0))</f>
+        <v>Definition: 
+Direct Farmer Contracting Programs in procurement involve establishing contractual agreements directly between procurement organizations and individual farmers, fostering a direct and collaborative relationship throughout the agricultural supply chain.
+Additional Details:
+Direct Farmer Contracting Programs in multinational food and consumer goods companies revolves around enhancing supply chain efficiency, ensuring quality assurance, promoting traceability and transparency, mitigating risks, facilitating fair prices, integrating sustainability, fostering long-term partnerships, enabling customization and innovation, fulfilling CSR objectives, and aligning with evolving consumer preferences. These factors collectively contribute to the improvement of farmers' income and the overall sustainability of agricultural supply chains.</v>
+      </c>
+      <c r="M25" t="str" cm="1">
+        <f t="array" ref="M25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(M$10,var_columns,0))</f>
+        <v>To effectively implement Direct Farmer Contracting Programs, a procurement organization must establish transparent communication channels, ensure legal compliance, conduct educational initiatives for farmers, integrate technology for monitoring, develop risk management strategies, establish fair pricing mechanisms, define quality standards, provide capacity-building for farmers, offer flexible contract terms, and collaborate with agricultural experts, fostering fair, transparent, and sustainable relationships in the agricultural supply chain.</v>
+      </c>
+      <c r="N25" t="str" cm="1">
+        <f t="array" ref="N25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(N$10,var_columns,0))</f>
+        <v>1. Cost Perspective 
+Direct Farmer Contracting programs can reduce costs by eliminating intermediaries and improving supply chain efficiency. This direct link with farmers can also lead to better quality control, reducing losses from substandard products and returns.
+2. Revenue Perspective 
+These contracts can enhance revenue by ensuring consistent supplies of high-quality products, attracting customers and increasing sales. Additionally, they facilitate customization and innovation based on direct feedback from farmers, providing a competitive edge.
+3. Risk Perspective 
+With direct contracts, companies can mitigate risks related to supply disruption or product quality. They also allow for greater traceability, reducing the risks associated with food safety issues or unethical practices in the supply chain.
+4. Sustainable Procurement
+From a sustainable procurement standpoint, Direct Farmer Contracting Programs enable companies to more fully integrate their commitment to sustainability throughout their supply chain. The direct relationship with farmers facilitates traceability and transparency, ensuring both social and environmental standards are met. This alignment between company values, procurement practices, and stakeholder (especially customer) expectations boosts a company's sustainability credentials. Furthermore, such direct contracting demonstrates a commitment to fair trade practices and corporate social responsibility objectives, contributing to the wider goals of economically, socially, and environmentally sustainable procurement practices.</v>
+      </c>
+      <c r="O25" t="str" cm="1">
+        <f t="array" ref="O25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(O$10,var_columns,0))</f>
+        <v>1. Income Perspective 
+Direct contracting often provides farmers with guaranteed prices, reducing uncertainties and ensuring more stable income. Also, establishing direct relationships with businesses opens up opportunities for capacity building and development, contributing to increased productivity and income.
+2. Environment Perspective 
+Direct Farmer Contracting programs can promote sustainability as companies can enforce their environmental standards directly with the farmers, encouraging and ensuring sustainable farming practices are in place.</v>
+      </c>
+      <c r="P25" t="str" cm="1">
+        <f t="array" ref="P25">INDEX(proc_practices,'Background calcs'!$M18,MATCH(P$10,var_columns,0))</f>
+        <v>1. Buyer Perspective
+Risks:
+Supply Variability: Direct contracts with individual farmers may expose buyers to supply variability influenced by weather conditions and other uncontrollable factors.
+Dependency on Localized Sources: Relying on local farmers may lead to limited geographic diversity, posing risks in the event of local disruptions.
+Contract Non-Compliance: Farmers may face challenges in meeting contract terms, leading to potential disruptions in the supply chain.
+Trade-offs:
+Supply Chain Control vs. Farmer Independence: Buyers may face the trade-off between maintaining strict control over the supply chain through direct farmer contracting and allowing farmers greater independence. Deciding on the right balance involves assessing the level of control needed versus empowering farmers.
+Quality Assurance vs. Cost Competitiveness: Buyers must balance the assurance of product quality through direct contracts with the need for cost competitiveness. Striking the right balance involves ensuring quality while remaining economically competitive in the market.
+Risk Sharing vs. Farmer Viability: Buyers may opt for risk-sharing arrangements with farmers to manage uncertainties, but this must be balanced against ensuring the financial viability of individual farmers. Deciding on the level of risk sharing involves considering the economic sustainability of farmers.
+Sustainability Goals vs. Operational Efficiency: Buyers may prioritize sustainability goals in direct farmer contracting programs, but this could impact operational efficiency. Balancing sustainability objectives with the need for streamlined operations is crucial.
+2. Supplier Perspective
+Risks:
+Price Volatility: Farmers may face risks associated with price volatility in agricultural markets, impacting their income.
+Market Access Challenges: Dependence on a single buyer may limit farmers' access to other markets, reducing their bargaining power.
+Input Cost Fluctuations: Fluctuations in input costs may affect farmers' profitability, especially if contracts do not account for these variations.
+Trade-offs:
+Stable Income vs. Market Diversification: Farmers may face the trade-off between securing stable income through direct contracts and diversifying their market exposure. Striking the right balance involves managing income stability while avoiding over-reliance on a single buyer.
+Access to Resources vs. Autonomy: Farmers must decide on the trade-off between accessing resources provided by buyers in direct contracts and maintaining autonomy in their farming practices. Balancing resource support with the desire for independence is essential.
+Risk Reduction vs. Profit Potential: Farmers may opt for direct contracts to reduce production and market risks, but this may come with limitations on profit potential. Deciding on the right balance involves assessing risk tolerance and profit expectations.
+Long-Term Stability vs. Flexibility: Farmers may seek long-term stability through direct contracts, but this could limit their flexibility to adapt to changing market conditions. Finding the right balance involves considering the benefits of stability against the need for adaptability.</v>
       </c>
     </row>
   </sheetData>
@@ -6364,17 +6311,17 @@
   <dimension ref="B1:AO76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
     <col min="2" max="2" width="0.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
     <col min="4" max="4" width="44.140625" customWidth="1"/>
     <col min="13" max="15" width="15.140625" customWidth="1"/>
     <col min="16" max="18" width="17.140625" customWidth="1"/>
@@ -6508,13 +6455,13 @@
         <v>50</v>
       </c>
       <c r="T3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>53</v>
@@ -6523,10 +6470,10 @@
         <v>54</v>
       </c>
       <c r="Y3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z3" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>56</v>
@@ -6538,16 +6485,16 @@
         <v>58</v>
       </c>
       <c r="AD3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AF3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG3" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="AH3" s="7" t="s">
         <v>61</v>
@@ -8043,25 +7990,25 @@
         <v>64</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="E16" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="G16" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="H16" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="I16" s="25" t="s">
         <v>156</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>157</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>87</v>
@@ -8070,7 +8017,7 @@
         <v>72</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M16" s="11">
         <v>3</v>
@@ -8173,25 +8120,25 @@
         <v>64</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="E17" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="G17" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="H17" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="H17" s="25" t="s">
+      <c r="I17" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>165</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>87</v>
@@ -8200,7 +8147,7 @@
         <v>72</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M17" s="11">
         <v>5</v>
@@ -8303,25 +8250,25 @@
         <v>64</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="E18" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="G18" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="G18" s="25" t="s">
+      <c r="H18" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="I18" s="25" t="s">
         <v>172</v>
-      </c>
-      <c r="I18" s="25" t="s">
-        <v>173</v>
       </c>
       <c r="J18" s="10" t="s">
         <v>87</v>
@@ -8330,7 +8277,7 @@
         <v>72</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M18" s="11">
         <v>4</v>
@@ -8436,22 +8383,22 @@
         <v>105</v>
       </c>
       <c r="D19" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="G19" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="G19" s="25" t="s">
+      <c r="H19" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="H19" s="25" t="s">
+      <c r="I19" s="25" t="s">
         <v>179</v>
-      </c>
-      <c r="I19" s="25" t="s">
-        <v>180</v>
       </c>
       <c r="J19" s="10" t="s">
         <v>87</v>
@@ -8460,7 +8407,7 @@
         <v>87</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M19" s="11">
         <v>3</v>
@@ -8563,25 +8510,25 @@
         <v>64</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="E20" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="G20" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="H20" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="I20" s="25" t="s">
         <v>187</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>188</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>72</v>
@@ -8590,7 +8537,7 @@
         <v>72</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M20" s="11">
         <v>3</v>
@@ -8696,22 +8643,22 @@
         <v>89</v>
       </c>
       <c r="D21" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="F21" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="G21" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="H21" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="I21" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>195</v>
       </c>
       <c r="J21" s="10" t="s">
         <v>72</v>
@@ -8720,7 +8667,7 @@
         <v>72</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M21" s="11">
         <v>4</v>
@@ -8823,25 +8770,25 @@
         <v>64</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="G22" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="H22" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="I22" s="25" t="s">
         <v>201</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>202</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>87</v>
@@ -8850,7 +8797,7 @@
         <v>72</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M22" s="11">
         <v>5</v>
@@ -8956,22 +8903,22 @@
         <v>97</v>
       </c>
       <c r="D23" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="F23" s="25" t="s">
+      <c r="G23" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="H23" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H23" s="25" t="s">
+      <c r="I23" s="25" t="s">
         <v>208</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>209</v>
       </c>
       <c r="J23" s="10" t="s">
         <v>87</v>
@@ -8980,7 +8927,7 @@
         <v>87</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M23" s="11">
         <v>3</v>
@@ -9086,22 +9033,22 @@
         <v>97</v>
       </c>
       <c r="D24" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="G24" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="H24" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="I24" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>216</v>
       </c>
       <c r="J24" s="10" t="s">
         <v>72</v>
@@ -9110,7 +9057,7 @@
         <v>72</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M24" s="11">
         <v>4</v>
@@ -9216,22 +9163,22 @@
         <v>105</v>
       </c>
       <c r="D25" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="G25" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="H25" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="I25" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>223</v>
       </c>
       <c r="J25" s="10" t="s">
         <v>72</v>
@@ -9240,7 +9187,7 @@
         <v>72</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M25" s="11">
         <v>2</v>
@@ -9346,22 +9293,22 @@
         <v>89</v>
       </c>
       <c r="D26" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="G26" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="H26" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="H26" s="25" t="s">
+      <c r="I26" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>72</v>
@@ -9370,7 +9317,7 @@
         <v>72</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M26" s="11">
         <v>3</v>
@@ -9473,25 +9420,25 @@
         <v>64</v>
       </c>
       <c r="C27" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="F27" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="G27" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="H27" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="I27" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="I27" s="25" t="s">
-        <v>238</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>72</v>
@@ -9500,7 +9447,7 @@
         <v>72</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M27" s="11">
         <v>3</v>
@@ -9603,25 +9550,25 @@
         <v>64</v>
       </c>
       <c r="C28" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E28" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="F28" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="G28" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="H28" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="I28" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>246</v>
       </c>
       <c r="J28" s="28" t="s">
         <v>72</v>
@@ -9630,7 +9577,7 @@
         <v>72</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M28" s="11">
         <v>4</v>
@@ -9733,25 +9680,25 @@
         <v>64</v>
       </c>
       <c r="C29" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="D29" s="37" t="s">
+      <c r="F29" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="G29" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="H29" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="I29" s="25" t="s">
         <v>251</v>
-      </c>
-      <c r="H29" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="I29" s="25" t="s">
-        <v>253</v>
       </c>
       <c r="J29" s="28" t="s">
         <v>72</v>
@@ -9760,7 +9707,7 @@
         <v>72</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M29" s="11">
         <v>3</v>
@@ -9863,25 +9810,25 @@
         <v>64</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D30" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="G30" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="H30" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="I30" s="25" t="s">
         <v>257</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="I30" s="25" t="s">
-        <v>259</v>
       </c>
       <c r="J30" s="28" t="s">
         <v>72</v>
@@ -9890,7 +9837,7 @@
         <v>72</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M30" s="11">
         <v>4</v>
@@ -9993,25 +9940,25 @@
         <v>64</v>
       </c>
       <c r="C31" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="F31" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="G31" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="H31" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="I31" s="25" t="s">
         <v>265</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="I31" s="25" t="s">
-        <v>267</v>
       </c>
       <c r="J31" s="28" t="s">
         <v>87</v>
@@ -10020,7 +9967,7 @@
         <v>87</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M31" s="11">
         <v>4</v>
@@ -10123,25 +10070,25 @@
         <v>64</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D32" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="G32" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="H32" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="I32" s="25" t="s">
         <v>271</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>272</v>
-      </c>
-      <c r="I32" s="25" t="s">
-        <v>273</v>
       </c>
       <c r="J32" s="28" t="s">
         <v>87</v>
@@ -10150,7 +10097,7 @@
         <v>87</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M32" s="11">
         <v>4</v>
@@ -10250,28 +10197,28 @@
     </row>
     <row r="33" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="E33" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="H33" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="H33" s="25" t="s">
+      <c r="I33" s="25" t="s">
         <v>279</v>
-      </c>
-      <c r="I33" s="25" t="s">
-        <v>280</v>
       </c>
       <c r="J33" s="10" t="s">
         <v>72</v>
@@ -10280,7 +10227,7 @@
         <v>72</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M33" s="30">
         <v>4</v>
@@ -10380,28 +10327,28 @@
     </row>
     <row r="34" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="E34" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="H34" s="25" t="s">
         <v>286</v>
       </c>
-      <c r="H34" s="25" t="s">
+      <c r="I34" s="25" t="s">
         <v>287</v>
-      </c>
-      <c r="I34" s="25" t="s">
-        <v>288</v>
       </c>
       <c r="J34" s="10" t="s">
         <v>72</v>
@@ -10410,7 +10357,7 @@
         <v>72</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M34" s="30">
         <v>3</v>
@@ -10510,28 +10457,28 @@
     </row>
     <row r="35" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="F35" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="G35" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="H35" s="25" t="s">
         <v>293</v>
       </c>
-      <c r="G35" s="25" t="s">
+      <c r="I35" s="25" t="s">
         <v>294</v>
-      </c>
-      <c r="H35" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="I35" s="25" t="s">
-        <v>296</v>
       </c>
       <c r="J35" s="10" t="s">
         <v>72</v>
@@ -10540,7 +10487,7 @@
         <v>72</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M35" s="30">
         <v>3</v>
@@ -10640,28 +10587,28 @@
     </row>
     <row r="36" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="F36" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="G36" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="H36" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="I36" s="25" t="s">
         <v>302</v>
-      </c>
-      <c r="H36" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="I36" s="25" t="s">
-        <v>304</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>72</v>
@@ -10670,7 +10617,7 @@
         <v>72</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="M36" s="30">
         <v>2</v>
@@ -10770,28 +10717,28 @@
     </row>
     <row r="37" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D37" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="G37" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="H37" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="I37" s="25" t="s">
         <v>309</v>
-      </c>
-      <c r="H37" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="I37" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="J37" s="10" t="s">
         <v>72</v>
@@ -10800,7 +10747,7 @@
         <v>72</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M37" s="30">
         <v>3</v>
@@ -10900,28 +10847,28 @@
     </row>
     <row r="38" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C38" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="F38" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="G38" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="H38" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="I38" s="25" t="s">
         <v>317</v>
-      </c>
-      <c r="H38" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>319</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>87</v>
@@ -10930,7 +10877,7 @@
         <v>87</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M38" s="11">
         <v>3.5</v>
@@ -11030,28 +10977,28 @@
     </row>
     <row r="39" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D39" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="G39" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="H39" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="I39" s="25" t="s">
         <v>324</v>
-      </c>
-      <c r="H39" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="I39" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="J39" s="10" t="s">
         <v>87</v>
@@ -11060,7 +11007,7 @@
         <v>87</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M39" s="11">
         <v>3.5</v>
@@ -11160,28 +11107,28 @@
     </row>
     <row r="40" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D40" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="G40" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="H40" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="I40" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="H40" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="I40" s="25" t="s">
-        <v>333</v>
       </c>
       <c r="J40" s="10" t="s">
         <v>87</v>
@@ -11190,7 +11137,7 @@
         <v>87</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M40" s="30">
         <v>3</v>
@@ -11290,28 +11237,28 @@
     </row>
     <row r="41" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D41" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F41" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="G41" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="H41" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="I41" s="25" t="s">
         <v>338</v>
-      </c>
-      <c r="H41" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>340</v>
       </c>
       <c r="J41" s="10" t="s">
         <v>87</v>
@@ -11320,7 +11267,7 @@
         <v>87</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M41" s="11">
         <v>3</v>
@@ -11420,28 +11367,28 @@
     </row>
     <row r="42" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C42" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D42" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="G42" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="H42" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="I42" s="25" t="s">
         <v>345</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="I42" s="25" t="s">
-        <v>347</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>87</v>
@@ -11450,7 +11397,7 @@
         <v>87</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M42" s="11">
         <v>3</v>
@@ -11550,28 +11497,28 @@
     </row>
     <row r="43" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C43" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D43" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="G43" s="25" t="s">
         <v>350</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="H43" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="I43" s="25" t="s">
         <v>352</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>353</v>
-      </c>
-      <c r="I43" s="25" t="s">
-        <v>354</v>
       </c>
       <c r="J43" s="10" t="s">
         <v>87</v>
@@ -11580,7 +11527,7 @@
         <v>87</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M43" s="30">
         <v>3</v>
@@ -11680,28 +11627,28 @@
     </row>
     <row r="44" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D44" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="G44" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="H44" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="G44" s="25" t="s">
+      <c r="I44" s="25" t="s">
         <v>359</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="I44" s="25" t="s">
-        <v>361</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>87</v>
@@ -11710,7 +11657,7 @@
         <v>87</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M44" s="30">
         <v>2</v>
@@ -11810,28 +11757,28 @@
     </row>
     <row r="45" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C45" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D45" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="G45" s="25" t="s">
         <v>364</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="H45" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="G45" s="25" t="s">
+      <c r="I45" s="25" t="s">
         <v>366</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="I45" s="25" t="s">
-        <v>368</v>
       </c>
       <c r="J45" s="10" t="s">
         <v>72</v>
@@ -11840,7 +11787,7 @@
         <v>87</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M45" s="30">
         <v>3</v>
@@ -11940,28 +11887,28 @@
     </row>
     <row r="46" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D46" s="36" t="s">
+        <v>368</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="G46" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="H46" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="G46" s="25" t="s">
+      <c r="I46" s="25" t="s">
         <v>373</v>
-      </c>
-      <c r="H46" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>375</v>
       </c>
       <c r="J46" s="10" t="s">
         <v>87</v>
@@ -11970,7 +11917,7 @@
         <v>87</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M46" s="30">
         <v>2</v>
@@ -12070,28 +12017,28 @@
     </row>
     <row r="47" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="F47" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="G47" s="25" t="s">
         <v>379</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="H47" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="I47" s="25" t="s">
         <v>381</v>
-      </c>
-      <c r="H47" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="I47" s="25" t="s">
-        <v>383</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>72</v>
@@ -12100,7 +12047,7 @@
         <v>87</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M47" s="30">
         <v>2</v>
@@ -12200,28 +12147,28 @@
     </row>
     <row r="48" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D48" s="36" t="s">
+        <v>383</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="G48" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="H48" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="G48" s="25" t="s">
+      <c r="I48" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="H48" s="25" t="s">
-        <v>389</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>390</v>
       </c>
       <c r="J48" s="10" t="s">
         <v>87</v>
@@ -12230,7 +12177,7 @@
         <v>87</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M48" s="30">
         <v>1</v>
@@ -12330,28 +12277,28 @@
     </row>
     <row r="49" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C49" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="57" t="s">
         <v>392</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="F49" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="G49" s="25" t="s">
         <v>394</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="H49" s="25" t="s">
         <v>395</v>
       </c>
-      <c r="G49" s="25" t="s">
+      <c r="I49" s="25" t="s">
         <v>396</v>
-      </c>
-      <c r="H49" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="I49" s="25" t="s">
-        <v>398</v>
       </c>
       <c r="J49" s="10" t="s">
         <v>87</v>
@@ -12360,7 +12307,7 @@
         <v>87</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M49" s="30">
         <v>2</v>
@@ -12460,28 +12407,28 @@
     </row>
     <row r="50" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D50" s="36" t="s">
+        <v>398</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="F50" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="G50" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="H50" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="G50" s="25" t="s">
+      <c r="I50" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>405</v>
       </c>
       <c r="J50" s="10" t="s">
         <v>87</v>
@@ -12490,7 +12437,7 @@
         <v>87</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M50" s="30">
         <v>3</v>
@@ -12590,28 +12537,28 @@
     </row>
     <row r="51" spans="2:41" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="29" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="C51" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="F51" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="G51" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="H51" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="G51" s="25" t="s">
+      <c r="I51" s="25" t="s">
         <v>411</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>413</v>
       </c>
       <c r="J51" s="10" t="s">
         <v>87</v>
@@ -12620,7 +12567,7 @@
         <v>87</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M51" s="30">
         <v>3</v>
@@ -12720,13 +12667,13 @@
     </row>
     <row r="52" spans="2:41">
       <c r="G52" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
       <c r="S52" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T52" s="32"/>
       <c r="U52" s="32"/>
@@ -12742,13 +12689,13 @@
     </row>
     <row r="53" spans="2:41">
       <c r="G53" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M53" s="31"/>
       <c r="N53" s="31"/>
       <c r="O53" s="31"/>
       <c r="S53" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T53" s="32"/>
       <c r="U53" s="32"/>
@@ -12764,13 +12711,13 @@
     </row>
     <row r="54" spans="2:41">
       <c r="G54" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
       <c r="S54" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T54" s="32"/>
       <c r="U54" s="32"/>
@@ -12786,13 +12733,13 @@
     </row>
     <row r="55" spans="2:41">
       <c r="G55" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M55" s="31"/>
       <c r="N55" s="31"/>
       <c r="O55" s="31"/>
       <c r="S55" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T55" s="32"/>
       <c r="U55" s="32"/>
@@ -12808,13 +12755,13 @@
     </row>
     <row r="56" spans="2:41">
       <c r="G56" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M56" s="31"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
       <c r="S56" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
@@ -12830,13 +12777,13 @@
     </row>
     <row r="57" spans="2:41">
       <c r="G57" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M57" s="31"/>
       <c r="N57" s="31"/>
       <c r="O57" s="31"/>
       <c r="S57" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T57" s="32"/>
       <c r="U57" s="32"/>
@@ -12852,13 +12799,13 @@
     </row>
     <row r="58" spans="2:41">
       <c r="G58" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M58" s="31"/>
       <c r="N58" s="31"/>
       <c r="O58" s="31"/>
       <c r="S58" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T58" s="32"/>
       <c r="U58" s="32"/>
@@ -12874,13 +12821,13 @@
     </row>
     <row r="59" spans="2:41">
       <c r="G59" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M59" s="31"/>
       <c r="N59" s="31"/>
       <c r="O59" s="31"/>
       <c r="S59" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T59" s="32"/>
       <c r="U59" s="32"/>
@@ -12896,13 +12843,13 @@
     </row>
     <row r="60" spans="2:41">
       <c r="G60" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M60" s="31"/>
       <c r="N60" s="31"/>
       <c r="O60" s="31"/>
       <c r="S60" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T60" s="32"/>
       <c r="U60" s="32"/>
@@ -12918,13 +12865,13 @@
     </row>
     <row r="61" spans="2:41">
       <c r="G61" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M61" s="31"/>
       <c r="N61" s="31"/>
       <c r="O61" s="31"/>
       <c r="S61" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T61" s="32"/>
       <c r="U61" s="32"/>
@@ -12940,13 +12887,13 @@
     </row>
     <row r="62" spans="2:41">
       <c r="G62" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M62" s="31"/>
       <c r="N62" s="31"/>
       <c r="O62" s="31"/>
       <c r="S62" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T62" s="32"/>
       <c r="U62" s="32"/>
@@ -12962,13 +12909,13 @@
     </row>
     <row r="63" spans="2:41">
       <c r="G63" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M63" s="31"/>
       <c r="N63" s="31"/>
       <c r="O63" s="31"/>
       <c r="S63" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T63" s="32"/>
       <c r="U63" s="32"/>
@@ -12984,13 +12931,13 @@
     </row>
     <row r="64" spans="2:41">
       <c r="G64" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M64" s="31"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31"/>
       <c r="S64" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T64" s="32"/>
       <c r="U64" s="32"/>
@@ -13006,13 +12953,13 @@
     </row>
     <row r="65" spans="7:40">
       <c r="G65" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M65" s="31"/>
       <c r="N65" s="31"/>
       <c r="O65" s="31"/>
       <c r="S65" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T65" s="32"/>
       <c r="U65" s="32"/>
@@ -13028,13 +12975,13 @@
     </row>
     <row r="66" spans="7:40">
       <c r="G66" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M66" s="31"/>
       <c r="N66" s="31"/>
       <c r="O66" s="31"/>
       <c r="S66" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T66" s="32"/>
       <c r="U66" s="32"/>
@@ -13050,13 +12997,13 @@
     </row>
     <row r="67" spans="7:40">
       <c r="G67" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M67" s="31"/>
       <c r="N67" s="31"/>
       <c r="O67" s="31"/>
       <c r="S67" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T67" s="32"/>
       <c r="U67" s="32"/>
@@ -13072,13 +13019,13 @@
     </row>
     <row r="68" spans="7:40">
       <c r="G68" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M68" s="31"/>
       <c r="N68" s="31"/>
       <c r="O68" s="31"/>
       <c r="S68" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T68" s="32"/>
       <c r="U68" s="32"/>
@@ -13094,13 +13041,13 @@
     </row>
     <row r="69" spans="7:40">
       <c r="G69" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
       <c r="S69" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T69" s="32"/>
       <c r="U69" s="32"/>
@@ -13116,13 +13063,13 @@
     </row>
     <row r="70" spans="7:40">
       <c r="G70" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M70" s="31"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
       <c r="S70" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T70" s="32"/>
       <c r="U70" s="32"/>
@@ -13138,13 +13085,13 @@
     </row>
     <row r="71" spans="7:40">
       <c r="G71" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="S71" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T71" s="32"/>
       <c r="U71" s="32"/>
@@ -13160,13 +13107,13 @@
     </row>
     <row r="72" spans="7:40">
       <c r="G72" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M72" s="31"/>
       <c r="N72" s="31"/>
       <c r="O72" s="31"/>
       <c r="S72" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T72" s="32"/>
       <c r="U72" s="32"/>
@@ -13182,13 +13129,13 @@
     </row>
     <row r="73" spans="7:40">
       <c r="G73" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M73" s="31"/>
       <c r="N73" s="31"/>
       <c r="O73" s="31"/>
       <c r="S73" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T73" s="32"/>
       <c r="U73" s="32"/>
@@ -13204,13 +13151,13 @@
     </row>
     <row r="74" spans="7:40">
       <c r="G74" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M74" s="31"/>
       <c r="N74" s="31"/>
       <c r="O74" s="31"/>
       <c r="S74" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T74" s="32"/>
       <c r="U74" s="32"/>
@@ -13226,13 +13173,13 @@
     </row>
     <row r="75" spans="7:40">
       <c r="G75" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M75" s="31"/>
       <c r="N75" s="31"/>
       <c r="O75" s="31"/>
       <c r="S75" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T75" s="32"/>
       <c r="U75" s="32"/>
@@ -13248,13 +13195,13 @@
     </row>
     <row r="76" spans="7:40">
       <c r="G76" s="25" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M76" s="31"/>
       <c r="N76" s="31"/>
       <c r="O76" s="31"/>
       <c r="S76" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="T76" s="32"/>
       <c r="U76" s="32"/>
@@ -13291,59 +13238,59 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="2" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="36.5703125" customWidth="1"/>
+    <col min="12" max="12" width="36.42578125" customWidth="1"/>
     <col min="13" max="13" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="2:24">
       <c r="B3" s="41" t="s">
+        <v>416</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="E3" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="F3" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="G3" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="H3" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="I3" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>425</v>
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>422</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>423</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>424</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>425</v>
       </c>
       <c r="N3" s="41"/>
       <c r="O3" s="41"/>
@@ -13356,21 +13303,21 @@
       <c r="V3" s="41"/>
       <c r="W3" s="41"/>
       <c r="X3" s="41" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" cm="1">
         <f t="array" ref="B4:B71">IF(Dashboard!D4="Farmer Income",INDEX(proc_practices,,11),IF(Dashboard!D4="Environment",INDEX(proc_practices,,12),INDEX(proc_practices,,13)))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" cm="1">
         <f t="array" ref="C4:C71">INDEX(proc_practices,,MATCH(Dashboard!$D$5,var_columns,0))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" cm="1">
         <f t="array" ref="D4:D71">INDEX(proc_practices,,MATCH(Dashboard!$D$6,var_columns,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" cm="1">
         <f t="array" ref="E4:E71">INDEX(proc_practices,,MATCH(Dashboard!$D$7,var_columns,0))</f>
@@ -13378,11 +13325,11 @@
       </c>
       <c r="F4" cm="1">
         <f t="array" ref="F4:F71">INDEX(proc_practices,,MATCH(Dashboard!$D$8,var_columns,0))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G35" si="0">SUM(C4:F4,B4*2)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" t="str" cm="1">
         <f t="array" ref="H4:H71">INDEX(proc_practices,,2)</f>
@@ -13393,37 +13340,37 @@
       </c>
       <c r="K4" cm="1">
         <f t="array" ref="K4:M79">_xlfn._xlws.SORT(G4:I79,1,-1)</f>
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="L4" t="str">
-        <v>Supporting regenerative agriculture</v>
+        <v>Supporting Regenerative Agriculture</v>
       </c>
       <c r="M4">
         <v>34</v>
       </c>
       <c r="X4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="2:24">
       <c r="B5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H5" t="str">
         <v>Long-Term / Multi-seasonal Contracts</v>
@@ -13432,7 +13379,7 @@
         <v>2</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="str">
         <v>Long-Term / Multi-seasonal Contracts</v>
@@ -13441,28 +13388,28 @@
         <v>2</v>
       </c>
       <c r="X5" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="2:24">
       <c r="B6">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H6" t="str">
         <v>Pricing Methods</v>
@@ -13471,16 +13418,16 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="str">
-        <v>Supplier Capacity Building</v>
+        <v>Procurement-Driven Sustainability Investments</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X6" t="s">
-        <v>428</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:24">
@@ -13488,20 +13435,20 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H7" t="str">
         <v>Procurement-Driven Sustainability Investments</v>
@@ -13510,24 +13457,24 @@
         <v>4</v>
       </c>
       <c r="K7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" t="str">
-        <v>Supplier sustainability assessment</v>
+        <v>Partial Payments and Milestone Payments</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:24">
       <c r="B8">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -13537,7 +13484,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" t="str">
         <v>Buyer Incentives</v>
@@ -13546,7 +13493,7 @@
         <v>5</v>
       </c>
       <c r="K8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" t="str">
         <v>Buyer Sustainability Targets</v>
@@ -13560,20 +13507,20 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" t="str">
         <v>Supplier Capacity Building</v>
@@ -13582,13 +13529,13 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" t="str">
-        <v>Supporting organic farming</v>
+        <v>Simple Contract Terminology</v>
       </c>
       <c r="M9">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:24">
@@ -13596,16 +13543,16 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -13618,30 +13565,30 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L10" t="str">
-        <v>Payment Management &amp; Procurement Risk Mangement</v>
+        <v>Pricing Methods</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:24">
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -13654,22 +13601,22 @@
         <v>8</v>
       </c>
       <c r="K11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L11" t="str">
-        <v>Partial Payments and Milestone Payments</v>
+        <v>Buyer Incentives</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:24">
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
       <c r="D12">
         <v>4</v>
       </c>
@@ -13677,11 +13624,11 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="str">
         <v>Crop Insurance</v>
@@ -13690,34 +13637,35 @@
         <v>9</v>
       </c>
       <c r="K12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L12" t="str">
-        <v>Supply Chain Traceability</v>
+        <v xml:space="preserve">Shorter Payment Periods
+</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:24">
       <c r="B13">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H13" t="str">
         <v xml:space="preserve">Make vs. Buy Decision </v>
@@ -13726,34 +13674,34 @@
         <v>10</v>
       </c>
       <c r="K13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L13" t="str">
-        <v>Data Management</v>
+        <v>Business Procurement Requirements Planning</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:24">
       <c r="B14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H14" t="str">
         <v>Direct Farmer Contracting Programs</v>
@@ -13762,34 +13710,34 @@
         <v>11</v>
       </c>
       <c r="K14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L14" t="str">
-        <v>Adoption of a green policy</v>
+        <v>Supplier Sustainability Assessment</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:24">
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" t="str">
         <v>Fair Pricing Negotiation Practices</v>
@@ -13798,21 +13746,21 @@
         <v>12</v>
       </c>
       <c r="K15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L15" t="str">
-        <v>Conducting an Environmental Impact Assessment (EIA)</v>
+        <v>Direct Cash Incentives</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:24">
       <c r="B16">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -13821,11 +13769,11 @@
         <v>3</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H16" t="str">
         <v>Partial Payments and Milestone Payments</v>
@@ -13834,34 +13782,34 @@
         <v>13</v>
       </c>
       <c r="K16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L16" t="str">
-        <v>Simple Contract Terminology</v>
+        <v>Supporting Agroforestry</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:13">
       <c r="B17">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H17" t="str">
         <v xml:space="preserve">Shorter Payment Periods
@@ -13871,27 +13819,27 @@
         <v>14</v>
       </c>
       <c r="K17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L17" t="str">
-        <v>Pricing Methods</v>
+        <v>Payment Management &amp; Procurement Risk Mangement</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:13">
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -13907,30 +13855,30 @@
         <v>15</v>
       </c>
       <c r="K18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L18" t="str">
-        <v>Procurement-Driven Sustainability Investments</v>
+        <v>Direct Farmer Contracting Programs</v>
       </c>
       <c r="M18">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:13">
       <c r="B19">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
@@ -13943,35 +13891,34 @@
         <v>16</v>
       </c>
       <c r="K19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" t="str">
-        <v xml:space="preserve">Shorter Payment Periods
-</v>
+        <v>Supply Chain Traceability</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:13">
       <c r="B20">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H20" t="str">
         <v>Buyer Sustainability Targets</v>
@@ -13980,34 +13927,34 @@
         <v>17</v>
       </c>
       <c r="K20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L20" t="str">
-        <v>Sustainable Agricultural Certification Premiums</v>
+        <v>Direct &amp; Indirect Finance</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H21" t="str">
         <v>Direct Cash Incentives</v>
@@ -14016,21 +13963,21 @@
         <v>18</v>
       </c>
       <c r="K21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L21" t="str">
-        <v>Third Party Farming Support</v>
+        <v>Pre-Finance Purchases</v>
       </c>
       <c r="M21">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -14052,34 +13999,34 @@
         <v>19</v>
       </c>
       <c r="K22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L22" t="str">
-        <v>Business procurement requirements planning</v>
+        <v>Integrating Sustainability Targets Within the Procurement Strategy</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:13">
       <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
       <c r="F23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23" t="str">
         <v>Group Certification Programs</v>
@@ -14088,13 +14035,13 @@
         <v>20</v>
       </c>
       <c r="K23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L23" t="str">
-        <v>Integrating sustainability targets within the procurement strategy</v>
+        <v>Supporting Energy Efficiency and Renewable Energy Use</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -14105,13 +14052,13 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
@@ -14127,31 +14074,31 @@
         <v>19</v>
       </c>
       <c r="L24" t="str">
-        <v>Supporting agroforestry</v>
+        <v>Supplier Capacity Building</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H25" t="str">
         <v>Public Procurement Programs</v>
@@ -14163,31 +14110,31 @@
         <v>19</v>
       </c>
       <c r="L25" t="str">
-        <v>Supporting sustainable water management</v>
+        <v>Fair Pricing Negotiation Practices</v>
       </c>
       <c r="M25">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H26" t="str">
         <v xml:space="preserve">Supplier Segmentation </v>
@@ -14199,54 +14146,54 @@
         <v>19</v>
       </c>
       <c r="L26" t="str">
-        <v>Supporting energy efficiency/renewable energy use</v>
+        <v>Sustainable Agricultural Certification Premiums</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H27" t="str">
-        <v>Business procurement requirements planning</v>
+        <v>Business Procurement Requirements Planning</v>
       </c>
       <c r="I27">
         <v>24</v>
       </c>
       <c r="K27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L27" t="str">
-        <v>Fair Pricing Negotiation Practices</v>
+        <v>Third Party Farming Support</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -14268,34 +14215,34 @@
         <v>25</v>
       </c>
       <c r="K28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L28" t="str">
-        <v>Performance Based Incentives</v>
+        <v>Data Management</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>4</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H29" t="str">
         <v>Data Management</v>
@@ -14304,34 +14251,34 @@
         <v>26</v>
       </c>
       <c r="K29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L29" t="str">
-        <v>Direct &amp; Indirect Finance</v>
+        <v>Adoption of a Green Policy</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="str">
         <v>Direct &amp; Indirect Finance</v>
@@ -14340,18 +14287,18 @@
         <v>27</v>
       </c>
       <c r="K30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L30" t="str">
-        <v>Pre-Finance Purchases</v>
+        <v>Supporting Organic Farming</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="2:13">
       <c r="B31">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -14360,14 +14307,14 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="str">
         <v>Pre-Finance Purchases</v>
@@ -14376,13 +14323,13 @@
         <v>28</v>
       </c>
       <c r="K31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L31" t="str">
-        <v>Organic agriculture certification</v>
+        <v>Supporting Sustainable Water Management</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -14390,71 +14337,71 @@
         <v>4</v>
       </c>
       <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
       <c r="E32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" t="str">
-        <v>Integrating sustainability targets within the procurement strategy</v>
+        <v>Integrating Sustainability Targets Within the Procurement Strategy</v>
       </c>
       <c r="I32">
         <v>29</v>
       </c>
       <c r="K32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L32" t="str">
-        <v>Buyer Incentives</v>
+        <v>Performance Based Incentives</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" t="str">
-        <v>Adoption of a green policy</v>
+        <v>Adoption of a Green Policy</v>
       </c>
       <c r="I33">
         <v>30</v>
       </c>
       <c r="K33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L33" t="str">
-        <v xml:space="preserve">Public Pricing Disclosure &amp; Measurement </v>
+        <v xml:space="preserve">Supplier Segmentation </v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -14462,56 +14409,56 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="H34" t="str">
-        <v>Supplier sustainability assessment</v>
+        <v>Supplier Sustainability Assessment</v>
       </c>
       <c r="I34">
         <v>31</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L34" t="str">
-        <v>Direct Cash Incentives</v>
+        <v>Organic Agriculture Certification</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H35" t="str">
         <v>Conducting an Environmental Impact Assessment (EIA)</v>
@@ -14520,13 +14467,13 @@
         <v>32</v>
       </c>
       <c r="K35">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="L35" t="str">
-        <v xml:space="preserve">Supplier Segmentation </v>
+        <v>Supporting Limited Use of Chemical Products</v>
       </c>
       <c r="M35">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -14537,20 +14484,20 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <f t="shared" ref="G36:G67" si="1">SUM(C36:F36,B36*2)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" t="str">
-        <v>Conducting a Lifecycle Assessment (LCA)</v>
+        <v>Conducting a Life Cycle Assessment (LCA)</v>
       </c>
       <c r="I36">
         <v>33</v>
@@ -14559,40 +14506,40 @@
         <v>17</v>
       </c>
       <c r="L36" t="str">
-        <v xml:space="preserve">Supporting soil conservation </v>
+        <v xml:space="preserve">Public Pricing Disclosure &amp; Measurement </v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F37">
         <v>4</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>24.5</v>
       </c>
       <c r="H37" t="str">
-        <v>Supporting regenerative agriculture</v>
+        <v>Supporting Regenerative Agriculture</v>
       </c>
       <c r="I37">
         <v>34</v>
       </c>
       <c r="K37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L37" t="str">
         <v xml:space="preserve">Make vs. Buy Decision </v>
@@ -14603,46 +14550,46 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="H38" t="str">
-        <v>Supporting limited use of chemical products</v>
+        <v>Supporting Limited Use of Chemical Products</v>
       </c>
       <c r="I38">
         <v>35</v>
       </c>
       <c r="K38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L38" t="str">
-        <v>Performance Based Buyer Bonuses</v>
+        <v>Group Certification Programs</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="2:13">
       <c r="B39">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -14658,24 +14605,24 @@
         <v>17</v>
       </c>
       <c r="H39" t="str">
-        <v xml:space="preserve">Supporting soil conservation </v>
+        <v xml:space="preserve">Supporting Soil Conservation </v>
       </c>
       <c r="I39">
         <v>36</v>
       </c>
       <c r="K39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L39" t="str">
-        <v>Group Certification Programs</v>
+        <v>Conducting an Environmental Impact Assessment (EIA)</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:13">
       <c r="B40">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -14691,30 +14638,30 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H40" t="str">
-        <v>Supporting crop rotation and diversification</v>
+        <v>Supporting Crop Rotation and Diversification</v>
       </c>
       <c r="I40">
         <v>37</v>
       </c>
       <c r="K40">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40" t="str">
-        <v>Conducting a Lifecycle Assessment (LCA)</v>
+        <v xml:space="preserve">Supporting Soil Conservation </v>
       </c>
       <c r="M40">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:13">
       <c r="B41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -14727,16 +14674,16 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H41" t="str">
-        <v>Supporting agroforestry</v>
+        <v>Supporting Agroforestry</v>
       </c>
       <c r="I41">
         <v>38</v>
       </c>
       <c r="K41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L41" t="str">
         <v>Supporting Integrated Pest Management (IPM)</v>
@@ -14747,23 +14694,23 @@
     </row>
     <row r="42" spans="2:13">
       <c r="B42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H42" t="str">
         <v>Supporting Integrated Pest Management (IPM)</v>
@@ -14772,13 +14719,13 @@
         <v>39</v>
       </c>
       <c r="K42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L42" t="str">
-        <v>Incentivizing carbon sequestration</v>
+        <v>Crop Insurance</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -14789,7 +14736,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -14799,22 +14746,22 @@
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H43" t="str">
-        <v>Supporting hedgerows and field borders</v>
+        <v>Supporting Hedgerows and Field Borders</v>
       </c>
       <c r="I43">
         <v>40</v>
       </c>
       <c r="K43">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L43" t="str">
-        <v>Crop Insurance</v>
+        <v>Performance Based Buyer Bonuses</v>
       </c>
       <c r="M43">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="2:13">
@@ -14825,40 +14772,40 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H44" t="str">
-        <v>Supporting organic farming</v>
+        <v>Supporting Organic Farming</v>
       </c>
       <c r="I44">
         <v>41</v>
       </c>
       <c r="K44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L44" t="str">
-        <v>Direct Farmer Contracting Programs</v>
+        <v>Public Procurement Programs</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="2:13">
       <c r="B45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -14874,60 +14821,60 @@
         <v>19</v>
       </c>
       <c r="H45" t="str">
-        <v>Supporting sustainable water management</v>
+        <v>Supporting Sustainable Water Management</v>
       </c>
       <c r="I45">
         <v>42</v>
       </c>
       <c r="K45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L45" t="str">
-        <v>Supporting limited use of chemical products</v>
+        <v>Incentivizing Carbon Sequestration</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H46" t="str">
-        <v>Incentivizing carbon sequestration</v>
+        <v>Incentivizing Carbon Sequestration</v>
       </c>
       <c r="I46">
         <v>43</v>
       </c>
       <c r="K46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L46" t="str">
-        <v>Supporting crop rotation and diversification</v>
+        <v>Conducting a Life Cycle Assessment (LCA)</v>
       </c>
       <c r="M46">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -14936,29 +14883,29 @@
         <v>5</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F47">
         <v>4</v>
       </c>
       <c r="G47">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" t="str">
-        <v>Supporting energy efficiency/renewable energy use</v>
+        <v>Supporting Energy Efficiency and Renewable Energy Use</v>
       </c>
       <c r="I47">
         <v>44</v>
       </c>
       <c r="K47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L47" t="str">
-        <v>Fair trade certifications</v>
+        <v>Supporting Crop Rotation and Diversification</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="2:13">
@@ -14969,7 +14916,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -14979,22 +14926,22 @@
       </c>
       <c r="G48">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H48" t="str">
-        <v>Fair trade certifications</v>
+        <v>Fair Trade Certifications</v>
       </c>
       <c r="I48">
         <v>45</v>
       </c>
       <c r="K48">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L48" t="str">
-        <v>Public Procurement Programs</v>
+        <v>Fair Trade Certifications</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="2:13">
@@ -15002,10 +14949,10 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -15018,19 +14965,19 @@
         <v>18</v>
       </c>
       <c r="H49" t="str">
-        <v>Organic agriculture certification</v>
+        <v>Organic Agriculture Certification</v>
       </c>
       <c r="I49">
         <v>46</v>
       </c>
       <c r="K49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L49" t="str">
-        <v>Supporting Precision Agriculture</v>
+        <v>Supporting Hedgerows and Field Borders</v>
       </c>
       <c r="M49">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:13">
@@ -15041,17 +14988,17 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H50" t="str">
         <v>Supporting Precision Agriculture</v>
@@ -15060,13 +15007,13 @@
         <v>47</v>
       </c>
       <c r="K50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L50" t="str">
-        <v>Supporting hedgerows and field borders</v>
+        <v>Supporting Precision Agriculture</v>
       </c>
       <c r="M50">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="2:13">
@@ -15698,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G99" si="2">SUM(C68:F68,B68*2)</f>
+        <f t="shared" ref="G68:G79" si="2">SUM(C68:F68,B68*2)</f>
         <v>0</v>
       </c>
       <c r="H68">
@@ -15975,15 +15922,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001F0BA02F9B49FA44A5D118CD8858224A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cd7a3f7fdaa37d8dc38706163b66f632">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7484f703-2a36-4382-a9d3-c4c08c2e6f93" xmlns:ns3="9a90a49b-8135-45b8-8ab6-c5910c9d85d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50edfd040561ac7a9c73c374b2be1012" ns2:_="" ns3:_="">
     <xsd:import namespace="7484f703-2a36-4382-a9d3-c4c08c2e6f93"/>
@@ -16160,6 +16098,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -16175,11 +16122,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F740238-FCA7-475E-BCE3-8FCFAD897021}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC8E3016-3815-475E-B229-529A8C7D87F6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC8E3016-3815-475E-B229-529A8C7D87F6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F740238-FCA7-475E-BCE3-8FCFAD897021}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
